--- a/data/nzd0273/nzd0273.xlsx
+++ b/data/nzd0273/nzd0273.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R326"/>
+  <dimension ref="A1:R332"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18320,6 +18320,360 @@
         </is>
       </c>
     </row>
+    <row r="327">
+      <c r="A327" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-05 22:06:33+00:00</t>
+        </is>
+      </c>
+      <c r="B327" t="n">
+        <v>331.9311111111111</v>
+      </c>
+      <c r="C327" t="n">
+        <v>324.2995238095238</v>
+      </c>
+      <c r="D327" t="n">
+        <v>327.4295238095238</v>
+      </c>
+      <c r="E327" t="n">
+        <v>321.5515151515151</v>
+      </c>
+      <c r="F327" t="n">
+        <v>334.0603448275862</v>
+      </c>
+      <c r="G327" t="n">
+        <v>342.0252941176471</v>
+      </c>
+      <c r="H327" t="n">
+        <v>332.4152941176471</v>
+      </c>
+      <c r="I327" t="n">
+        <v>328.9733333333334</v>
+      </c>
+      <c r="J327" t="n">
+        <v>322.745</v>
+      </c>
+      <c r="K327" t="n">
+        <v>319.96</v>
+      </c>
+      <c r="L327" t="n">
+        <v>319.6695238095238</v>
+      </c>
+      <c r="M327" t="n">
+        <v>312.025</v>
+      </c>
+      <c r="N327" t="n">
+        <v>319.575</v>
+      </c>
+      <c r="O327" t="n">
+        <v>306.9611111111111</v>
+      </c>
+      <c r="P327" t="n">
+        <v>315.0533333333333</v>
+      </c>
+      <c r="Q327" t="n">
+        <v>320.35</v>
+      </c>
+      <c r="R327" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-06 22:06:30+00:00</t>
+        </is>
+      </c>
+      <c r="B328" t="inlineStr"/>
+      <c r="C328" t="n">
+        <v>363.9414285714286</v>
+      </c>
+      <c r="D328" t="inlineStr"/>
+      <c r="E328" t="n">
+        <v>363.47</v>
+      </c>
+      <c r="F328" t="n">
+        <v>335.8524137931034</v>
+      </c>
+      <c r="G328" t="n">
+        <v>355.8429411764706</v>
+      </c>
+      <c r="H328" t="n">
+        <v>359.9229411764706</v>
+      </c>
+      <c r="I328" t="n">
+        <v>349.11</v>
+      </c>
+      <c r="J328" t="n">
+        <v>343.685</v>
+      </c>
+      <c r="K328" t="n">
+        <v>324.48</v>
+      </c>
+      <c r="L328" t="n">
+        <v>332.9314285714286</v>
+      </c>
+      <c r="M328" t="n">
+        <v>347.795</v>
+      </c>
+      <c r="N328" t="n">
+        <v>356.755</v>
+      </c>
+      <c r="O328" t="n">
+        <v>335.73</v>
+      </c>
+      <c r="P328" t="n">
+        <v>352.33</v>
+      </c>
+      <c r="Q328" t="n">
+        <v>338.418947368421</v>
+      </c>
+      <c r="R328" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-14 22:06:37+00:00</t>
+        </is>
+      </c>
+      <c r="B329" t="n">
+        <v>339.1577777777778</v>
+      </c>
+      <c r="C329" t="n">
+        <v>326.5409523809524</v>
+      </c>
+      <c r="D329" t="n">
+        <v>323.5609523809524</v>
+      </c>
+      <c r="E329" t="n">
+        <v>324.0615151515152</v>
+      </c>
+      <c r="F329" t="n">
+        <v>336.7237931034483</v>
+      </c>
+      <c r="G329" t="n">
+        <v>340.7247058823529</v>
+      </c>
+      <c r="H329" t="n">
+        <v>339.9347058823529</v>
+      </c>
+      <c r="I329" t="n">
+        <v>335.0133333333333</v>
+      </c>
+      <c r="J329" t="n">
+        <v>333.745</v>
+      </c>
+      <c r="K329" t="n">
+        <v>327.03</v>
+      </c>
+      <c r="L329" t="n">
+        <v>327.6509523809524</v>
+      </c>
+      <c r="M329" t="n">
+        <v>314.955</v>
+      </c>
+      <c r="N329" t="n">
+        <v>324.475</v>
+      </c>
+      <c r="O329" t="n">
+        <v>309.6577777777778</v>
+      </c>
+      <c r="P329" t="n">
+        <v>311.7733333333333</v>
+      </c>
+      <c r="Q329" t="n">
+        <v>317.4947368421053</v>
+      </c>
+      <c r="R329" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-22 22:06:25+00:00</t>
+        </is>
+      </c>
+      <c r="B330" t="n">
+        <v>325.9411111111111</v>
+      </c>
+      <c r="C330" t="n">
+        <v>326.6652380952381</v>
+      </c>
+      <c r="D330" t="n">
+        <v>336.9852380952381</v>
+      </c>
+      <c r="E330" t="n">
+        <v>325.6524242424243</v>
+      </c>
+      <c r="F330" t="n">
+        <v>336.0241379310345</v>
+      </c>
+      <c r="G330" t="n">
+        <v>335.9358823529412</v>
+      </c>
+      <c r="H330" t="n">
+        <v>329.7158823529412</v>
+      </c>
+      <c r="I330" t="n">
+        <v>317.5333333333334</v>
+      </c>
+      <c r="J330" t="n">
+        <v>319.84</v>
+      </c>
+      <c r="K330" t="n">
+        <v>317.3</v>
+      </c>
+      <c r="L330" t="n">
+        <v>322.8652380952381</v>
+      </c>
+      <c r="M330" t="n">
+        <v>314.4</v>
+      </c>
+      <c r="N330" t="n">
+        <v>322.51</v>
+      </c>
+      <c r="O330" t="n">
+        <v>311.9111111111111</v>
+      </c>
+      <c r="P330" t="inlineStr"/>
+      <c r="Q330" t="n">
+        <v>314.4636842105263</v>
+      </c>
+      <c r="R330" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-30 22:06:32+00:00</t>
+        </is>
+      </c>
+      <c r="B331" t="n">
+        <v>336.7988888888889</v>
+      </c>
+      <c r="C331" t="n">
+        <v>328.7333333333333</v>
+      </c>
+      <c r="D331" t="n">
+        <v>322.2533333333333</v>
+      </c>
+      <c r="E331" t="n">
+        <v>327.3675757575758</v>
+      </c>
+      <c r="F331" t="n">
+        <v>338.9234482758621</v>
+      </c>
+      <c r="G331" t="n">
+        <v>343.6711764705883</v>
+      </c>
+      <c r="H331" t="n">
+        <v>338.5711764705882</v>
+      </c>
+      <c r="I331" t="n">
+        <v>335.5166666666667</v>
+      </c>
+      <c r="J331" t="n">
+        <v>333.875</v>
+      </c>
+      <c r="K331" t="n">
+        <v>328.94</v>
+      </c>
+      <c r="L331" t="n">
+        <v>329.5933333333333</v>
+      </c>
+      <c r="M331" t="n">
+        <v>317.135</v>
+      </c>
+      <c r="N331" t="n">
+        <v>322.785</v>
+      </c>
+      <c r="O331" t="n">
+        <v>311.4388888888889</v>
+      </c>
+      <c r="P331" t="n">
+        <v>315.7666666666667</v>
+      </c>
+      <c r="Q331" t="n">
+        <v>319.4973684210527</v>
+      </c>
+      <c r="R331" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-07 22:06:29+00:00</t>
+        </is>
+      </c>
+      <c r="B332" t="n">
+        <v>329.2588888888889</v>
+      </c>
+      <c r="C332" t="n">
+        <v>325.9861904761905</v>
+      </c>
+      <c r="D332" t="n">
+        <v>326.7961904761905</v>
+      </c>
+      <c r="E332" t="n">
+        <v>324.3675757575758</v>
+      </c>
+      <c r="F332" t="n">
+        <v>332.608275862069</v>
+      </c>
+      <c r="G332" t="n">
+        <v>337.9470588235294</v>
+      </c>
+      <c r="H332" t="n">
+        <v>329.0270588235294</v>
+      </c>
+      <c r="I332" t="n">
+        <v>320.2166666666666</v>
+      </c>
+      <c r="J332" t="n">
+        <v>322.255</v>
+      </c>
+      <c r="K332" t="n">
+        <v>318.65</v>
+      </c>
+      <c r="L332" t="n">
+        <v>322.3661904761905</v>
+      </c>
+      <c r="M332" t="n">
+        <v>311.165</v>
+      </c>
+      <c r="N332" t="n">
+        <v>314.305</v>
+      </c>
+      <c r="O332" t="n">
+        <v>296.4288888888889</v>
+      </c>
+      <c r="P332" t="n">
+        <v>314.0066666666667</v>
+      </c>
+      <c r="Q332" t="n">
+        <v>317.1552631578948</v>
+      </c>
+      <c r="R332" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -18331,7 +18685,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B344"/>
+  <dimension ref="A1:B350"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21779,6 +22133,66 @@
       </c>
       <c r="B344" t="n">
         <v>-0.66</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>2024-12-05 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B345" t="n">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>2025-01-06 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B346" t="n">
+        <v>-0.99</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>2025-01-14 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B347" t="n">
+        <v>1.51</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>2025-01-22 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B348" t="n">
+        <v>-0.62</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>2025-01-30 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B349" t="n">
+        <v>1.61</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>2025-02-07 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B350" t="n">
+        <v>-0.37</v>
       </c>
     </row>
   </sheetData>
@@ -21947,28 +22361,28 @@
         <v>0.101</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.7073411823204359</v>
+        <v>-0.704027034245762</v>
       </c>
       <c r="J2" t="n">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="K2" t="n">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="L2" t="n">
-        <v>0.05174733158193312</v>
+        <v>0.05353463862701624</v>
       </c>
       <c r="M2" t="n">
-        <v>12.89329155528204</v>
+        <v>12.69675248850246</v>
       </c>
       <c r="N2" t="n">
-        <v>478.5926952142633</v>
+        <v>468.2572874245608</v>
       </c>
       <c r="O2" t="n">
-        <v>21.87676153397169</v>
+        <v>21.63925339341819</v>
       </c>
       <c r="P2" t="n">
-        <v>349.6099859103435</v>
+        <v>349.5780029362725</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -22024,28 +22438,28 @@
         <v>0.1136</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.4311422266433766</v>
+        <v>-0.3806572557249998</v>
       </c>
       <c r="J3" t="n">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="K3" t="n">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="L3" t="n">
-        <v>0.07375610657074982</v>
+        <v>0.05763456280992729</v>
       </c>
       <c r="M3" t="n">
-        <v>8.30565326950148</v>
+        <v>8.328198654464638</v>
       </c>
       <c r="N3" t="n">
-        <v>124.1159320497455</v>
+        <v>128.7791313864794</v>
       </c>
       <c r="O3" t="n">
-        <v>11.14073301222794</v>
+        <v>11.34808932756873</v>
       </c>
       <c r="P3" t="n">
-        <v>331.1465671764323</v>
+        <v>330.6655941253486</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -22101,28 +22515,28 @@
         <v>0.117</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.3108180724612286</v>
+        <v>-0.3057271602512668</v>
       </c>
       <c r="J4" t="n">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="K4" t="n">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0428542443254224</v>
+        <v>0.04288951101331073</v>
       </c>
       <c r="M4" t="n">
-        <v>7.456468949523805</v>
+        <v>7.385910986697279</v>
       </c>
       <c r="N4" t="n">
-        <v>115.4613899732505</v>
+        <v>113.8715746009965</v>
       </c>
       <c r="O4" t="n">
-        <v>10.74529617894502</v>
+        <v>10.67106248697834</v>
       </c>
       <c r="P4" t="n">
-        <v>333.7637893254216</v>
+        <v>333.7159594992822</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -22178,28 +22592,28 @@
         <v>0.189</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.7682900339190238</v>
+        <v>-0.7255536840310423</v>
       </c>
       <c r="J5" t="n">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="K5" t="n">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="L5" t="n">
-        <v>0.2408411057616061</v>
+        <v>0.2170276844502204</v>
       </c>
       <c r="M5" t="n">
-        <v>7.188420758471428</v>
+        <v>7.184841739227389</v>
       </c>
       <c r="N5" t="n">
-        <v>100.2672806030525</v>
+        <v>104.851416835603</v>
       </c>
       <c r="O5" t="n">
-        <v>10.01335511220153</v>
+        <v>10.23969808322506</v>
       </c>
       <c r="P5" t="n">
-        <v>340.1037764509483</v>
+        <v>339.706462035683</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -22255,28 +22669,28 @@
         <v>0.1671</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.5512884026024051</v>
+        <v>-0.5403946309887255</v>
       </c>
       <c r="J6" t="n">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="K6" t="n">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="L6" t="n">
-        <v>0.1865912847396424</v>
+        <v>0.1867165863995121</v>
       </c>
       <c r="M6" t="n">
-        <v>5.993462471941926</v>
+        <v>5.914820234523984</v>
       </c>
       <c r="N6" t="n">
-        <v>70.54236341580983</v>
+        <v>69.26463987123522</v>
       </c>
       <c r="O6" t="n">
-        <v>8.398950137714227</v>
+        <v>8.322538066673845</v>
       </c>
       <c r="P6" t="n">
-        <v>346.8595427590438</v>
+        <v>346.756231739672</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -22332,28 +22746,28 @@
         <v>0.0965</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.5341800121522536</v>
+        <v>-0.5218782384291105</v>
       </c>
       <c r="J7" t="n">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="K7" t="n">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="L7" t="n">
-        <v>0.1605495698826451</v>
+        <v>0.1582528127597107</v>
       </c>
       <c r="M7" t="n">
-        <v>6.622693992345017</v>
+        <v>6.585287475271815</v>
       </c>
       <c r="N7" t="n">
-        <v>78.45829077866507</v>
+        <v>77.86660153098927</v>
       </c>
       <c r="O7" t="n">
-        <v>8.857668473061356</v>
+        <v>8.824205433408114</v>
       </c>
       <c r="P7" t="n">
-        <v>353.0013819819596</v>
+        <v>352.8837975489718</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -22409,28 +22823,28 @@
         <v>0.0979</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.4186441919883333</v>
+        <v>-0.3948892705310896</v>
       </c>
       <c r="J8" t="n">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="K8" t="n">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="L8" t="n">
-        <v>0.09158687989056136</v>
+        <v>0.08321777334914648</v>
       </c>
       <c r="M8" t="n">
-        <v>7.342115818850127</v>
+        <v>7.359858612619125</v>
       </c>
       <c r="N8" t="n">
-        <v>91.88603330202736</v>
+        <v>92.95498087783272</v>
       </c>
       <c r="O8" t="n">
-        <v>9.585720280814966</v>
+        <v>9.641316345698481</v>
       </c>
       <c r="P8" t="n">
-        <v>343.0891427525651</v>
+        <v>342.863535833957</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -22486,28 +22900,28 @@
         <v>0.0859</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.6416545227324055</v>
+        <v>-0.615113099649645</v>
       </c>
       <c r="J9" t="n">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="K9" t="n">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="L9" t="n">
-        <v>0.1857432636437254</v>
+        <v>0.1748181509475516</v>
       </c>
       <c r="M9" t="n">
-        <v>7.132980979216419</v>
+        <v>7.177708702802679</v>
       </c>
       <c r="N9" t="n">
-        <v>93.15700143878135</v>
+        <v>94.3496520988009</v>
       </c>
       <c r="O9" t="n">
-        <v>9.651787473767818</v>
+        <v>9.713374907765113</v>
       </c>
       <c r="P9" t="n">
-        <v>340.8111624178462</v>
+        <v>340.5545934292751</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -22563,28 +22977,28 @@
         <v>0.0877</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.4658679390020148</v>
+        <v>-0.4431379498052203</v>
       </c>
       <c r="J10" t="n">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="K10" t="n">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="L10" t="n">
-        <v>0.1024414146860203</v>
+        <v>0.09517673003501159</v>
       </c>
       <c r="M10" t="n">
-        <v>7.353399843483571</v>
+        <v>7.346862505031218</v>
       </c>
       <c r="N10" t="n">
-        <v>98.45180352913512</v>
+        <v>98.56603528853225</v>
       </c>
       <c r="O10" t="n">
-        <v>9.922288220422502</v>
+        <v>9.928042873020456</v>
       </c>
       <c r="P10" t="n">
-        <v>335.1805660326508</v>
+        <v>334.9571929329634</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -22640,28 +23054,28 @@
         <v>0.1065</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.2436650558038754</v>
+        <v>-0.2428029506690818</v>
       </c>
       <c r="J11" t="n">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="K11" t="n">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="L11" t="n">
-        <v>0.04130957824841464</v>
+        <v>0.04249501137003264</v>
       </c>
       <c r="M11" t="n">
-        <v>6.057616603799199</v>
+        <v>6.017188086899777</v>
       </c>
       <c r="N11" t="n">
-        <v>71.3279036742113</v>
+        <v>70.25721586471727</v>
       </c>
       <c r="O11" t="n">
-        <v>8.445584862767722</v>
+        <v>8.38195775846653</v>
       </c>
       <c r="P11" t="n">
-        <v>328.6275121911885</v>
+        <v>328.6190945528364</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -22717,28 +23131,28 @@
         <v>0.1149</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.08987615816878909</v>
+        <v>-0.07618199841289179</v>
       </c>
       <c r="J12" t="n">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="K12" t="n">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="L12" t="n">
-        <v>0.005612173052118252</v>
+        <v>0.004178612568340734</v>
       </c>
       <c r="M12" t="n">
-        <v>6.106354803450417</v>
+        <v>6.069329667196918</v>
       </c>
       <c r="N12" t="n">
-        <v>73.86907948375016</v>
+        <v>73.00054284333761</v>
       </c>
       <c r="O12" t="n">
-        <v>8.59471229790446</v>
+        <v>8.544035512761965</v>
       </c>
       <c r="P12" t="n">
-        <v>324.7129066419782</v>
+        <v>324.5801861570587</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -22794,28 +23208,28 @@
         <v>0.0853</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.283759623451355</v>
+        <v>-0.2534910620126817</v>
       </c>
       <c r="J13" t="n">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="K13" t="n">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="L13" t="n">
-        <v>0.04892013611292589</v>
+        <v>0.03903090844069323</v>
       </c>
       <c r="M13" t="n">
-        <v>6.655874136462636</v>
+        <v>6.662098341312998</v>
       </c>
       <c r="N13" t="n">
-        <v>81.30074742041776</v>
+        <v>84.07484628004059</v>
       </c>
       <c r="O13" t="n">
-        <v>9.016692709659001</v>
+        <v>9.169233680086935</v>
       </c>
       <c r="P13" t="n">
-        <v>319.1922368940716</v>
+        <v>318.902140277669</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -22871,28 +23285,28 @@
         <v>0.0832</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.3521084114134067</v>
+        <v>-0.3170300888274958</v>
       </c>
       <c r="J14" t="n">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="K14" t="n">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="L14" t="n">
-        <v>0.09080630079401808</v>
+        <v>0.07222259171080303</v>
       </c>
       <c r="M14" t="n">
-        <v>6.156866735986553</v>
+        <v>6.204720776796873</v>
       </c>
       <c r="N14" t="n">
-        <v>65.93658808125841</v>
+        <v>70.08563813750416</v>
       </c>
       <c r="O14" t="n">
-        <v>8.120134732949841</v>
+        <v>8.371716558598013</v>
       </c>
       <c r="P14" t="n">
-        <v>326.7568657238427</v>
+        <v>326.4231119883084</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -22948,28 +23362,28 @@
         <v>0.0994</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.4213346170712324</v>
+        <v>-0.3827573585019567</v>
       </c>
       <c r="J15" t="n">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="K15" t="n">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="L15" t="n">
-        <v>0.06349109552533949</v>
+        <v>0.05344252323161869</v>
       </c>
       <c r="M15" t="n">
-        <v>9.122040267745998</v>
+        <v>9.135712108824464</v>
       </c>
       <c r="N15" t="n">
-        <v>138.1143636801407</v>
+        <v>139.9368644137362</v>
       </c>
       <c r="O15" t="n">
-        <v>11.75220675788767</v>
+        <v>11.82949129987153</v>
       </c>
       <c r="P15" t="n">
-        <v>313.1361516744441</v>
+        <v>312.7671369186354</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -23025,28 +23439,28 @@
         <v>0.1419</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.4287281779491423</v>
+        <v>-0.3847030440169846</v>
       </c>
       <c r="J16" t="n">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="K16" t="n">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="L16" t="n">
-        <v>0.08033340948565504</v>
+        <v>0.06438369257032361</v>
       </c>
       <c r="M16" t="n">
-        <v>7.447222019168204</v>
+        <v>7.523509478097471</v>
       </c>
       <c r="N16" t="n">
-        <v>112.4360504158003</v>
+        <v>117.3387807210449</v>
       </c>
       <c r="O16" t="n">
-        <v>10.60358667695984</v>
+        <v>10.83230265091614</v>
       </c>
       <c r="P16" t="n">
-        <v>320.3498878258401</v>
+        <v>319.9378202243673</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -23102,28 +23516,28 @@
         <v>0.1147</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.507521487751637</v>
+        <v>-0.4687867568610605</v>
       </c>
       <c r="J17" t="n">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="K17" t="n">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="L17" t="n">
-        <v>0.08937032819148927</v>
+        <v>0.07912424157917908</v>
       </c>
       <c r="M17" t="n">
-        <v>8.844047103212015</v>
+        <v>8.830984723944084</v>
       </c>
       <c r="N17" t="n">
-        <v>139.4526729359161</v>
+        <v>139.3873726550606</v>
       </c>
       <c r="O17" t="n">
-        <v>11.80900812667669</v>
+        <v>11.80624295256796</v>
       </c>
       <c r="P17" t="n">
-        <v>325.052484622769</v>
+        <v>324.6892214245524</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -23160,7 +23574,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R326"/>
+  <dimension ref="A1:R332"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -49744,6 +50158,546 @@
         </is>
       </c>
     </row>
+    <row r="327">
+      <c r="A327" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-05 22:06:33+00:00</t>
+        </is>
+      </c>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>-38.79518042563331,174.59167849100393</t>
+        </is>
+      </c>
+      <c r="C327" t="inlineStr">
+        <is>
+          <t>-38.79451428846435,174.5919716234324</t>
+        </is>
+      </c>
+      <c r="D327" t="inlineStr">
+        <is>
+          <t>-38.79382687126618,174.5921438815804</t>
+        </is>
+      </c>
+      <c r="E327" t="inlineStr">
+        <is>
+          <t>-38.793157254399375,174.5924173161842</t>
+        </is>
+      </c>
+      <c r="F327" t="inlineStr">
+        <is>
+          <t>-38.792451284488706,174.5924842349204</t>
+        </is>
+      </c>
+      <c r="G327" t="inlineStr">
+        <is>
+          <t>-38.79175241297113,174.5926028651217</t>
+        </is>
+      </c>
+      <c r="H327" t="inlineStr">
+        <is>
+          <t>-38.791080510195115,174.59289230718525</t>
+        </is>
+      </c>
+      <c r="I327" t="inlineStr">
+        <is>
+          <t>-38.79039919966576,174.59310756803077</t>
+        </is>
+      </c>
+      <c r="J327" t="inlineStr">
+        <is>
+          <t>-38.78972296896056,174.59335422278232</t>
+        </is>
+      </c>
+      <c r="K327" t="inlineStr">
+        <is>
+          <t>-38.78904100474415,174.59356191910751</t>
+        </is>
+      </c>
+      <c r="L327" t="inlineStr">
+        <is>
+          <t>-38.78835488513942,174.59374139261593</t>
+        </is>
+      </c>
+      <c r="M327" t="inlineStr">
+        <is>
+          <t>-38.78770514938286,174.59399663286445</t>
+        </is>
+      </c>
+      <c r="N327" t="inlineStr">
+        <is>
+          <t>-38.78704865191833,174.5941879222634</t>
+        </is>
+      </c>
+      <c r="O327" t="inlineStr">
+        <is>
+          <t>-38.78643083781409,174.5946283753549</t>
+        </is>
+      </c>
+      <c r="P327" t="inlineStr">
+        <is>
+          <t>-38.78574826427846,174.59484534840217</t>
+        </is>
+      </c>
+      <c r="Q327" t="inlineStr">
+        <is>
+          <t>-38.78507395198393,174.5950927197233</t>
+        </is>
+      </c>
+      <c r="R327" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-06 22:06:30+00:00</t>
+        </is>
+      </c>
+      <c r="B328" t="inlineStr"/>
+      <c r="C328" t="inlineStr">
+        <is>
+          <t>-38.794435923765775,174.5915263671907</t>
+        </is>
+      </c>
+      <c r="D328" t="inlineStr"/>
+      <c r="E328" t="inlineStr">
+        <is>
+          <t>-38.79307439034273,174.59194649820034</t>
+        </is>
+      </c>
+      <c r="F328" t="inlineStr">
+        <is>
+          <t>-38.792447741979075,174.59246410702715</t>
+        </is>
+      </c>
+      <c r="G328" t="inlineStr">
+        <is>
+          <t>-38.79172699396947,174.59244714683038</t>
+        </is>
+      </c>
+      <c r="H328" t="inlineStr">
+        <is>
+          <t>-38.79103422622258,174.59258121206528</t>
+        </is>
+      </c>
+      <c r="I328" t="inlineStr">
+        <is>
+          <t>-38.79036570876709,174.5928797421286</t>
+        </is>
+      </c>
+      <c r="J328" t="inlineStr">
+        <is>
+          <t>-38.789688142304726,174.5931173101593</t>
+        </is>
+      </c>
+      <c r="K328" t="inlineStr">
+        <is>
+          <t>-38.789033487339765,174.593510780834</t>
+        </is>
+      </c>
+      <c r="L328" t="inlineStr">
+        <is>
+          <t>-38.788332828765014,174.5935913518226</t>
+        </is>
+      </c>
+      <c r="M328" t="inlineStr">
+        <is>
+          <t>-38.78762587932777,174.59359752103347</t>
+        </is>
+      </c>
+      <c r="N328" t="inlineStr">
+        <is>
+          <t>-38.78694233634583,174.5937820609186</t>
+        </is>
+      </c>
+      <c r="O328" t="inlineStr">
+        <is>
+          <t>-38.786345760447425,174.5943155593674</t>
+        </is>
+      </c>
+      <c r="P328" t="inlineStr">
+        <is>
+          <t>-38.7856380272762,174.59444002772452</t>
+        </is>
+      </c>
+      <c r="Q328" t="inlineStr">
+        <is>
+          <t>-38.785020517696026,174.59489625211518</t>
+        </is>
+      </c>
+      <c r="R328" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-14 22:06:37+00:00</t>
+        </is>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>-38.79516613983902,174.59159732059092</t>
+        </is>
+      </c>
+      <c r="C329" t="inlineStr">
+        <is>
+          <t>-38.79450985762133,174.5919464477745</t>
+        </is>
+      </c>
+      <c r="D329" t="inlineStr">
+        <is>
+          <t>-38.79383451859247,174.5921873328537</t>
+        </is>
+      </c>
+      <c r="E329" t="inlineStr">
+        <is>
+          <t>-38.79315229270967,174.59238912446028</t>
+        </is>
+      </c>
+      <c r="F329" t="inlineStr">
+        <is>
+          <t>-38.7924460194606,174.5924543199995</t>
+        </is>
+      </c>
+      <c r="G329" t="inlineStr">
+        <is>
+          <t>-38.791754805527894,174.59261752213607</t>
+        </is>
+      </c>
+      <c r="H329" t="inlineStr">
+        <is>
+          <t>-38.79106785822386,174.59280726707533</t>
+        </is>
+      </c>
+      <c r="I329" t="inlineStr">
+        <is>
+          <t>-38.79038915410651,174.59303923155326</t>
+        </is>
+      </c>
+      <c r="J329" t="inlineStr">
+        <is>
+          <t>-38.789704674216225,174.59322977008827</t>
+        </is>
+      </c>
+      <c r="K329" t="inlineStr">
+        <is>
+          <t>-38.78902924631623,174.59348193070622</t>
+        </is>
+      </c>
+      <c r="L329" t="inlineStr">
+        <is>
+          <t>-38.78834161094763,174.59365109336912</t>
+        </is>
+      </c>
+      <c r="M329" t="inlineStr">
+        <is>
+          <t>-38.787698656248935,174.593963940698</t>
+        </is>
+      </c>
+      <c r="N329" t="inlineStr">
+        <is>
+          <t>-38.78703464053459,174.59413443320844</t>
+        </is>
+      </c>
+      <c r="O329" t="inlineStr">
+        <is>
+          <t>-38.78642286307947,174.59459905335612</t>
+        </is>
+      </c>
+      <c r="P329" t="inlineStr">
+        <is>
+          <t>-38.78575796404077,174.5948810129101</t>
+        </is>
+      </c>
+      <c r="Q329" t="inlineStr">
+        <is>
+          <t>-38.78508239566321,174.59512376564868</t>
+        </is>
+      </c>
+      <c r="R329" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-22 22:06:25+00:00</t>
+        </is>
+      </c>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>-38.795192266721166,174.59174577111574</t>
+        </is>
+      </c>
+      <c r="C330" t="inlineStr">
+        <is>
+          <t>-38.7945096119339,174.59194505180116</t>
+        </is>
+      </c>
+      <c r="D330" t="inlineStr">
+        <is>
+          <t>-38.7938079816223,174.59203655312191</t>
+        </is>
+      </c>
+      <c r="E330" t="inlineStr">
+        <is>
+          <t>-38.79314914784665,174.59237125574907</t>
+        </is>
+      </c>
+      <c r="F330" t="inlineStr">
+        <is>
+          <t>-38.79244740251961,174.59246217828166</t>
+        </is>
+      </c>
+      <c r="G330" t="inlineStr">
+        <is>
+          <t>-38.791763615011945,174.59267148992058</t>
+        </is>
+      </c>
+      <c r="H330" t="inlineStr">
+        <is>
+          <t>-38.79108505214153,174.59292283594624</t>
+        </is>
+      </c>
+      <c r="I330" t="inlineStr">
+        <is>
+          <t>-38.79041822624346,174.5932370000835</t>
+        </is>
+      </c>
+      <c r="J330" t="inlineStr">
+        <is>
+          <t>-38.78972780041385,174.5933870896173</t>
+        </is>
+      </c>
+      <c r="K330" t="inlineStr">
+        <is>
+          <t>-38.7890454286928,174.5935920137599</t>
+        </is>
+      </c>
+      <c r="L330" t="inlineStr">
+        <is>
+          <t>-38.78834957024418,174.5937052373562</t>
+        </is>
+      </c>
+      <c r="M330" t="inlineStr">
+        <is>
+          <t>-38.78769988617774,174.59397013324104</t>
+        </is>
+      </c>
+      <c r="N330" t="inlineStr">
+        <is>
+          <t>-38.78704025938842,174.59415588340866</t>
+        </is>
+      </c>
+      <c r="O330" t="inlineStr">
+        <is>
+          <t>-38.786416199389386,174.5945745519133</t>
+        </is>
+      </c>
+      <c r="P330" t="inlineStr"/>
+      <c r="Q330" t="inlineStr">
+        <is>
+          <t>-38.78509135918373,174.5951567229807</t>
+        </is>
+      </c>
+      <c r="R330" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-30 22:06:32+00:00</t>
+        </is>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>-38.79517080293591,174.59162381578847</t>
+        </is>
+      </c>
+      <c r="C331" t="inlineStr">
+        <is>
+          <t>-38.79450552373006,174.59192182302075</t>
+        </is>
+      </c>
+      <c r="D331" t="inlineStr">
+        <is>
+          <t>-38.79383710346789,174.59220201985679</t>
+        </is>
+      </c>
+      <c r="E331" t="inlineStr">
+        <is>
+          <t>-38.79314575738169,174.59235199157825</t>
+        </is>
+      </c>
+      <c r="F331" t="inlineStr">
+        <is>
+          <t>-38.79244167123954,174.5924296142439</t>
+        </is>
+      </c>
+      <c r="G331" t="inlineStr">
+        <is>
+          <t>-38.79174938521005,174.5925843168072</t>
+        </is>
+      </c>
+      <c r="H331" t="inlineStr">
+        <is>
+          <t>-38.791070152468464,174.59282268778628</t>
+        </is>
+      </c>
+      <c r="I331" t="inlineStr">
+        <is>
+          <t>-38.79038831697473,174.59303353684763</t>
+        </is>
+      </c>
+      <c r="J331" t="inlineStr">
+        <is>
+          <t>-38.7897044580048,174.59322829928405</t>
+        </is>
+      </c>
+      <c r="K331" t="inlineStr">
+        <is>
+          <t>-38.789026069701755,174.59346032139692</t>
+        </is>
+      </c>
+      <c r="L331" t="inlineStr">
+        <is>
+          <t>-38.788338380495546,174.59362911791723</t>
+        </is>
+      </c>
+      <c r="M331" t="inlineStr">
+        <is>
+          <t>-38.787693825173996,174.59393961683716</t>
+        </is>
+      </c>
+      <c r="N331" t="inlineStr">
+        <is>
+          <t>-38.787039473035065,174.59415288147204</t>
+        </is>
+      </c>
+      <c r="O331" t="inlineStr">
+        <is>
+          <t>-38.7864175958732,174.59457968658415</t>
+        </is>
+      </c>
+      <c r="P331" t="inlineStr">
+        <is>
+          <t>-38.78574615477582,174.5948375920978</t>
+        </is>
+      </c>
+      <c r="Q331" t="inlineStr">
+        <is>
+          <t>-38.78507647341531,174.59510199057954</t>
+        </is>
+      </c>
+      <c r="R331" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-07 22:06:29+00:00</t>
+        </is>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>-38.795185708111966,174.591708505594</t>
+        </is>
+      </c>
+      <c r="C332" t="inlineStr">
+        <is>
+          <t>-38.79451095427196,174.59195267884314</t>
+        </is>
+      </c>
+      <c r="D332" t="inlineStr">
+        <is>
+          <t>-38.79382812322986,174.59215099509453</t>
+        </is>
+      </c>
+      <c r="E332" t="inlineStr">
+        <is>
+          <t>-38.79315168769814,174.59238568686047</t>
+        </is>
+      </c>
+      <c r="F332" t="inlineStr">
+        <is>
+          <t>-38.7924541548937,174.59250054405368</t>
+        </is>
+      </c>
+      <c r="G332" t="inlineStr">
+        <is>
+          <t>-38.791759915269786,174.59264882490797</t>
+        </is>
+      </c>
+      <c r="H332" t="inlineStr">
+        <is>
+          <t>-38.79108621113332,174.59293062613622</t>
+        </is>
+      </c>
+      <c r="I332" t="inlineStr">
+        <is>
+          <t>-38.79041376343741,174.59320664086957</t>
+        </is>
+      </c>
+      <c r="J332" t="inlineStr">
+        <is>
+          <t>-38.78972378390514,174.5933597665855</t>
+        </is>
+      </c>
+      <c r="K332" t="inlineStr">
+        <is>
+          <t>-38.7890431834567,174.5935767401577</t>
+        </is>
+      </c>
+      <c r="L332" t="inlineStr">
+        <is>
+          <t>-38.788350400227074,174.59371088341638</t>
+        </is>
+      </c>
+      <c r="M332" t="inlineStr">
+        <is>
+          <t>-38.78770705521564,174.5940062285185</t>
+        </is>
+      </c>
+      <c r="N332" t="inlineStr">
+        <is>
+          <t>-38.78706372127664,174.5942454503103</t>
+        </is>
+      </c>
+      <c r="O332" t="inlineStr">
+        <is>
+          <t>-38.786461984223195,174.59474289672812</t>
+        </is>
+      </c>
+      <c r="P332" t="inlineStr">
+        <is>
+          <t>-38.78575135952901,174.5948567291486</t>
+        </is>
+      </c>
+      <c r="Q332" t="inlineStr">
+        <is>
+          <t>-38.78508339956552,174.5951274568237</t>
+        </is>
+      </c>
+      <c r="R332" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0273/nzd0273.xlsx
+++ b/data/nzd0273/nzd0273.xlsx
@@ -22206,7 +22206,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W17"/>
+  <dimension ref="A1:X17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22297,35 +22297,40 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
+          <t>ERODIBILITY</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
           <t>geometry</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>land_x</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>land_y</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>sea_x</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>sea_y</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>center_x</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>center_y</t>
         </is>
@@ -22384,27 +22389,28 @@
       <c r="P2" t="n">
         <v>349.5780029362725</v>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr">
         <is>
           <t>LINESTRING (174.59540679683658 -38.79583653097214, 174.58516299163213 -38.79403351479462)</t>
         </is>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>174.5954067968366</v>
       </c>
-      <c r="S2" t="n">
+      <c r="T2" t="n">
         <v>-38.79583653097214</v>
       </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
         <v>174.5851629916321</v>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>-38.79403351479462</v>
       </c>
-      <c r="V2" t="n">
+      <c r="W2" t="n">
         <v>174.5902848942343</v>
       </c>
-      <c r="W2" t="n">
+      <c r="X2" t="n">
         <v>-38.79493502288338</v>
       </c>
     </row>
@@ -22461,27 +22467,28 @@
       <c r="P3" t="n">
         <v>330.6655941253486</v>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr">
         <is>
           <t>LINESTRING (174.59561417686874 -38.7951553039627, 174.58537043336298 -38.79335229217065)</t>
         </is>
       </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
         <v>174.5956141768687</v>
       </c>
-      <c r="S3" t="n">
+      <c r="T3" t="n">
         <v>-38.7951553039627</v>
       </c>
-      <c r="T3" t="n">
+      <c r="U3" t="n">
         <v>174.585370433363</v>
       </c>
-      <c r="U3" t="n">
+      <c r="V3" t="n">
         <v>-38.79335229217065</v>
       </c>
-      <c r="V3" t="n">
+      <c r="W3" t="n">
         <v>174.5904923051158</v>
       </c>
-      <c r="W3" t="n">
+      <c r="X3" t="n">
         <v>-38.79425379806668</v>
       </c>
     </row>
@@ -22538,27 +22545,28 @@
       <c r="P4" t="n">
         <v>333.7159594992822</v>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
         <is>
           <t>LINESTRING (174.59582155690134 -38.7944740704424, 174.58557787509298 -38.7926710630355)</t>
         </is>
       </c>
-      <c r="R4" t="n">
+      <c r="S4" t="n">
         <v>174.5958215569013</v>
       </c>
-      <c r="S4" t="n">
+      <c r="T4" t="n">
         <v>-38.7944740704424</v>
       </c>
-      <c r="T4" t="n">
+      <c r="U4" t="n">
         <v>174.585577875093</v>
       </c>
-      <c r="U4" t="n">
+      <c r="V4" t="n">
         <v>-38.7926710630355</v>
       </c>
-      <c r="V4" t="n">
+      <c r="W4" t="n">
         <v>174.5906997159972</v>
       </c>
-      <c r="W4" t="n">
+      <c r="X4" t="n">
         <v>-38.79357256673894</v>
       </c>
     </row>
@@ -22615,27 +22623,28 @@
       <c r="P5" t="n">
         <v>339.706462035683</v>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr">
         <is>
           <t>LINESTRING (174.59602893693437 -38.793792830411334, 174.58578531682213 -38.79198982738907)</t>
         </is>
       </c>
-      <c r="R5" t="n">
+      <c r="S5" t="n">
         <v>174.5960289369344</v>
       </c>
-      <c r="S5" t="n">
+      <c r="T5" t="n">
         <v>-38.79379283041133</v>
       </c>
-      <c r="T5" t="n">
+      <c r="U5" t="n">
         <v>174.5857853168221</v>
       </c>
-      <c r="U5" t="n">
+      <c r="V5" t="n">
         <v>-38.79198982738907</v>
       </c>
-      <c r="V5" t="n">
+      <c r="W5" t="n">
         <v>174.5909071268782</v>
       </c>
-      <c r="W5" t="n">
+      <c r="X5" t="n">
         <v>-38.7928913289002</v>
       </c>
     </row>
@@ -22692,27 +22701,28 @@
       <c r="P6" t="n">
         <v>346.756231739672</v>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr">
         <is>
           <t>LINESTRING (174.59623631696786 -38.79311158386941, 174.58599275855042 -38.79130858523165)</t>
         </is>
       </c>
-      <c r="R6" t="n">
+      <c r="S6" t="n">
         <v>174.5962363169679</v>
       </c>
-      <c r="S6" t="n">
+      <c r="T6" t="n">
         <v>-38.79311158386941</v>
       </c>
-      <c r="T6" t="n">
+      <c r="U6" t="n">
         <v>174.5859927585504</v>
       </c>
-      <c r="U6" t="n">
+      <c r="V6" t="n">
         <v>-38.79130858523165</v>
       </c>
-      <c r="V6" t="n">
+      <c r="W6" t="n">
         <v>174.5911145377592</v>
       </c>
-      <c r="W6" t="n">
+      <c r="X6" t="n">
         <v>-38.79221008455053</v>
       </c>
     </row>
@@ -22769,27 +22779,28 @@
       <c r="P7" t="n">
         <v>352.8837975489718</v>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr">
         <is>
           <t>LINESTRING (174.5964573601175 -38.79238153719135, 174.58617912112138 -38.79070363119239)</t>
         </is>
       </c>
-      <c r="R7" t="n">
+      <c r="S7" t="n">
         <v>174.5964573601175</v>
       </c>
-      <c r="S7" t="n">
+      <c r="T7" t="n">
         <v>-38.79238153719135</v>
       </c>
-      <c r="T7" t="n">
+      <c r="U7" t="n">
         <v>174.5861791211214</v>
       </c>
-      <c r="U7" t="n">
+      <c r="V7" t="n">
         <v>-38.79070363119239</v>
       </c>
-      <c r="V7" t="n">
+      <c r="W7" t="n">
         <v>174.5913182406194</v>
       </c>
-      <c r="W7" t="n">
+      <c r="X7" t="n">
         <v>-38.79154258419187</v>
       </c>
     </row>
@@ -22846,27 +22857,28 @@
       <c r="P8" t="n">
         <v>342.863535833957</v>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr">
         <is>
           <t>LINESTRING (174.59665175599702 -38.79163976119289, 174.58633700457378 -38.79010503937894)</t>
         </is>
       </c>
-      <c r="R8" t="n">
+      <c r="S8" t="n">
         <v>174.596651755997</v>
       </c>
-      <c r="S8" t="n">
+      <c r="T8" t="n">
         <v>-38.79163976119289</v>
       </c>
-      <c r="T8" t="n">
+      <c r="U8" t="n">
         <v>174.5863370045738</v>
       </c>
-      <c r="U8" t="n">
+      <c r="V8" t="n">
         <v>-38.79010503937894</v>
       </c>
-      <c r="V8" t="n">
+      <c r="W8" t="n">
         <v>174.5914943802854</v>
       </c>
-      <c r="W8" t="n">
+      <c r="X8" t="n">
         <v>-38.79087240028592</v>
       </c>
     </row>
@@ -22923,27 +22935,28 @@
       <c r="P9" t="n">
         <v>340.5545934292751</v>
       </c>
-      <c r="Q9" t="inlineStr">
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr">
         <is>
           <t>LINESTRING (174.59682959480062 -38.790946277893276, 174.586510624768 -38.78942924121217)</t>
         </is>
       </c>
-      <c r="R9" t="n">
+      <c r="S9" t="n">
         <v>174.5968295948006</v>
       </c>
-      <c r="S9" t="n">
+      <c r="T9" t="n">
         <v>-38.79094627789328</v>
       </c>
-      <c r="T9" t="n">
+      <c r="U9" t="n">
         <v>174.586510624768</v>
       </c>
-      <c r="U9" t="n">
+      <c r="V9" t="n">
         <v>-38.78942924121217</v>
       </c>
-      <c r="V9" t="n">
+      <c r="W9" t="n">
         <v>174.5916701097843</v>
       </c>
-      <c r="W9" t="n">
+      <c r="X9" t="n">
         <v>-38.79018775955272</v>
       </c>
     </row>
@@ -23000,27 +23013,28 @@
       <c r="P10" t="n">
         <v>334.9571929329634</v>
       </c>
-      <c r="Q10" t="inlineStr">
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr">
         <is>
           <t>LINESTRING (174.5970057477523 -38.79025968542776, 174.58668684122415 -38.788742652267864)</t>
         </is>
       </c>
-      <c r="R10" t="n">
+      <c r="S10" t="n">
         <v>174.5970057477523</v>
       </c>
-      <c r="S10" t="n">
+      <c r="T10" t="n">
         <v>-38.79025968542776</v>
       </c>
-      <c r="T10" t="n">
+      <c r="U10" t="n">
         <v>174.5866868412242</v>
       </c>
-      <c r="U10" t="n">
+      <c r="V10" t="n">
         <v>-38.78874265226786</v>
       </c>
-      <c r="V10" t="n">
+      <c r="W10" t="n">
         <v>174.5918462944882</v>
       </c>
-      <c r="W10" t="n">
+      <c r="X10" t="n">
         <v>-38.78950116884781</v>
       </c>
     </row>
@@ -23077,27 +23091,28 @@
       <c r="P11" t="n">
         <v>328.6190945528364</v>
       </c>
-      <c r="Q11" t="inlineStr">
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr">
         <is>
           <t>LINESTRING (174.59718190070436 -38.789573086349485, 174.58686305767932 -38.78805605671063)</t>
         </is>
       </c>
-      <c r="R11" t="n">
+      <c r="S11" t="n">
         <v>174.5971819007044</v>
       </c>
-      <c r="S11" t="n">
+      <c r="T11" t="n">
         <v>-38.78957308634948</v>
       </c>
-      <c r="T11" t="n">
+      <c r="U11" t="n">
         <v>174.5868630576793</v>
       </c>
-      <c r="U11" t="n">
+      <c r="V11" t="n">
         <v>-38.78805605671063</v>
       </c>
-      <c r="V11" t="n">
+      <c r="W11" t="n">
         <v>174.5920224791918</v>
       </c>
-      <c r="W11" t="n">
+      <c r="X11" t="n">
         <v>-38.78881457153005</v>
       </c>
     </row>
@@ -23154,27 +23169,28 @@
       <c r="P12" t="n">
         <v>324.5801861570587</v>
       </c>
-      <c r="Q12" t="inlineStr">
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="inlineStr">
         <is>
           <t>LINESTRING (174.59735805365688 -38.788886480658704, 174.5870392741336 -38.78736945454014)</t>
         </is>
       </c>
-      <c r="R12" t="n">
+      <c r="S12" t="n">
         <v>174.5973580536569</v>
       </c>
-      <c r="S12" t="n">
+      <c r="T12" t="n">
         <v>-38.7888864806587</v>
       </c>
-      <c r="T12" t="n">
+      <c r="U12" t="n">
         <v>174.5870392741336</v>
       </c>
-      <c r="U12" t="n">
+      <c r="V12" t="n">
         <v>-38.78736945454014</v>
       </c>
-      <c r="V12" t="n">
+      <c r="W12" t="n">
         <v>174.5921986638952</v>
       </c>
-      <c r="W12" t="n">
+      <c r="X12" t="n">
         <v>-38.78812796759942</v>
       </c>
     </row>
@@ -23231,27 +23247,28 @@
       <c r="P13" t="n">
         <v>318.902140277669</v>
       </c>
-      <c r="Q13" t="inlineStr">
+      <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="inlineStr">
         <is>
           <t>LINESTRING (174.5974781577032 -38.78839657069194, 174.58730197846646 -38.78637527779566)</t>
         </is>
       </c>
-      <c r="R13" t="n">
+      <c r="S13" t="n">
         <v>174.5974781577032</v>
       </c>
-      <c r="S13" t="n">
+      <c r="T13" t="n">
         <v>-38.78839657069194</v>
       </c>
-      <c r="T13" t="n">
+      <c r="U13" t="n">
         <v>174.5873019784665</v>
       </c>
-      <c r="U13" t="n">
+      <c r="V13" t="n">
         <v>-38.78637527779566</v>
       </c>
-      <c r="V13" t="n">
+      <c r="W13" t="n">
         <v>174.5923900680848</v>
       </c>
-      <c r="W13" t="n">
+      <c r="X13" t="n">
         <v>-38.7873859242438</v>
       </c>
     </row>
@@ -23308,27 +23325,28 @@
       <c r="P14" t="n">
         <v>326.4231119883084</v>
       </c>
-      <c r="Q14" t="inlineStr">
+      <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="inlineStr">
         <is>
           <t>LINESTRING (174.59767648928658 -38.78796241186373, 174.58772121590215 -38.78535448783389)</t>
         </is>
       </c>
-      <c r="R14" t="n">
+      <c r="S14" t="n">
         <v>174.5976764892866</v>
       </c>
-      <c r="S14" t="n">
+      <c r="T14" t="n">
         <v>-38.78796241186373</v>
       </c>
-      <c r="T14" t="n">
+      <c r="U14" t="n">
         <v>174.5877212159021</v>
       </c>
-      <c r="U14" t="n">
+      <c r="V14" t="n">
         <v>-38.78535448783389</v>
       </c>
-      <c r="V14" t="n">
+      <c r="W14" t="n">
         <v>174.5926988525944</v>
       </c>
-      <c r="W14" t="n">
+      <c r="X14" t="n">
         <v>-38.78665844984882</v>
       </c>
     </row>
@@ -23385,27 +23403,28 @@
       <c r="P15" t="n">
         <v>312.7671369186354</v>
       </c>
-      <c r="Q15" t="inlineStr">
+      <c r="Q15" t="inlineStr"/>
+      <c r="R15" t="inlineStr">
         <is>
           <t>LINESTRING (174.59796613476905 -38.78733855142741, 174.58804989386255 -38.78464145016016)</t>
         </is>
       </c>
-      <c r="R15" t="n">
+      <c r="S15" t="n">
         <v>174.5979661347691</v>
       </c>
-      <c r="S15" t="n">
+      <c r="T15" t="n">
         <v>-38.78733855142741</v>
       </c>
-      <c r="T15" t="n">
+      <c r="U15" t="n">
         <v>174.5880498938625</v>
       </c>
-      <c r="U15" t="n">
+      <c r="V15" t="n">
         <v>-38.78464145016016</v>
       </c>
-      <c r="V15" t="n">
+      <c r="W15" t="n">
         <v>174.5930080143158</v>
       </c>
-      <c r="W15" t="n">
+      <c r="X15" t="n">
         <v>-38.78599000079379</v>
       </c>
     </row>
@@ -23462,27 +23481,28 @@
       <c r="P16" t="n">
         <v>319.9378202243673</v>
       </c>
-      <c r="Q16" t="inlineStr">
+      <c r="Q16" t="inlineStr"/>
+      <c r="R16" t="inlineStr">
         <is>
           <t>LINESTRING (174.59827106849949 -38.78667990333179, 174.5883548814603 -38.783982809039756)</t>
         </is>
       </c>
-      <c r="R16" t="n">
+      <c r="S16" t="n">
         <v>174.5982710684995</v>
       </c>
-      <c r="S16" t="n">
+      <c r="T16" t="n">
         <v>-38.78667990333179</v>
       </c>
-      <c r="T16" t="n">
+      <c r="U16" t="n">
         <v>174.5883548814603</v>
       </c>
-      <c r="U16" t="n">
+      <c r="V16" t="n">
         <v>-38.78398280903976</v>
       </c>
-      <c r="V16" t="n">
+      <c r="W16" t="n">
         <v>174.5933129749799</v>
       </c>
-      <c r="W16" t="n">
+      <c r="X16" t="n">
         <v>-38.78533135618577</v>
       </c>
     </row>
@@ -23539,27 +23559,28 @@
       <c r="P17" t="n">
         <v>324.6892214245524</v>
       </c>
-      <c r="Q17" t="inlineStr">
+      <c r="Q17" t="inlineStr"/>
+      <c r="R17" t="inlineStr">
         <is>
           <t>LINESTRING (174.59857600223015 -38.786021249151744, 174.58865986905747 -38.78332416183441)</t>
         </is>
       </c>
-      <c r="R17" t="n">
+      <c r="S17" t="n">
         <v>174.5985760022301</v>
       </c>
-      <c r="S17" t="n">
+      <c r="T17" t="n">
         <v>-38.78602124915174</v>
       </c>
-      <c r="T17" t="n">
+      <c r="U17" t="n">
         <v>174.5886598690575</v>
       </c>
-      <c r="U17" t="n">
+      <c r="V17" t="n">
         <v>-38.78332416183441</v>
       </c>
-      <c r="V17" t="n">
+      <c r="W17" t="n">
         <v>174.5936179356438</v>
       </c>
-      <c r="W17" t="n">
+      <c r="X17" t="n">
         <v>-38.78467270549308</v>
       </c>
     </row>

--- a/data/nzd0273/nzd0273.xlsx
+++ b/data/nzd0273/nzd0273.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R332"/>
+  <dimension ref="A1:R337"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18674,6 +18674,300 @@
         </is>
       </c>
     </row>
+    <row r="333">
+      <c r="A333" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-23 22:06:19+00:00</t>
+        </is>
+      </c>
+      <c r="B333" t="n">
+        <v>333.8111111111111</v>
+      </c>
+      <c r="C333" t="n">
+        <v>326.3380952380953</v>
+      </c>
+      <c r="D333" t="n">
+        <v>331.1180952380952</v>
+      </c>
+      <c r="E333" t="n">
+        <v>326.2151515151515</v>
+      </c>
+      <c r="F333" t="n">
+        <v>333.3882758620689</v>
+      </c>
+      <c r="G333" t="n">
+        <v>345.0288235294118</v>
+      </c>
+      <c r="H333" t="n">
+        <v>335.6388235294117</v>
+      </c>
+      <c r="I333" t="n">
+        <v>334.5133333333333</v>
+      </c>
+      <c r="J333" t="n">
+        <v>329.78</v>
+      </c>
+      <c r="K333" t="n">
+        <v>324.63</v>
+      </c>
+      <c r="L333" t="n">
+        <v>325.6780952380952</v>
+      </c>
+      <c r="M333" t="n">
+        <v>318.19</v>
+      </c>
+      <c r="N333" t="n">
+        <v>324.46</v>
+      </c>
+      <c r="O333" t="n">
+        <v>316.7911111111111</v>
+      </c>
+      <c r="P333" t="n">
+        <v>320.8333333333333</v>
+      </c>
+      <c r="Q333" t="n">
+        <v>330.4078947368421</v>
+      </c>
+      <c r="R333" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-11 22:06:15+00:00</t>
+        </is>
+      </c>
+      <c r="B334" t="n">
+        <v>333.0755555555555</v>
+      </c>
+      <c r="C334" t="n">
+        <v>321.057619047619</v>
+      </c>
+      <c r="D334" t="n">
+        <v>319.4676190476191</v>
+      </c>
+      <c r="E334" t="n">
+        <v>320.3175757575757</v>
+      </c>
+      <c r="F334" t="n">
+        <v>334.191724137931</v>
+      </c>
+      <c r="G334" t="n">
+        <v>334.4164705882353</v>
+      </c>
+      <c r="H334" t="n">
+        <v>332.8864705882353</v>
+      </c>
+      <c r="I334" t="n">
+        <v>327.8666666666667</v>
+      </c>
+      <c r="J334" t="n">
+        <v>323.115</v>
+      </c>
+      <c r="K334" t="n">
+        <v>322.5</v>
+      </c>
+      <c r="L334" t="n">
+        <v>325.8976190476191</v>
+      </c>
+      <c r="M334" t="n">
+        <v>319.295</v>
+      </c>
+      <c r="N334" t="n">
+        <v>326.225</v>
+      </c>
+      <c r="O334" t="n">
+        <v>306.0955555555556</v>
+      </c>
+      <c r="P334" t="n">
+        <v>316.2866666666667</v>
+      </c>
+      <c r="Q334" t="n">
+        <v>339.5</v>
+      </c>
+      <c r="R334" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-19 22:06:18+00:00</t>
+        </is>
+      </c>
+      <c r="B335" t="n">
+        <v>333.0433333333333</v>
+      </c>
+      <c r="C335" t="n">
+        <v>319.6028571428571</v>
+      </c>
+      <c r="D335" t="n">
+        <v>323.5028571428572</v>
+      </c>
+      <c r="E335" t="n">
+        <v>319.2372727272727</v>
+      </c>
+      <c r="F335" t="n">
+        <v>334.3075862068966</v>
+      </c>
+      <c r="G335" t="n">
+        <v>341.7117647058824</v>
+      </c>
+      <c r="H335" t="n">
+        <v>331.2417647058824</v>
+      </c>
+      <c r="I335" t="n">
+        <v>324.25</v>
+      </c>
+      <c r="J335" t="n">
+        <v>322.89</v>
+      </c>
+      <c r="K335" t="n">
+        <v>323.67</v>
+      </c>
+      <c r="L335" t="n">
+        <v>322.7428571428572</v>
+      </c>
+      <c r="M335" t="n">
+        <v>314.92</v>
+      </c>
+      <c r="N335" t="n">
+        <v>323.04</v>
+      </c>
+      <c r="O335" t="n">
+        <v>298.7933333333333</v>
+      </c>
+      <c r="P335" t="n">
+        <v>309.54</v>
+      </c>
+      <c r="Q335" t="n">
+        <v>311.5431578947368</v>
+      </c>
+      <c r="R335" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-27 22:06:04+00:00</t>
+        </is>
+      </c>
+      <c r="B336" t="inlineStr"/>
+      <c r="C336" t="inlineStr"/>
+      <c r="D336" t="n">
+        <v>317.8895238095238</v>
+      </c>
+      <c r="E336" t="n">
+        <v>325.3751515151515</v>
+      </c>
+      <c r="F336" t="n">
+        <v>336.441724137931</v>
+      </c>
+      <c r="G336" t="inlineStr"/>
+      <c r="H336" t="n">
+        <v>353.2982352941176</v>
+      </c>
+      <c r="I336" t="n">
+        <v>333.0433333333333</v>
+      </c>
+      <c r="J336" t="n">
+        <v>330.48</v>
+      </c>
+      <c r="K336" t="n">
+        <v>325.88</v>
+      </c>
+      <c r="L336" t="n">
+        <v>326.8695238095238</v>
+      </c>
+      <c r="M336" t="n">
+        <v>312.47</v>
+      </c>
+      <c r="N336" t="n">
+        <v>324.74</v>
+      </c>
+      <c r="O336" t="n">
+        <v>310.2877777777778</v>
+      </c>
+      <c r="P336" t="n">
+        <v>319.0733333333333</v>
+      </c>
+      <c r="Q336" t="n">
+        <v>323.0326315789474</v>
+      </c>
+      <c r="R336" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-12 22:06:00+00:00</t>
+        </is>
+      </c>
+      <c r="B337" t="n">
+        <v>335.1866666666667</v>
+      </c>
+      <c r="C337" t="n">
+        <v>330.0085714285714</v>
+      </c>
+      <c r="D337" t="n">
+        <v>328.5285714285715</v>
+      </c>
+      <c r="E337" t="n">
+        <v>324.4954545454545</v>
+      </c>
+      <c r="F337" t="n">
+        <v>339.8141379310345</v>
+      </c>
+      <c r="G337" t="n">
+        <v>344.5682352941176</v>
+      </c>
+      <c r="H337" t="n">
+        <v>340.0082352941176</v>
+      </c>
+      <c r="I337" t="n">
+        <v>339.62</v>
+      </c>
+      <c r="J337" t="n">
+        <v>334.095</v>
+      </c>
+      <c r="K337" t="n">
+        <v>328.21</v>
+      </c>
+      <c r="L337" t="n">
+        <v>331.2985714285714</v>
+      </c>
+      <c r="M337" t="n">
+        <v>318.785</v>
+      </c>
+      <c r="N337" t="n">
+        <v>327.235</v>
+      </c>
+      <c r="O337" t="n">
+        <v>310.5766666666667</v>
+      </c>
+      <c r="P337" t="n">
+        <v>319.76</v>
+      </c>
+      <c r="Q337" t="n">
+        <v>323.6221052631579</v>
+      </c>
+      <c r="R337" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -18685,7 +18979,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B350"/>
+  <dimension ref="A1:B355"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22193,6 +22487,56 @@
       </c>
       <c r="B350" t="n">
         <v>-0.37</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>2025-02-23 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B351" t="n">
+        <v>-0.08</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>2025-03-11 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B352" t="n">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>2025-03-19 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B353" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>2025-03-27 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B354" t="n">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>2025-04-12 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B355" t="n">
+        <v>1.41</v>
       </c>
     </row>
   </sheetData>
@@ -22366,28 +22710,28 @@
         <v>0.101</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.704027034245762</v>
+        <v>-0.6973528117265451</v>
       </c>
       <c r="J2" t="n">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="K2" t="n">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="L2" t="n">
-        <v>0.05353463862701624</v>
+        <v>0.05435565951215504</v>
       </c>
       <c r="M2" t="n">
-        <v>12.69675248850246</v>
+        <v>12.50805783849844</v>
       </c>
       <c r="N2" t="n">
-        <v>468.2572874245608</v>
+        <v>459.9768947959353</v>
       </c>
       <c r="O2" t="n">
-        <v>21.63925339341819</v>
+        <v>21.44707193991607</v>
       </c>
       <c r="P2" t="n">
-        <v>349.5780029362725</v>
+        <v>349.5129018971106</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -22444,28 +22788,28 @@
         <v>0.1136</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.3806572557249998</v>
+        <v>-0.3721337732204422</v>
       </c>
       <c r="J3" t="n">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="K3" t="n">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="L3" t="n">
-        <v>0.05763456280992729</v>
+        <v>0.0565469954272807</v>
       </c>
       <c r="M3" t="n">
-        <v>8.328198654464638</v>
+        <v>8.256499762099466</v>
       </c>
       <c r="N3" t="n">
-        <v>128.7791313864794</v>
+        <v>127.3387766286235</v>
       </c>
       <c r="O3" t="n">
-        <v>11.34808932756873</v>
+        <v>11.284448441489</v>
       </c>
       <c r="P3" t="n">
-        <v>330.6655941253486</v>
+        <v>330.583521211258</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -22522,28 +22866,28 @@
         <v>0.117</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.3057271602512668</v>
+        <v>-0.312142108840787</v>
       </c>
       <c r="J4" t="n">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="K4" t="n">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="L4" t="n">
-        <v>0.04288951101331073</v>
+        <v>0.04602182932154253</v>
       </c>
       <c r="M4" t="n">
-        <v>7.385910986697279</v>
+        <v>7.348170750865998</v>
       </c>
       <c r="N4" t="n">
-        <v>113.8715746009965</v>
+        <v>112.3486202353752</v>
       </c>
       <c r="O4" t="n">
-        <v>10.67106248697834</v>
+        <v>10.59946320505785</v>
       </c>
       <c r="P4" t="n">
-        <v>333.7159594992822</v>
+        <v>333.7768537571725</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -22600,28 +22944,28 @@
         <v>0.189</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.7255536840310423</v>
+        <v>-0.7196670835080348</v>
       </c>
       <c r="J5" t="n">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="K5" t="n">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="L5" t="n">
-        <v>0.2170276844502204</v>
+        <v>0.2201836238715126</v>
       </c>
       <c r="M5" t="n">
-        <v>7.184841739227389</v>
+        <v>7.104230402119596</v>
       </c>
       <c r="N5" t="n">
-        <v>104.851416835603</v>
+        <v>103.1784873698089</v>
       </c>
       <c r="O5" t="n">
-        <v>10.23969808322506</v>
+        <v>10.15768120044181</v>
       </c>
       <c r="P5" t="n">
-        <v>339.706462035683</v>
+        <v>339.6512158960455</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -22678,28 +23022,28 @@
         <v>0.1671</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.5403946309887255</v>
+        <v>-0.5320896058547072</v>
       </c>
       <c r="J6" t="n">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="K6" t="n">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="L6" t="n">
-        <v>0.1867165863995121</v>
+        <v>0.1868890442499994</v>
       </c>
       <c r="M6" t="n">
-        <v>5.914820234523984</v>
+        <v>5.846745726334626</v>
       </c>
       <c r="N6" t="n">
-        <v>69.26463987123522</v>
+        <v>68.25619298498367</v>
       </c>
       <c r="O6" t="n">
-        <v>8.322538066673845</v>
+        <v>8.261730628929007</v>
       </c>
       <c r="P6" t="n">
-        <v>346.756231739672</v>
+        <v>346.6766201616326</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -22756,28 +23100,28 @@
         <v>0.0965</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.5218782384291105</v>
+        <v>-0.5173744230869645</v>
       </c>
       <c r="J7" t="n">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="K7" t="n">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="L7" t="n">
-        <v>0.1582528127597107</v>
+        <v>0.1591182338639988</v>
       </c>
       <c r="M7" t="n">
-        <v>6.585287475271815</v>
+        <v>6.554936992011455</v>
       </c>
       <c r="N7" t="n">
-        <v>77.86660153098927</v>
+        <v>77.08944931743763</v>
       </c>
       <c r="O7" t="n">
-        <v>8.824205433408114</v>
+        <v>8.780059755914969</v>
       </c>
       <c r="P7" t="n">
-        <v>352.8837975489718</v>
+        <v>352.8402499295086</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -22834,28 +23178,28 @@
         <v>0.0979</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.3948892705310896</v>
+        <v>-0.3755761152721989</v>
       </c>
       <c r="J8" t="n">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="K8" t="n">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="L8" t="n">
-        <v>0.08321777334914648</v>
+        <v>0.07714555611181007</v>
       </c>
       <c r="M8" t="n">
-        <v>7.359858612619125</v>
+        <v>7.34908677302388</v>
       </c>
       <c r="N8" t="n">
-        <v>92.95498087783272</v>
+        <v>92.97281223835863</v>
       </c>
       <c r="O8" t="n">
-        <v>9.641316345698481</v>
+        <v>9.642241038179797</v>
       </c>
       <c r="P8" t="n">
-        <v>342.863535833957</v>
+        <v>342.6780164826212</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -22912,28 +23256,28 @@
         <v>0.0859</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.615113099649645</v>
+        <v>-0.5920403084722577</v>
       </c>
       <c r="J9" t="n">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="K9" t="n">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="L9" t="n">
-        <v>0.1748181509475516</v>
+        <v>0.1671031006391305</v>
       </c>
       <c r="M9" t="n">
-        <v>7.177708702802679</v>
+        <v>7.161133515453348</v>
       </c>
       <c r="N9" t="n">
-        <v>94.3496520988009</v>
+        <v>93.97563746657532</v>
       </c>
       <c r="O9" t="n">
-        <v>9.713374907765113</v>
+        <v>9.694103231685503</v>
       </c>
       <c r="P9" t="n">
-        <v>340.5545934292751</v>
+        <v>340.3291202768943</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -22990,28 +23334,28 @@
         <v>0.0877</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.4431379498052203</v>
+        <v>-0.4296191699152063</v>
       </c>
       <c r="J10" t="n">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="K10" t="n">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="L10" t="n">
-        <v>0.09517673003501159</v>
+        <v>0.09211394624664659</v>
       </c>
       <c r="M10" t="n">
-        <v>7.346862505031218</v>
+        <v>7.29731115070168</v>
       </c>
       <c r="N10" t="n">
-        <v>98.56603528853225</v>
+        <v>97.53455256718243</v>
       </c>
       <c r="O10" t="n">
-        <v>9.928042873020456</v>
+        <v>9.87595831133275</v>
       </c>
       <c r="P10" t="n">
-        <v>334.9571929329634</v>
+        <v>334.8229450944093</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -23068,28 +23412,28 @@
         <v>0.1065</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.2428029506690818</v>
+        <v>-0.2348236579854196</v>
       </c>
       <c r="J11" t="n">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="K11" t="n">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="L11" t="n">
-        <v>0.04249501137003264</v>
+        <v>0.0410743576103495</v>
       </c>
       <c r="M11" t="n">
-        <v>6.017188086899777</v>
+        <v>5.955211995000941</v>
       </c>
       <c r="N11" t="n">
-        <v>70.25721586471727</v>
+        <v>69.2427941096829</v>
       </c>
       <c r="O11" t="n">
-        <v>8.38195775846653</v>
+        <v>8.321225517295089</v>
       </c>
       <c r="P11" t="n">
-        <v>328.6190945528364</v>
+        <v>328.5408644340177</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -23146,28 +23490,28 @@
         <v>0.1149</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.07618199841289179</v>
+        <v>-0.06368380129214482</v>
       </c>
       <c r="J12" t="n">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="K12" t="n">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="L12" t="n">
-        <v>0.004178612568340734</v>
+        <v>0.00301080071049431</v>
       </c>
       <c r="M12" t="n">
-        <v>6.069329667196918</v>
+        <v>6.029584043714244</v>
       </c>
       <c r="N12" t="n">
-        <v>73.00054284333761</v>
+        <v>72.13098329749317</v>
       </c>
       <c r="O12" t="n">
-        <v>8.544035512761965</v>
+        <v>8.492996131960332</v>
       </c>
       <c r="P12" t="n">
-        <v>324.5801861570587</v>
+        <v>324.4579743023533</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -23224,28 +23568,28 @@
         <v>0.0853</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.2534910620126817</v>
+        <v>-0.2397426170853822</v>
       </c>
       <c r="J13" t="n">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="K13" t="n">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="L13" t="n">
-        <v>0.03903090844069323</v>
+        <v>0.03608770982220766</v>
       </c>
       <c r="M13" t="n">
-        <v>6.662098341312998</v>
+        <v>6.612519277344527</v>
       </c>
       <c r="N13" t="n">
-        <v>84.07484628004059</v>
+        <v>83.05845440267441</v>
       </c>
       <c r="O13" t="n">
-        <v>9.169233680086935</v>
+        <v>9.11364111662701</v>
       </c>
       <c r="P13" t="n">
-        <v>318.902140277669</v>
+        <v>318.76916146709</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -23302,28 +23646,28 @@
         <v>0.0832</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.3170300888274958</v>
+        <v>-0.2954276006496958</v>
       </c>
       <c r="J14" t="n">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="K14" t="n">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="L14" t="n">
-        <v>0.07222259171080303</v>
+        <v>0.06469722234199982</v>
       </c>
       <c r="M14" t="n">
-        <v>6.204720776796873</v>
+        <v>6.195766873007561</v>
       </c>
       <c r="N14" t="n">
-        <v>70.08563813750416</v>
+        <v>69.65728244763419</v>
       </c>
       <c r="O14" t="n">
-        <v>8.371716558598013</v>
+        <v>8.346093843687248</v>
       </c>
       <c r="P14" t="n">
-        <v>326.4231119883084</v>
+        <v>326.2154261941639</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -23380,28 +23724,28 @@
         <v>0.0994</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.3827573585019567</v>
+        <v>-0.3649885122009302</v>
       </c>
       <c r="J15" t="n">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="K15" t="n">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="L15" t="n">
-        <v>0.05344252323161869</v>
+        <v>0.05009857002233709</v>
       </c>
       <c r="M15" t="n">
-        <v>9.135712108824464</v>
+        <v>9.081739285184014</v>
       </c>
       <c r="N15" t="n">
-        <v>139.9368644137362</v>
+        <v>138.5877258075667</v>
       </c>
       <c r="O15" t="n">
-        <v>11.82949129987153</v>
+        <v>11.77232881835904</v>
       </c>
       <c r="P15" t="n">
-        <v>312.7671369186354</v>
+        <v>312.595550246253</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -23458,28 +23802,28 @@
         <v>0.1419</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.3847030440169846</v>
+        <v>-0.36079163184452</v>
       </c>
       <c r="J16" t="n">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="K16" t="n">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="L16" t="n">
-        <v>0.06438369257032361</v>
+        <v>0.05861580302230007</v>
       </c>
       <c r="M16" t="n">
-        <v>7.523509478097471</v>
+        <v>7.509869039589955</v>
       </c>
       <c r="N16" t="n">
-        <v>117.3387807210449</v>
+        <v>116.313075148915</v>
       </c>
       <c r="O16" t="n">
-        <v>10.83230265091614</v>
+        <v>10.78485396975383</v>
       </c>
       <c r="P16" t="n">
-        <v>319.9378202243673</v>
+        <v>319.7118188701631</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -23536,28 +23880,28 @@
         <v>0.1147</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.4687867568610605</v>
+        <v>-0.4243322241623814</v>
       </c>
       <c r="J17" t="n">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="K17" t="n">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="L17" t="n">
-        <v>0.07912424157917908</v>
+        <v>0.06616646745113441</v>
       </c>
       <c r="M17" t="n">
-        <v>8.830984723944084</v>
+        <v>8.896251610731403</v>
       </c>
       <c r="N17" t="n">
-        <v>139.3873726550606</v>
+        <v>141.2204774337773</v>
       </c>
       <c r="O17" t="n">
-        <v>11.80624295256796</v>
+        <v>11.88362223540354</v>
       </c>
       <c r="P17" t="n">
-        <v>324.6892214245524</v>
+        <v>324.2685341855913</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -23595,7 +23939,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R332"/>
+  <dimension ref="A1:R337"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -50719,6 +51063,454 @@
         </is>
       </c>
     </row>
+    <row r="333">
+      <c r="A333" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-23 22:06:19+00:00</t>
+        </is>
+      </c>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>-38.795176709223696,174.59165737471275</t>
+        </is>
+      </c>
+      <c r="C333" t="inlineStr">
+        <is>
+          <t>-38.794510258628385,174.59194872625966</t>
+        </is>
+      </c>
+      <c r="D333" t="inlineStr">
+        <is>
+          <t>-38.79381957974557,174.59210245205102</t>
+        </is>
+      </c>
+      <c r="E333" t="inlineStr">
+        <is>
+          <t>-38.793148035463,174.592364935331</t>
+        </is>
+      </c>
+      <c r="F333" t="inlineStr">
+        <is>
+          <t>-38.79245261301412,174.59249178336498</t>
+        </is>
+      </c>
+      <c r="G333" t="inlineStr">
+        <is>
+          <t>-38.791746887683644,174.5925690167691</t>
+        </is>
+      </c>
+      <c r="H333" t="inlineStr">
+        <is>
+          <t>-38.791075086374065,174.59285585096634</t>
+        </is>
+      </c>
+      <c r="I333" t="inlineStr">
+        <is>
+          <t>-38.79038998569406,174.59304488854576</t>
+        </is>
+      </c>
+      <c r="J333" t="inlineStr">
+        <is>
+          <t>-38.78971126865542,174.5932746296207</t>
+        </is>
+      </c>
+      <c r="K333" t="inlineStr">
+        <is>
+          <t>-38.78903323786799,174.59350908376754</t>
+        </is>
+      </c>
+      <c r="L333" t="inlineStr">
+        <is>
+          <t>-38.788344892081604,174.59367341362034</t>
+        </is>
+      </c>
+      <c r="M333" t="inlineStr">
+        <is>
+          <t>-38.7876914871978,174.5939278454286</t>
+        </is>
+      </c>
+      <c r="N333" t="inlineStr">
+        <is>
+          <t>-38.787034683426626,174.5941345969504</t>
+        </is>
+      </c>
+      <c r="O333" t="inlineStr">
+        <is>
+          <t>-38.78640176794795,174.59452148963214</t>
+        </is>
+      </c>
+      <c r="P333" t="inlineStr">
+        <is>
+          <t>-38.785731171377556,174.59478250060295</t>
+        </is>
+      </c>
+      <c r="Q333" t="inlineStr">
+        <is>
+          <t>-38.78504420837572,174.59498335800382</t>
+        </is>
+      </c>
+      <c r="R333" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-11 22:06:15+00:00</t>
+        </is>
+      </c>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>-38.7951781632804,174.59166563652383</t>
+        </is>
+      </c>
+      <c r="C334" t="inlineStr">
+        <is>
+          <t>-38.79452069703318,174.59200803641386</t>
+        </is>
+      </c>
+      <c r="D334" t="inlineStr">
+        <is>
+          <t>-38.79384261020645,174.59223330863205</t>
+        </is>
+      </c>
+      <c r="E334" t="inlineStr">
+        <is>
+          <t>-38.79315969360975,174.5924311754998</t>
+        </is>
+      </c>
+      <c r="F334" t="inlineStr">
+        <is>
+          <t>-38.792451024782046,174.59248275931375</t>
+        </is>
+      </c>
+      <c r="G334" t="inlineStr">
+        <is>
+          <t>-38.791766410105225,174.59268861297775</t>
+        </is>
+      </c>
+      <c r="H334" t="inlineStr">
+        <is>
+          <t>-38.79107971740739,174.59288697845656</t>
+        </is>
+      </c>
+      <c r="I334" t="inlineStr">
+        <is>
+          <t>-38.79040104023848,174.59312008884427</t>
+        </is>
+      </c>
+      <c r="J334" t="inlineStr">
+        <is>
+          <t>-38.789722353594065,174.5933500366453</t>
+        </is>
+      </c>
+      <c r="K334" t="inlineStr">
+        <is>
+          <t>-38.78903678036484,174.59353318211188</t>
+        </is>
+      </c>
+      <c r="L334" t="inlineStr">
+        <is>
+          <t>-38.788344526983394,174.59367093000068</t>
+        </is>
+      </c>
+      <c r="M334" t="inlineStr">
+        <is>
+          <t>-38.78768903841575,174.59391551613413</t>
+        </is>
+      </c>
+      <c r="N334" t="inlineStr">
+        <is>
+          <t>-38.78702963646293,174.59411532997942</t>
+        </is>
+      </c>
+      <c r="O334" t="inlineStr">
+        <is>
+          <t>-38.78643339748217,174.59463778690835</t>
+        </is>
+      </c>
+      <c r="P334" t="inlineStr">
+        <is>
+          <t>-38.785744617007225,174.59483193796967</t>
+        </is>
+      </c>
+      <c r="Q334" t="inlineStr">
+        <is>
+          <t>-38.78501732074883,174.59488449760298</t>
+        </is>
+      </c>
+      <c r="R334" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-19 22:06:18+00:00</t>
+        </is>
+      </c>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>-38.79517822697773,174.59166599844605</t>
+        </is>
+      </c>
+      <c r="C335" t="inlineStr">
+        <is>
+          <t>-38.794523572789984,174.59202437625993</t>
+        </is>
+      </c>
+      <c r="D335" t="inlineStr">
+        <is>
+          <t>-38.79383463343403,174.59218798537168</t>
+        </is>
+      </c>
+      <c r="E335" t="inlineStr">
+        <is>
+          <t>-38.79316182911549,174.59244330920882</t>
+        </is>
+      </c>
+      <c r="F335" t="inlineStr">
+        <is>
+          <t>-38.792450795749374,174.5924814579914</t>
+        </is>
+      </c>
+      <c r="G335" t="inlineStr">
+        <is>
+          <t>-38.79175298973872,174.59260639844982</t>
+        </is>
+      </c>
+      <c r="H335" t="inlineStr">
+        <is>
+          <t>-38.79108248474026,174.59290557911294</t>
+        </is>
+      </c>
+      <c r="I335" t="inlineStr">
+        <is>
+          <t>-38.790407055353676,174.59316100777207</t>
+        </is>
+      </c>
+      <c r="J335" t="inlineStr">
+        <is>
+          <t>-38.78972272780343,174.59335258226915</t>
+        </is>
+      </c>
+      <c r="K335" t="inlineStr">
+        <is>
+          <t>-38.78903483448691,174.5935199449929</t>
+        </is>
+      </c>
+      <c r="L335" t="inlineStr">
+        <is>
+          <t>-38.78834977378008,174.59370662193393</t>
+        </is>
+      </c>
+      <c r="M335" t="inlineStr">
+        <is>
+          <t>-38.78769873381202,174.59396433121873</t>
+        </is>
+      </c>
+      <c r="N335" t="inlineStr">
+        <is>
+          <t>-38.78703874387099,174.59415009785815</t>
+        </is>
+      </c>
+      <c r="O335" t="inlineStr">
+        <is>
+          <t>-38.786454991980975,174.59471718710037</t>
+        </is>
+      </c>
+      <c r="P335" t="inlineStr">
+        <is>
+          <t>-38.785764568547386,174.59490529667593</t>
+        </is>
+      </c>
+      <c r="Q335" t="inlineStr">
+        <is>
+          <t>-38.78509999584354,174.59518847854224</t>
+        </is>
+      </c>
+      <c r="R335" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-27 22:06:04+00:00</t>
+        </is>
+      </c>
+      <c r="B336" t="inlineStr"/>
+      <c r="C336" t="inlineStr"/>
+      <c r="D336" t="inlineStr">
+        <is>
+          <t>-38.79384572974655,174.59225103359154</t>
+        </is>
+      </c>
+      <c r="E336" t="inlineStr">
+        <is>
+          <t>-38.79314969595154,174.59237437001005</t>
+        </is>
+      </c>
+      <c r="F336" t="inlineStr">
+        <is>
+          <t>-38.79244657704681,174.59245748809943</t>
+        </is>
+      </c>
+      <c r="G336" t="inlineStr"/>
+      <c r="H336" t="inlineStr">
+        <is>
+          <t>-38.79104537293428,174.59265613351252</t>
+        </is>
+      </c>
+      <c r="I336" t="inlineStr">
+        <is>
+          <t>-38.790392430559905,174.5930615201044</t>
+        </is>
+      </c>
+      <c r="J336" t="inlineStr">
+        <is>
+          <t>-38.789710104442946,174.59326670990444</t>
+        </is>
+      </c>
+      <c r="K336" t="inlineStr">
+        <is>
+          <t>-38.78903115893558,174.59349494154776</t>
+        </is>
+      </c>
+      <c r="L336" t="inlineStr">
+        <is>
+          <t>-38.788342910571814,174.5936599341925</t>
+        </is>
+      </c>
+      <c r="M336" t="inlineStr">
+        <is>
+          <t>-38.7877041632249,174.5939916676716</t>
+        </is>
+      </c>
+      <c r="N336" t="inlineStr">
+        <is>
+          <t>-38.78703388277538,174.59413154043358</t>
+        </is>
+      </c>
+      <c r="O336" t="inlineStr">
+        <is>
+          <t>-38.78642100000688,174.5945922031002</t>
+        </is>
+      </c>
+      <c r="P336" t="inlineStr">
+        <is>
+          <t>-38.78573637613996,174.59480163764601</t>
+        </is>
+      </c>
+      <c r="Q336" t="inlineStr">
+        <is>
+          <t>-38.78506601880885,174.59506355086677</t>
+        </is>
+      </c>
+      <c r="R336" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-12 22:06:00+00:00</t>
+        </is>
+      </c>
+      <c r="B337" t="inlineStr">
+        <is>
+          <t>-38.79517399000428,174.59164192437805</t>
+        </is>
+      </c>
+      <c r="C337" t="inlineStr">
+        <is>
+          <t>-38.79450300284126,174.591907499588</t>
+        </is>
+      </c>
+      <c r="D337" t="inlineStr">
+        <is>
+          <t>-38.79382469868452,174.59213153722715</t>
+        </is>
+      </c>
+      <c r="E337" t="inlineStr">
+        <is>
+          <t>-38.793151434911124,174.59238425055642</t>
+        </is>
+      </c>
+      <c r="F337" t="inlineStr">
+        <is>
+          <t>-38.792439910545916,174.59241961033078</t>
+        </is>
+      </c>
+      <c r="G337" t="inlineStr">
+        <is>
+          <t>-38.7917477349816,174.59257420737984</t>
+        </is>
+      </c>
+      <c r="H337" t="inlineStr">
+        <is>
+          <t>-38.79106773450485,174.59280643550122</t>
+        </is>
+      </c>
+      <c r="I337" t="inlineStr">
+        <is>
+          <t>-38.79038149240002,174.5929871118015</t>
+        </is>
+      </c>
+      <c r="J337" t="inlineStr">
+        <is>
+          <t>-38.78970409210852,174.5932258102308</t>
+        </is>
+      </c>
+      <c r="K337" t="inlineStr">
+        <is>
+          <t>-38.789027283800955,174.5934685804521</t>
+        </is>
+      </c>
+      <c r="L337" t="inlineStr">
+        <is>
+          <t>-38.788335544441885,174.59360982542228</t>
+        </is>
+      </c>
+      <c r="M337" t="inlineStr">
+        <is>
+          <t>-38.787690168623016,174.59392120657762</t>
+        </is>
+      </c>
+      <c r="N337" t="inlineStr">
+        <is>
+          <t>-38.787026748397246,174.59410430468841</t>
+        </is>
+      </c>
+      <c r="O337" t="inlineStr">
+        <is>
+          <t>-38.78642014568774,174.5945890618895</t>
+        </is>
+      </c>
+      <c r="P337" t="inlineStr">
+        <is>
+          <t>-38.78573434549439,174.59479417129933</t>
+        </is>
+      </c>
+      <c r="Q337" t="inlineStr">
+        <is>
+          <t>-38.78506427559497,174.59505714138766</t>
+        </is>
+      </c>
+      <c r="R337" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0273/nzd0273.xlsx
+++ b/data/nzd0273/nzd0273.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R337"/>
+  <dimension ref="A1:R340"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18968,6 +18968,186 @@
         </is>
       </c>
     </row>
+    <row r="338">
+      <c r="A338" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-28 22:05:51+00:00</t>
+        </is>
+      </c>
+      <c r="B338" t="n">
+        <v>335.8188888888889</v>
+      </c>
+      <c r="C338" t="n">
+        <v>331.547619047619</v>
+      </c>
+      <c r="D338" t="n">
+        <v>323.2676190476191</v>
+      </c>
+      <c r="E338" t="n">
+        <v>327.4184848484849</v>
+      </c>
+      <c r="F338" t="n">
+        <v>343.5548275862069</v>
+      </c>
+      <c r="G338" t="n">
+        <v>348.5788235294117</v>
+      </c>
+      <c r="H338" t="n">
+        <v>346.5488235294118</v>
+      </c>
+      <c r="I338" t="n">
+        <v>332.7966666666667</v>
+      </c>
+      <c r="J338" t="n">
+        <v>332.025</v>
+      </c>
+      <c r="K338" t="n">
+        <v>330.72</v>
+      </c>
+      <c r="L338" t="n">
+        <v>333.057619047619</v>
+      </c>
+      <c r="M338" t="n">
+        <v>322.655</v>
+      </c>
+      <c r="N338" t="n">
+        <v>330.915</v>
+      </c>
+      <c r="O338" t="n">
+        <v>311.2888888888889</v>
+      </c>
+      <c r="P338" t="n">
+        <v>310.1166666666667</v>
+      </c>
+      <c r="Q338" t="n">
+        <v>309.4521052631579</v>
+      </c>
+      <c r="R338" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-06 22:06:06+00:00</t>
+        </is>
+      </c>
+      <c r="B339" t="n">
+        <v>328.75</v>
+      </c>
+      <c r="C339" t="n">
+        <v>320.6042857142857</v>
+      </c>
+      <c r="D339" t="n">
+        <v>325.7642857142857</v>
+      </c>
+      <c r="E339" t="n">
+        <v>316.2527272727273</v>
+      </c>
+      <c r="F339" t="n">
+        <v>329.8165517241379</v>
+      </c>
+      <c r="G339" t="n">
+        <v>336.8058823529412</v>
+      </c>
+      <c r="H339" t="n">
+        <v>325.8958823529412</v>
+      </c>
+      <c r="I339" t="n">
+        <v>322.03</v>
+      </c>
+      <c r="J339" t="n">
+        <v>319.435</v>
+      </c>
+      <c r="K339" t="n">
+        <v>318.93</v>
+      </c>
+      <c r="L339" t="n">
+        <v>320.8942857142857</v>
+      </c>
+      <c r="M339" t="n">
+        <v>308.875</v>
+      </c>
+      <c r="N339" t="n">
+        <v>320.725</v>
+      </c>
+      <c r="O339" t="n">
+        <v>294.02</v>
+      </c>
+      <c r="P339" t="n">
+        <v>327</v>
+      </c>
+      <c r="Q339" t="n">
+        <v>317.7331578947368</v>
+      </c>
+      <c r="R339" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-14 22:05:50+00:00</t>
+        </is>
+      </c>
+      <c r="B340" t="n">
+        <v>328.0166666666667</v>
+      </c>
+      <c r="C340" t="n">
+        <v>320.53</v>
+      </c>
+      <c r="D340" t="n">
+        <v>318.13</v>
+      </c>
+      <c r="E340" t="n">
+        <v>318.5636363636364</v>
+      </c>
+      <c r="F340" t="n">
+        <v>331.5813793103448</v>
+      </c>
+      <c r="G340" t="n">
+        <v>336.5429411764706</v>
+      </c>
+      <c r="H340" t="n">
+        <v>331.0729411764706</v>
+      </c>
+      <c r="I340" t="n">
+        <v>325.31</v>
+      </c>
+      <c r="J340" t="n">
+        <v>321.635</v>
+      </c>
+      <c r="K340" t="n">
+        <v>318.66</v>
+      </c>
+      <c r="L340" t="n">
+        <v>320.44</v>
+      </c>
+      <c r="M340" t="n">
+        <v>309.915</v>
+      </c>
+      <c r="N340" t="n">
+        <v>312.225</v>
+      </c>
+      <c r="O340" t="n">
+        <v>301.8166666666667</v>
+      </c>
+      <c r="P340" t="n">
+        <v>304.03</v>
+      </c>
+      <c r="Q340" t="n">
+        <v>303.1126315789473</v>
+      </c>
+      <c r="R340" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -18979,7 +19159,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B355"/>
+  <dimension ref="A1:B358"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22537,6 +22717,36 @@
       </c>
       <c r="B355" t="n">
         <v>1.41</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>2025-04-28 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B356" t="n">
+        <v>1.79</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>2025-05-06 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B357" t="n">
+        <v>-0.45</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>2025-05-14 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B358" t="n">
+        <v>1.05</v>
       </c>
     </row>
   </sheetData>
@@ -22710,28 +22920,28 @@
         <v>0.101</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.6973528117265451</v>
+        <v>-0.6996490627678353</v>
       </c>
       <c r="J2" t="n">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="K2" t="n">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="L2" t="n">
-        <v>0.05435565951215504</v>
+        <v>0.05601178607292556</v>
       </c>
       <c r="M2" t="n">
-        <v>12.50805783849844</v>
+        <v>12.38945992417839</v>
       </c>
       <c r="N2" t="n">
-        <v>459.9768947959353</v>
+        <v>454.0714806781805</v>
       </c>
       <c r="O2" t="n">
-        <v>21.44707193991607</v>
+        <v>21.3089530638692</v>
       </c>
       <c r="P2" t="n">
-        <v>349.5129018971106</v>
+        <v>349.5355189966526</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -22788,28 +22998,28 @@
         <v>0.1136</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.3721337732204422</v>
+        <v>-0.3660941385117678</v>
       </c>
       <c r="J3" t="n">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="K3" t="n">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0565469954272807</v>
+        <v>0.0557460466438543</v>
       </c>
       <c r="M3" t="n">
-        <v>8.256499762099466</v>
+        <v>8.203914875093533</v>
       </c>
       <c r="N3" t="n">
-        <v>127.3387766286235</v>
+        <v>126.3777626033702</v>
       </c>
       <c r="O3" t="n">
-        <v>11.284448441489</v>
+        <v>11.24178645071015</v>
       </c>
       <c r="P3" t="n">
-        <v>330.583521211258</v>
+        <v>330.5251005481657</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -22866,28 +23076,28 @@
         <v>0.117</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.312142108840787</v>
+        <v>-0.3190521517387446</v>
       </c>
       <c r="J4" t="n">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="K4" t="n">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="L4" t="n">
-        <v>0.04602182932154253</v>
+        <v>0.04887491152050294</v>
       </c>
       <c r="M4" t="n">
-        <v>7.348170750865998</v>
+        <v>7.312163530940658</v>
       </c>
       <c r="N4" t="n">
-        <v>112.3486202353752</v>
+        <v>111.3804405432116</v>
       </c>
       <c r="O4" t="n">
-        <v>10.59946320505785</v>
+        <v>10.5536932181683</v>
       </c>
       <c r="P4" t="n">
-        <v>333.7768537571725</v>
+        <v>333.8428643818717</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -22944,28 +23154,28 @@
         <v>0.189</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.7196670835080348</v>
+        <v>-0.7209016446915746</v>
       </c>
       <c r="J5" t="n">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="K5" t="n">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="L5" t="n">
-        <v>0.2201836238715126</v>
+        <v>0.2240329107561332</v>
       </c>
       <c r="M5" t="n">
-        <v>7.104230402119596</v>
+        <v>7.079545510094373</v>
       </c>
       <c r="N5" t="n">
-        <v>103.1784873698089</v>
+        <v>102.3361707660698</v>
       </c>
       <c r="O5" t="n">
-        <v>10.15768120044181</v>
+        <v>10.11613418090477</v>
       </c>
       <c r="P5" t="n">
-        <v>339.6512158960455</v>
+        <v>339.6629469712793</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -23022,28 +23232,28 @@
         <v>0.1671</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.5320896058547072</v>
+        <v>-0.5285879955511384</v>
       </c>
       <c r="J6" t="n">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="K6" t="n">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="L6" t="n">
-        <v>0.1868890442499994</v>
+        <v>0.1870443616560636</v>
       </c>
       <c r="M6" t="n">
-        <v>5.846745726334626</v>
+        <v>5.835925741003055</v>
       </c>
       <c r="N6" t="n">
-        <v>68.25619298498367</v>
+        <v>67.96691577039991</v>
       </c>
       <c r="O6" t="n">
-        <v>8.261730628929007</v>
+        <v>8.244204981100355</v>
       </c>
       <c r="P6" t="n">
-        <v>346.6766201616326</v>
+        <v>346.6429743909822</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -23100,28 +23310,28 @@
         <v>0.0965</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.5173744230869645</v>
+        <v>-0.5155815225839079</v>
       </c>
       <c r="J7" t="n">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="K7" t="n">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="L7" t="n">
-        <v>0.1591182338639988</v>
+        <v>0.1603245864035862</v>
       </c>
       <c r="M7" t="n">
-        <v>6.554936992011455</v>
+        <v>6.538881777783415</v>
       </c>
       <c r="N7" t="n">
-        <v>77.08944931743763</v>
+        <v>76.63533852055674</v>
       </c>
       <c r="O7" t="n">
-        <v>8.780059755914969</v>
+        <v>8.754161211707078</v>
       </c>
       <c r="P7" t="n">
-        <v>352.8402499295086</v>
+        <v>352.822893366937</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -23178,28 +23388,28 @@
         <v>0.0979</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.3755761152721989</v>
+        <v>-0.3728867229405717</v>
       </c>
       <c r="J8" t="n">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="K8" t="n">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="L8" t="n">
-        <v>0.07714555611181007</v>
+        <v>0.07697423940238579</v>
       </c>
       <c r="M8" t="n">
-        <v>7.34908677302388</v>
+        <v>7.352705900065724</v>
       </c>
       <c r="N8" t="n">
-        <v>92.97281223835863</v>
+        <v>92.82170122374677</v>
       </c>
       <c r="O8" t="n">
-        <v>9.642241038179797</v>
+        <v>9.634401965028591</v>
       </c>
       <c r="P8" t="n">
-        <v>342.6780164826212</v>
+        <v>342.6521542974916</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -23256,28 +23466,28 @@
         <v>0.0859</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.5920403084722577</v>
+        <v>-0.5892279032891069</v>
       </c>
       <c r="J9" t="n">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="K9" t="n">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="L9" t="n">
-        <v>0.1671031006391305</v>
+        <v>0.1683330918819635</v>
       </c>
       <c r="M9" t="n">
-        <v>7.161133515453348</v>
+        <v>7.122196792826231</v>
       </c>
       <c r="N9" t="n">
-        <v>93.97563746657532</v>
+        <v>93.22544879020903</v>
       </c>
       <c r="O9" t="n">
-        <v>9.694103231685503</v>
+        <v>9.655332660773995</v>
       </c>
       <c r="P9" t="n">
-        <v>340.3291202768943</v>
+        <v>340.3015251175632</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -23334,28 +23544,28 @@
         <v>0.0877</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.4296191699152063</v>
+        <v>-0.428788467691986</v>
       </c>
       <c r="J10" t="n">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="K10" t="n">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="L10" t="n">
-        <v>0.09211394624664659</v>
+        <v>0.09311147720824098</v>
       </c>
       <c r="M10" t="n">
-        <v>7.29731115070168</v>
+        <v>7.273432216705757</v>
       </c>
       <c r="N10" t="n">
-        <v>97.53455256718243</v>
+        <v>96.86426952523232</v>
       </c>
       <c r="O10" t="n">
-        <v>9.87595831133275</v>
+        <v>9.841964718755717</v>
       </c>
       <c r="P10" t="n">
-        <v>334.8229450944093</v>
+        <v>334.8147225255597</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -23412,28 +23622,28 @@
         <v>0.1065</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.2348236579854196</v>
+        <v>-0.2344722595640877</v>
       </c>
       <c r="J11" t="n">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="K11" t="n">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="L11" t="n">
-        <v>0.0410743576103495</v>
+        <v>0.04155332462897887</v>
       </c>
       <c r="M11" t="n">
-        <v>5.955211995000941</v>
+        <v>5.947893068691126</v>
       </c>
       <c r="N11" t="n">
-        <v>69.2427941096829</v>
+        <v>68.86770823383463</v>
       </c>
       <c r="O11" t="n">
-        <v>8.321225517295089</v>
+        <v>8.298657013868848</v>
       </c>
       <c r="P11" t="n">
-        <v>328.5408644340177</v>
+        <v>328.5374858451947</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -23490,28 +23700,28 @@
         <v>0.1149</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.06368380129214482</v>
+        <v>-0.05995508475520345</v>
       </c>
       <c r="J12" t="n">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="K12" t="n">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="L12" t="n">
-        <v>0.00301080071049431</v>
+        <v>0.00270920220222759</v>
       </c>
       <c r="M12" t="n">
-        <v>6.029584043714244</v>
+        <v>6.017909901632186</v>
       </c>
       <c r="N12" t="n">
-        <v>72.13098329749317</v>
+        <v>71.7859416128744</v>
       </c>
       <c r="O12" t="n">
-        <v>8.492996131960332</v>
+        <v>8.472658473753937</v>
       </c>
       <c r="P12" t="n">
-        <v>324.4579743023533</v>
+        <v>324.4213963517196</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -23568,28 +23778,28 @@
         <v>0.0853</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.2397426170853822</v>
+        <v>-0.2375841431722395</v>
       </c>
       <c r="J13" t="n">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="K13" t="n">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="L13" t="n">
-        <v>0.03608770982220766</v>
+        <v>0.03599522690423329</v>
       </c>
       <c r="M13" t="n">
-        <v>6.612519277344527</v>
+        <v>6.600223120851731</v>
       </c>
       <c r="N13" t="n">
-        <v>83.05845440267441</v>
+        <v>82.63107519901919</v>
       </c>
       <c r="O13" t="n">
-        <v>9.11364111662701</v>
+        <v>9.090163650838152</v>
       </c>
       <c r="P13" t="n">
-        <v>318.76916146709</v>
+        <v>318.7482278775192</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -23646,28 +23856,28 @@
         <v>0.0832</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.2954276006496958</v>
+        <v>-0.2905743152997832</v>
       </c>
       <c r="J14" t="n">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="K14" t="n">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="L14" t="n">
-        <v>0.06469722234199982</v>
+        <v>0.06333592260011889</v>
       </c>
       <c r="M14" t="n">
-        <v>6.195766873007561</v>
+        <v>6.198938171277949</v>
       </c>
       <c r="N14" t="n">
-        <v>69.65728244763419</v>
+        <v>69.60722515106822</v>
       </c>
       <c r="O14" t="n">
-        <v>8.346093843687248</v>
+        <v>8.343094458956354</v>
       </c>
       <c r="P14" t="n">
-        <v>326.2154261941639</v>
+        <v>326.1685857661137</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -23724,28 +23934,28 @@
         <v>0.0994</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.3649885122009302</v>
+        <v>-0.3668342026974256</v>
       </c>
       <c r="J15" t="n">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="K15" t="n">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="L15" t="n">
-        <v>0.05009857002233709</v>
+        <v>0.0513789258545384</v>
       </c>
       <c r="M15" t="n">
-        <v>9.081739285184014</v>
+        <v>9.054052765451937</v>
       </c>
       <c r="N15" t="n">
-        <v>138.5877258075667</v>
+        <v>137.6719923587837</v>
       </c>
       <c r="O15" t="n">
-        <v>11.77232881835904</v>
+        <v>11.7333708864411</v>
       </c>
       <c r="P15" t="n">
-        <v>312.595550246253</v>
+        <v>312.6135788483995</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -23802,28 +24012,28 @@
         <v>0.1419</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.36079163184452</v>
+        <v>-0.3543278042771756</v>
       </c>
       <c r="J16" t="n">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="K16" t="n">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="L16" t="n">
-        <v>0.05861580302230007</v>
+        <v>0.05731110909759007</v>
       </c>
       <c r="M16" t="n">
-        <v>7.509869039589955</v>
+        <v>7.512340452747894</v>
       </c>
       <c r="N16" t="n">
-        <v>116.313075148915</v>
+        <v>116.1804016131555</v>
       </c>
       <c r="O16" t="n">
-        <v>10.78485396975383</v>
+        <v>10.77870129529321</v>
       </c>
       <c r="P16" t="n">
-        <v>319.7118188701631</v>
+        <v>319.6503510265421</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -23880,28 +24090,28 @@
         <v>0.1147</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.4243322241623814</v>
+        <v>-0.4312758646777339</v>
       </c>
       <c r="J17" t="n">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="K17" t="n">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="L17" t="n">
-        <v>0.06616646745113441</v>
+        <v>0.069379477530361</v>
       </c>
       <c r="M17" t="n">
-        <v>8.896251610731403</v>
+        <v>8.869186430297239</v>
       </c>
       <c r="N17" t="n">
-        <v>141.2204774337773</v>
+        <v>140.1915552800473</v>
       </c>
       <c r="O17" t="n">
-        <v>11.88362223540354</v>
+        <v>11.84025148719601</v>
       </c>
       <c r="P17" t="n">
-        <v>324.2685341855913</v>
+        <v>324.3347874553072</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -23939,7 +24149,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R337"/>
+  <dimension ref="A1:R340"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -51511,6 +51721,282 @@
         </is>
       </c>
     </row>
+    <row r="338">
+      <c r="A338" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-28 22:05:51+00:00</t>
+        </is>
+      </c>
+      <c r="B338" t="inlineStr">
+        <is>
+          <t>-38.79517274021695,174.59163482321492</t>
+        </is>
+      </c>
+      <c r="C338" t="inlineStr">
+        <is>
+          <t>-38.79449996045183,174.59189021305647</t>
+        </is>
+      </c>
+      <c r="D338" t="inlineStr">
+        <is>
+          <t>-38.793835098448156,174.5921906275346</t>
+        </is>
+      </c>
+      <c r="E338" t="inlineStr">
+        <is>
+          <t>-38.79314565674593,174.5923514197796</t>
+        </is>
+      </c>
+      <c r="F338" t="inlineStr">
+        <is>
+          <t>-38.79243251603222,174.59237759622468</t>
+        </is>
+      </c>
+      <c r="G338" t="inlineStr">
+        <is>
+          <t>-38.79174035709704,174.59252900995833</t>
+        </is>
+      </c>
+      <c r="H338" t="inlineStr">
+        <is>
+          <t>-38.79105672942577,174.59273246533084</t>
+        </is>
+      </c>
+      <c r="I338" t="inlineStr">
+        <is>
+          <t>-38.790392840809254,174.5930643108876</t>
+        </is>
+      </c>
+      <c r="J338" t="inlineStr">
+        <is>
+          <t>-38.789707534857804,174.59324922996015</t>
+        </is>
+      </c>
+      <c r="K338" t="inlineStr">
+        <is>
+          <t>-38.789023109292984,174.5934401828799</t>
+        </is>
+      </c>
+      <c r="L338" t="inlineStr">
+        <is>
+          <t>-38.78833261889195,174.59358992414582</t>
+        </is>
+      </c>
+      <c r="M338" t="inlineStr">
+        <is>
+          <t>-38.787681592337364,174.59387802615765</t>
+        </is>
+      </c>
+      <c r="N338" t="inlineStr">
+        <is>
+          <t>-38.78701622553514,174.59406413333835</t>
+        </is>
+      </c>
+      <c r="O338" t="inlineStr">
+        <is>
+          <t>-38.78641803946212,174.59458131759726</t>
+        </is>
+      </c>
+      <c r="P338" t="inlineStr">
+        <is>
+          <t>-38.78576286320513,174.5948990263897</t>
+        </is>
+      </c>
+      <c r="Q338" t="inlineStr">
+        <is>
+          <t>-38.785106179555804,174.59521121504815</t>
+        </is>
+      </c>
+      <c r="R338" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-06 22:06:06+00:00</t>
+        </is>
+      </c>
+      <c r="B339" t="inlineStr">
+        <is>
+          <t>-38.79518671408831,174.59171422147062</t>
+        </is>
+      </c>
+      <c r="C339" t="inlineStr">
+        <is>
+          <t>-38.79452159317761,174.59201312824138</t>
+        </is>
+      </c>
+      <c r="D339" t="inlineStr">
+        <is>
+          <t>-38.79383016308255,174.59216258530935</t>
+        </is>
+      </c>
+      <c r="E339" t="inlineStr">
+        <is>
+          <t>-38.79316772885532,174.59247683092346</t>
+        </is>
+      </c>
+      <c r="F339" t="inlineStr">
+        <is>
+          <t>-38.79245967348109,174.5925318997311</t>
+        </is>
+      </c>
+      <c r="G339" t="inlineStr">
+        <is>
+          <t>-38.79176201456832,174.5926616854296</t>
+        </is>
+      </c>
+      <c r="H339" t="inlineStr">
+        <is>
+          <t>-38.79109147954112,174.59296603790793</t>
+        </is>
+      </c>
+      <c r="I339" t="inlineStr">
+        <is>
+          <t>-38.790410747573894,174.59318612483136</t>
+        </is>
+      </c>
+      <c r="J339" t="inlineStr">
+        <is>
+          <t>-38.78972847398922,174.59339167174093</t>
+        </is>
+      </c>
+      <c r="K339" t="inlineStr">
+        <is>
+          <t>-38.78904271777784,174.59357357229956</t>
+        </is>
+      </c>
+      <c r="L339" t="inlineStr">
+        <is>
+          <t>-38.788352848199835,174.5937275360622</t>
+        </is>
+      </c>
+      <c r="M339" t="inlineStr">
+        <is>
+          <t>-38.78771213004551,174.59403177973914</t>
+        </is>
+      </c>
+      <c r="N339" t="inlineStr">
+        <is>
+          <t>-38.787045363534595,174.59417536870782</t>
+        </is>
+      </c>
+      <c r="O339" t="inlineStr">
+        <is>
+          <t>-38.786469107892614,174.5947690896246</t>
+        </is>
+      </c>
+      <c r="P339" t="inlineStr">
+        <is>
+          <t>-38.7857129349689,174.59471544848466</t>
+        </is>
+      </c>
+      <c r="Q339" t="inlineStr">
+        <is>
+          <t>-38.785081690596854,174.59512117324212</t>
+        </is>
+      </c>
+      <c r="R339" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-14 22:05:50+00:00</t>
+        </is>
+      </c>
+      <c r="B340" t="inlineStr">
+        <is>
+          <t>-38.795188163748044,174.59172245832374</t>
+        </is>
+      </c>
+      <c r="C340" t="inlineStr">
+        <is>
+          <t>-38.79452174002478,174.5920139626165</t>
+        </is>
+      </c>
+      <c r="D340" t="inlineStr">
+        <is>
+          <t>-38.79384525437927,174.5922483325943</t>
+        </is>
+      </c>
+      <c r="E340" t="inlineStr">
+        <is>
+          <t>-38.79316316073597,174.59245087533404</t>
+        </is>
+      </c>
+      <c r="F340" t="inlineStr">
+        <is>
+          <t>-38.792456184829625,174.59251207779914</t>
+        </is>
+      </c>
+      <c r="G340" t="inlineStr">
+        <is>
+          <t>-38.79176249827246,174.592664648653</t>
+        </is>
+      </c>
+      <c r="H340" t="inlineStr">
+        <is>
+          <t>-38.791082768797494,174.59290748840786</t>
+        </is>
+      </c>
+      <c r="I340" t="inlineStr">
+        <is>
+          <t>-38.79040529239975,174.59314901494278</t>
+        </is>
+      </c>
+      <c r="J340" t="inlineStr">
+        <is>
+          <t>-38.78972481505913,174.59336678119382</t>
+        </is>
+      </c>
+      <c r="K340" t="inlineStr">
+        <is>
+          <t>-38.7890431668253,174.5935766270199</t>
+        </is>
+      </c>
+      <c r="L340" t="inlineStr">
+        <is>
+          <t>-38.78835360373671,174.5937326757014</t>
+        </is>
+      </c>
+      <c r="M340" t="inlineStr">
+        <is>
+          <t>-38.787709825319986,174.5940201756909</t>
+        </is>
+      </c>
+      <c r="N340" t="inlineStr">
+        <is>
+          <t>-38.78706966894711,174.59426815588364</t>
+        </is>
+      </c>
+      <c r="O340" t="inlineStr">
+        <is>
+          <t>-38.786446051234265,174.5946843130956</t>
+        </is>
+      </c>
+      <c r="P340" t="inlineStr">
+        <is>
+          <t>-38.78578086292748,174.59496520873165</t>
+        </is>
+      </c>
+      <c r="Q340" t="inlineStr">
+        <is>
+          <t>-38.78512492677569,174.59528014565615</t>
+        </is>
+      </c>
+      <c r="R340" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0273/nzd0273.xlsx
+++ b/data/nzd0273/nzd0273.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tides" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transects" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Tides" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Transects" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R340"/>
+  <dimension ref="A1:R341"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19148,6 +19148,66 @@
         </is>
       </c>
     </row>
+    <row r="341">
+      <c r="A341" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-07 22:05:53+00:00</t>
+        </is>
+      </c>
+      <c r="B341" t="n">
+        <v>332.19</v>
+      </c>
+      <c r="C341" t="n">
+        <v>319.5242857142857</v>
+      </c>
+      <c r="D341" t="n">
+        <v>324.6842857142857</v>
+      </c>
+      <c r="E341" t="n">
+        <v>315.8509090909091</v>
+      </c>
+      <c r="F341" t="n">
+        <v>331.8713793103448</v>
+      </c>
+      <c r="G341" t="n">
+        <v>333.1976470588235</v>
+      </c>
+      <c r="H341" t="n">
+        <v>330.3776470588235</v>
+      </c>
+      <c r="I341" t="n">
+        <v>324.53</v>
+      </c>
+      <c r="J341" t="n">
+        <v>323.95</v>
+      </c>
+      <c r="K341" t="n">
+        <v>318.58</v>
+      </c>
+      <c r="L341" t="n">
+        <v>319.2942857142857</v>
+      </c>
+      <c r="M341" t="n">
+        <v>310.37</v>
+      </c>
+      <c r="N341" t="n">
+        <v>310.82</v>
+      </c>
+      <c r="O341" t="n">
+        <v>298.07</v>
+      </c>
+      <c r="P341" t="n">
+        <v>310.05</v>
+      </c>
+      <c r="Q341" t="n">
+        <v>311.2747368421053</v>
+      </c>
+      <c r="R341" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -19159,7 +19219,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B358"/>
+  <dimension ref="A1:B359"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22747,6 +22807,16 @@
       </c>
       <c r="B358" t="n">
         <v>1.05</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>2025-06-07 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B359" t="n">
+        <v>0.18</v>
       </c>
     </row>
   </sheetData>
@@ -22920,28 +22990,28 @@
         <v>0.101</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.6996490627678353</v>
+        <v>-0.6992496606827334</v>
       </c>
       <c r="J2" t="n">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="K2" t="n">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="L2" t="n">
-        <v>0.05601178607292556</v>
+        <v>0.05639541135997084</v>
       </c>
       <c r="M2" t="n">
-        <v>12.38945992417839</v>
+        <v>12.33740822309281</v>
       </c>
       <c r="N2" t="n">
-        <v>454.0714806781805</v>
+        <v>452.0809870531332</v>
       </c>
       <c r="O2" t="n">
-        <v>21.3089530638692</v>
+        <v>21.26219619543412</v>
       </c>
       <c r="P2" t="n">
-        <v>349.5355189966526</v>
+        <v>349.5315794572817</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -22998,28 +23068,28 @@
         <v>0.1136</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.3660941385117678</v>
+        <v>-0.3671780869974857</v>
       </c>
       <c r="J3" t="n">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="K3" t="n">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0557460466438543</v>
+        <v>0.0564148683681629</v>
       </c>
       <c r="M3" t="n">
-        <v>8.203914875093533</v>
+        <v>8.182089705925668</v>
       </c>
       <c r="N3" t="n">
-        <v>126.3777626033702</v>
+        <v>125.94550252415</v>
       </c>
       <c r="O3" t="n">
-        <v>11.24178645071015</v>
+        <v>11.22254438726575</v>
       </c>
       <c r="P3" t="n">
-        <v>330.5251005481657</v>
+        <v>330.5356492259976</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -23076,28 +23146,28 @@
         <v>0.117</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.3190521517387446</v>
+        <v>-0.319732041115816</v>
       </c>
       <c r="J4" t="n">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="K4" t="n">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="L4" t="n">
-        <v>0.04887491152050294</v>
+        <v>0.04940209243771709</v>
       </c>
       <c r="M4" t="n">
-        <v>7.312163530940658</v>
+        <v>7.290426099303807</v>
       </c>
       <c r="N4" t="n">
-        <v>111.3804405432116</v>
+        <v>110.989156327941</v>
       </c>
       <c r="O4" t="n">
-        <v>10.5536932181683</v>
+        <v>10.53513912238187</v>
       </c>
       <c r="P4" t="n">
-        <v>333.8428643818717</v>
+        <v>333.8493855934391</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -23154,28 +23224,28 @@
         <v>0.189</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.7209016446915746</v>
+        <v>-0.7244558846234339</v>
       </c>
       <c r="J5" t="n">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="K5" t="n">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="L5" t="n">
-        <v>0.2240329107561332</v>
+        <v>0.2267986327277961</v>
       </c>
       <c r="M5" t="n">
-        <v>7.079545510094373</v>
+        <v>7.077482887174373</v>
       </c>
       <c r="N5" t="n">
-        <v>102.3361707660698</v>
+        <v>102.0795728881462</v>
       </c>
       <c r="O5" t="n">
-        <v>10.11613418090477</v>
+        <v>10.10344361532969</v>
       </c>
       <c r="P5" t="n">
-        <v>339.6629469712793</v>
+        <v>339.6966917525956</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -23232,28 +23302,28 @@
         <v>0.1671</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.5285879955511384</v>
+        <v>-0.5294180619990206</v>
       </c>
       <c r="J6" t="n">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="K6" t="n">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="L6" t="n">
-        <v>0.1870443616560636</v>
+        <v>0.1885370496571466</v>
       </c>
       <c r="M6" t="n">
-        <v>5.835925741003055</v>
+        <v>5.820937433538217</v>
       </c>
       <c r="N6" t="n">
-        <v>67.96691577039991</v>
+        <v>67.7382741111695</v>
       </c>
       <c r="O6" t="n">
-        <v>8.244204981100355</v>
+        <v>8.230326488734788</v>
       </c>
       <c r="P6" t="n">
-        <v>346.6429743909822</v>
+        <v>346.6510083240589</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -23310,28 +23380,28 @@
         <v>0.0965</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.5155815225839079</v>
+        <v>-0.5196998225808394</v>
       </c>
       <c r="J7" t="n">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="K7" t="n">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="L7" t="n">
-        <v>0.1603245864035862</v>
+        <v>0.1631375852659349</v>
       </c>
       <c r="M7" t="n">
-        <v>6.538881777783415</v>
+        <v>6.538431272548113</v>
       </c>
       <c r="N7" t="n">
-        <v>76.63533852055674</v>
+        <v>76.51730072262512</v>
       </c>
       <c r="O7" t="n">
-        <v>8.754161211707078</v>
+        <v>8.747416802841004</v>
       </c>
       <c r="P7" t="n">
-        <v>352.822893366937</v>
+        <v>352.8631414459792</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -23388,28 +23458,28 @@
         <v>0.0979</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.3728867229405717</v>
+        <v>-0.3747082860607202</v>
       </c>
       <c r="J8" t="n">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="K8" t="n">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="L8" t="n">
-        <v>0.07697423940238579</v>
+        <v>0.07814591125580606</v>
       </c>
       <c r="M8" t="n">
-        <v>7.352705900065724</v>
+        <v>7.33557110880668</v>
       </c>
       <c r="N8" t="n">
-        <v>92.82170122374677</v>
+        <v>92.52155846849922</v>
       </c>
       <c r="O8" t="n">
-        <v>9.634401965028591</v>
+        <v>9.618812736949359</v>
       </c>
       <c r="P8" t="n">
-        <v>342.6521542974916</v>
+        <v>342.6698307295076</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -23466,28 +23536,28 @@
         <v>0.0859</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.5892279032891069</v>
+        <v>-0.5897216396525881</v>
       </c>
       <c r="J9" t="n">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="K9" t="n">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="L9" t="n">
-        <v>0.1683330918819635</v>
+        <v>0.1695295195243333</v>
       </c>
       <c r="M9" t="n">
-        <v>7.122196792826231</v>
+        <v>7.100287257421708</v>
       </c>
       <c r="N9" t="n">
-        <v>93.22544879020903</v>
+        <v>92.90367841367386</v>
       </c>
       <c r="O9" t="n">
-        <v>9.655332660773995</v>
+        <v>9.638655425611701</v>
       </c>
       <c r="P9" t="n">
-        <v>340.3015251175632</v>
+        <v>340.3064013179154</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -23544,28 +23614,28 @@
         <v>0.0877</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.428788467691986</v>
+        <v>-0.4287471577173885</v>
       </c>
       <c r="J10" t="n">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="K10" t="n">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="L10" t="n">
-        <v>0.09311147720824098</v>
+        <v>0.0936228930629005</v>
       </c>
       <c r="M10" t="n">
-        <v>7.273432216705757</v>
+        <v>7.249545577313348</v>
       </c>
       <c r="N10" t="n">
-        <v>96.86426952523232</v>
+        <v>96.54354171405019</v>
       </c>
       <c r="O10" t="n">
-        <v>9.841964718755717</v>
+        <v>9.82565731714933</v>
       </c>
       <c r="P10" t="n">
-        <v>334.8147225255597</v>
+        <v>334.8143079470611</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -23622,28 +23692,28 @@
         <v>0.1065</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.2344722595640877</v>
+        <v>-0.2369647291024502</v>
       </c>
       <c r="J11" t="n">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="K11" t="n">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="L11" t="n">
-        <v>0.04155332462897887</v>
+        <v>0.04263749323279686</v>
       </c>
       <c r="M11" t="n">
-        <v>5.947893068691126</v>
+        <v>5.941979977642163</v>
       </c>
       <c r="N11" t="n">
-        <v>68.86770823383463</v>
+        <v>68.69159970041324</v>
       </c>
       <c r="O11" t="n">
-        <v>8.298657013868848</v>
+        <v>8.28803955712165</v>
       </c>
       <c r="P11" t="n">
-        <v>328.5374858451947</v>
+        <v>328.5621687386952</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -23700,28 +23770,28 @@
         <v>0.1149</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.05995508475520345</v>
+        <v>-0.06224709027037259</v>
       </c>
       <c r="J12" t="n">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="K12" t="n">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="L12" t="n">
-        <v>0.00270920220222759</v>
+        <v>0.002937341048254272</v>
       </c>
       <c r="M12" t="n">
-        <v>6.017909901632186</v>
+        <v>6.009565692946269</v>
       </c>
       <c r="N12" t="n">
-        <v>71.7859416128744</v>
+        <v>71.58873396912348</v>
       </c>
       <c r="O12" t="n">
-        <v>8.472658473753937</v>
+        <v>8.461012585330639</v>
       </c>
       <c r="P12" t="n">
-        <v>324.4213963517196</v>
+        <v>324.4440372910991</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -23778,28 +23848,28 @@
         <v>0.0853</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.2375841431722395</v>
+        <v>-0.2390619652818997</v>
       </c>
       <c r="J13" t="n">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="K13" t="n">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="L13" t="n">
-        <v>0.03599522690423329</v>
+        <v>0.0366568664153597</v>
       </c>
       <c r="M13" t="n">
-        <v>6.600223120851731</v>
+        <v>6.586722415135238</v>
       </c>
       <c r="N13" t="n">
-        <v>82.63107519901919</v>
+        <v>82.3734162486342</v>
       </c>
       <c r="O13" t="n">
-        <v>9.090163650838152</v>
+        <v>9.075980181150364</v>
       </c>
       <c r="P13" t="n">
-        <v>318.7482278775192</v>
+        <v>318.7626861255854</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -23856,28 +23926,28 @@
         <v>0.0832</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.2905743152997832</v>
+        <v>-0.2955733156932151</v>
       </c>
       <c r="J14" t="n">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="K14" t="n">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="L14" t="n">
-        <v>0.06333592260011889</v>
+        <v>0.06560666836866436</v>
       </c>
       <c r="M14" t="n">
-        <v>6.198938171277949</v>
+        <v>6.208632705412872</v>
       </c>
       <c r="N14" t="n">
-        <v>69.60722515106822</v>
+        <v>69.58287682520914</v>
       </c>
       <c r="O14" t="n">
-        <v>8.343094458956354</v>
+        <v>8.341635140978605</v>
       </c>
       <c r="P14" t="n">
-        <v>326.1685857661137</v>
+        <v>326.2171979287559</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -23934,28 +24004,28 @@
         <v>0.0994</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.3668342026974256</v>
+        <v>-0.3701772877201995</v>
       </c>
       <c r="J15" t="n">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="K15" t="n">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="L15" t="n">
-        <v>0.0513789258545384</v>
+        <v>0.05257030794524764</v>
       </c>
       <c r="M15" t="n">
-        <v>9.054052765451937</v>
+        <v>9.043718348199913</v>
       </c>
       <c r="N15" t="n">
-        <v>137.6719923587837</v>
+        <v>137.2879219658624</v>
       </c>
       <c r="O15" t="n">
-        <v>11.7333708864411</v>
+        <v>11.71699287214353</v>
       </c>
       <c r="P15" t="n">
-        <v>312.6135788483995</v>
+        <v>312.6462592306768</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -24012,28 +24082,28 @@
         <v>0.1419</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.3543278042771756</v>
+        <v>-0.3547125049006701</v>
       </c>
       <c r="J16" t="n">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="K16" t="n">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="L16" t="n">
-        <v>0.05731110909759007</v>
+        <v>0.05782203265759445</v>
       </c>
       <c r="M16" t="n">
-        <v>7.512340452747894</v>
+        <v>7.487278773034779</v>
       </c>
       <c r="N16" t="n">
-        <v>116.1804016131555</v>
+        <v>115.7621250733608</v>
       </c>
       <c r="O16" t="n">
-        <v>10.77870129529321</v>
+        <v>10.75928088086563</v>
       </c>
       <c r="P16" t="n">
-        <v>319.6503510265421</v>
+        <v>319.6540288991768</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -24090,28 +24160,28 @@
         <v>0.1147</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.4312758646777339</v>
+        <v>-0.432680859482062</v>
       </c>
       <c r="J17" t="n">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="K17" t="n">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="L17" t="n">
-        <v>0.069379477530361</v>
+        <v>0.07026635667604775</v>
       </c>
       <c r="M17" t="n">
-        <v>8.869186430297239</v>
+        <v>8.844883552612966</v>
       </c>
       <c r="N17" t="n">
-        <v>140.1915552800473</v>
+        <v>139.6988936233006</v>
       </c>
       <c r="O17" t="n">
-        <v>11.84025148719601</v>
+        <v>11.8194286504594</v>
       </c>
       <c r="P17" t="n">
-        <v>324.3347874553072</v>
+        <v>324.3482453748341</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -24149,7 +24219,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R340"/>
+  <dimension ref="A1:R341"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24501,7 +24571,7 @@
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>-38.787029221839695,174.59411374714054</t>
+          <t>-38.7870292218397,174.59411374714054</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
@@ -28722,7 +28792,7 @@
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>-38.786408221355124,174.59454521784457</t>
+          <t>-38.78640822135513,174.59454521784457</t>
         </is>
       </c>
       <c r="P54" t="inlineStr">
@@ -29092,7 +29162,7 @@
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>-38.78506305534504,174.59505265475246</t>
+          <t>-38.785063055345034,174.59505265475246</t>
         </is>
       </c>
       <c r="R58" t="inlineStr">
@@ -38021,7 +38091,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>-38.79508374501014,174.59112916858402</t>
+          <t>-38.795083745010146,174.59112916858402</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -41832,7 +41902,7 @@
       </c>
       <c r="I213" t="inlineStr">
         <is>
-          <t>-38.790393395200184,174.59306808221626</t>
+          <t>-38.79039339520019,174.59306808221626</t>
         </is>
       </c>
       <c r="J213" t="inlineStr">
@@ -51997,6 +52067,98 @@
         </is>
       </c>
     </row>
+    <row r="341">
+      <c r="A341" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-07 22:05:53+00:00</t>
+        </is>
+      </c>
+      <c r="B341" t="inlineStr">
+        <is>
+          <t>-38.79517991385846,174.59167558314573</t>
+        </is>
+      </c>
+      <c r="C341" t="inlineStr">
+        <is>
+          <t>-38.79452372810902,174.5920252587721</t>
+        </is>
+      </c>
+      <c r="D341" t="inlineStr">
+        <is>
+          <t>-38.7938322980079,174.59217471572413</t>
+        </is>
+      </c>
+      <c r="E341" t="inlineStr">
+        <is>
+          <t>-38.793168523154,174.59248134405146</t>
+        </is>
+      </c>
+      <c r="F341" t="inlineStr">
+        <is>
+          <t>-38.792455611567114,174.59250882061977</t>
+        </is>
+      </c>
+      <c r="G341" t="inlineStr">
+        <is>
+          <t>-38.79176865223783,174.59270234854756</t>
+        </is>
+      </c>
+      <c r="H341" t="inlineStr">
+        <is>
+          <t>-38.79108393867753,174.59291535177593</t>
+        </is>
+      </c>
+      <c r="I341" t="inlineStr">
+        <is>
+          <t>-38.79040658966786,174.59315783985485</t>
+        </is>
+      </c>
+      <c r="J341" t="inlineStr">
+        <is>
+          <t>-38.78972096486101,174.59334058955247</t>
+        </is>
+      </c>
+      <c r="K341" t="inlineStr">
+        <is>
+          <t>-38.78904329987639,174.59357753212223</t>
+        </is>
+      </c>
+      <c r="L341" t="inlineStr">
+        <is>
+          <t>-38.78835550920923,174.59374563793656</t>
+        </is>
+      </c>
+      <c r="M341" t="inlineStr">
+        <is>
+          <t>-38.78770881700219,174.59401509892004</t>
+        </is>
+      </c>
+      <c r="N341" t="inlineStr">
+        <is>
+          <t>-38.787073686481584,174.59428349306384</t>
+        </is>
+      </c>
+      <c r="O341" t="inlineStr">
+        <is>
+          <t>-38.78645713105569,174.59472505221623</t>
+        </is>
+      </c>
+      <c r="P341" t="inlineStr">
+        <is>
+          <t>-38.78576306035453,174.59489975127826</t>
+        </is>
+      </c>
+      <c r="Q341" t="inlineStr">
+        <is>
+          <t>-38.785100789625126,174.59519139714712</t>
+        </is>
+      </c>
+      <c r="R341" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0273/nzd0273.xlsx
+++ b/data/nzd0273/nzd0273.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R341"/>
+  <dimension ref="A1:R342"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19208,6 +19208,64 @@
         </is>
       </c>
     </row>
+    <row r="342">
+      <c r="A342" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-15 22:06:04+00:00</t>
+        </is>
+      </c>
+      <c r="B342" t="inlineStr"/>
+      <c r="C342" t="n">
+        <v>318.0638095238095</v>
+      </c>
+      <c r="D342" t="n">
+        <v>328.4738095238095</v>
+      </c>
+      <c r="E342" t="n">
+        <v>315.999696969697</v>
+      </c>
+      <c r="F342" t="n">
+        <v>331.0034482758621</v>
+      </c>
+      <c r="G342" t="n">
+        <v>342.8023529411765</v>
+      </c>
+      <c r="H342" t="n">
+        <v>326.5023529411765</v>
+      </c>
+      <c r="I342" t="n">
+        <v>326.2233333333333</v>
+      </c>
+      <c r="J342" t="n">
+        <v>315.01</v>
+      </c>
+      <c r="K342" t="n">
+        <v>321.41</v>
+      </c>
+      <c r="L342" t="n">
+        <v>322.5638095238095</v>
+      </c>
+      <c r="M342" t="n">
+        <v>315.22</v>
+      </c>
+      <c r="N342" t="n">
+        <v>321.97</v>
+      </c>
+      <c r="O342" t="n">
+        <v>311.3077777777777</v>
+      </c>
+      <c r="P342" t="n">
+        <v>315.7633333333333</v>
+      </c>
+      <c r="Q342" t="n">
+        <v>316.2542105263158</v>
+      </c>
+      <c r="R342" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -19219,7 +19277,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B359"/>
+  <dimension ref="A1:B360"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22817,6 +22875,16 @@
       </c>
       <c r="B359" t="n">
         <v>0.18</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>2025-06-15 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B360" t="n">
+        <v>0.16</v>
       </c>
     </row>
   </sheetData>
@@ -22993,7 +23061,7 @@
         <v>-0.6992496606827334</v>
       </c>
       <c r="J2" t="n">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="K2" t="n">
         <v>228</v>
@@ -23068,28 +23136,28 @@
         <v>0.1136</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.3671780869974857</v>
+        <v>-0.3691788831413351</v>
       </c>
       <c r="J3" t="n">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="K3" t="n">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0564148683681629</v>
+        <v>0.05734492903333754</v>
       </c>
       <c r="M3" t="n">
-        <v>8.182089705925668</v>
+        <v>8.166174918103021</v>
       </c>
       <c r="N3" t="n">
-        <v>125.94550252415</v>
+        <v>125.5398682389436</v>
       </c>
       <c r="O3" t="n">
-        <v>11.22254438726575</v>
+        <v>11.2044575164951</v>
       </c>
       <c r="P3" t="n">
-        <v>330.5356492259976</v>
+        <v>330.5551430515439</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -23146,28 +23214,28 @@
         <v>0.117</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.319732041115816</v>
+        <v>-0.3179005387207577</v>
       </c>
       <c r="J4" t="n">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="K4" t="n">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="L4" t="n">
-        <v>0.04940209243771709</v>
+        <v>0.0491797117234728</v>
       </c>
       <c r="M4" t="n">
-        <v>7.290426099303807</v>
+        <v>7.272893225911085</v>
       </c>
       <c r="N4" t="n">
-        <v>110.989156327941</v>
+        <v>110.6240487490017</v>
       </c>
       <c r="O4" t="n">
-        <v>10.53513912238187</v>
+        <v>10.5177967630584</v>
       </c>
       <c r="P4" t="n">
-        <v>333.8493855934391</v>
+        <v>333.8317983428288</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -23224,28 +23292,28 @@
         <v>0.189</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.7244558846234339</v>
+        <v>-0.7278367291064478</v>
       </c>
       <c r="J5" t="n">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="K5" t="n">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="L5" t="n">
-        <v>0.2267986327277961</v>
+        <v>0.2294977801131628</v>
       </c>
       <c r="M5" t="n">
-        <v>7.077482887174373</v>
+        <v>7.074374645472883</v>
       </c>
       <c r="N5" t="n">
-        <v>102.0795728881462</v>
+        <v>101.8166188885725</v>
       </c>
       <c r="O5" t="n">
-        <v>10.10344361532969</v>
+        <v>10.09042213629204</v>
       </c>
       <c r="P5" t="n">
-        <v>339.6966917525956</v>
+        <v>339.7288275355875</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -23302,28 +23370,28 @@
         <v>0.1671</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.5294180619990206</v>
+        <v>-0.5307775335592094</v>
       </c>
       <c r="J6" t="n">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="K6" t="n">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="L6" t="n">
-        <v>0.1885370496571466</v>
+        <v>0.1903133092167822</v>
       </c>
       <c r="M6" t="n">
-        <v>5.820937433538217</v>
+        <v>5.809300486294777</v>
       </c>
       <c r="N6" t="n">
-        <v>67.7382741111695</v>
+        <v>67.52105413620909</v>
       </c>
       <c r="O6" t="n">
-        <v>8.230326488734788</v>
+        <v>8.217119576604023</v>
       </c>
       <c r="P6" t="n">
-        <v>346.6510083240589</v>
+        <v>346.6641815128755</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -23380,28 +23448,28 @@
         <v>0.0965</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.5196998225808394</v>
+        <v>-0.5176820408989958</v>
       </c>
       <c r="J7" t="n">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="K7" t="n">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="L7" t="n">
-        <v>0.1631375852659349</v>
+        <v>0.1629167129588072</v>
       </c>
       <c r="M7" t="n">
-        <v>6.538431272548113</v>
+        <v>6.527231546199526</v>
       </c>
       <c r="N7" t="n">
-        <v>76.51730072262512</v>
+        <v>76.29455859890197</v>
       </c>
       <c r="O7" t="n">
-        <v>8.747416802841004</v>
+        <v>8.734675643600166</v>
       </c>
       <c r="P7" t="n">
-        <v>352.8631414459792</v>
+        <v>352.8433992809769</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -23458,28 +23526,28 @@
         <v>0.0979</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.3747082860607202</v>
+        <v>-0.379020128915727</v>
       </c>
       <c r="J8" t="n">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="K8" t="n">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="L8" t="n">
-        <v>0.07814591125580606</v>
+        <v>0.08019383903873667</v>
       </c>
       <c r="M8" t="n">
-        <v>7.33557110880668</v>
+        <v>7.33068183559549</v>
       </c>
       <c r="N8" t="n">
-        <v>92.52155846849922</v>
+        <v>92.3484684035364</v>
       </c>
       <c r="O8" t="n">
-        <v>9.618812736949359</v>
+        <v>9.609811049314986</v>
       </c>
       <c r="P8" t="n">
-        <v>342.6698307295076</v>
+        <v>342.7117211082206</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -23536,28 +23604,28 @@
         <v>0.0859</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.5897216396525881</v>
+        <v>-0.5890910652620458</v>
       </c>
       <c r="J9" t="n">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="K9" t="n">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="L9" t="n">
-        <v>0.1695295195243333</v>
+        <v>0.1701821138046967</v>
       </c>
       <c r="M9" t="n">
-        <v>7.100287257421708</v>
+        <v>7.078745618454484</v>
       </c>
       <c r="N9" t="n">
-        <v>92.90367841367386</v>
+        <v>92.58539988177513</v>
       </c>
       <c r="O9" t="n">
-        <v>9.638655425611701</v>
+        <v>9.62213073501785</v>
       </c>
       <c r="P9" t="n">
-        <v>340.3064013179154</v>
+        <v>340.3001666720338</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -23614,28 +23682,28 @@
         <v>0.0877</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.4287471577173885</v>
+        <v>-0.4341578935558784</v>
       </c>
       <c r="J10" t="n">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="K10" t="n">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0936228930629005</v>
+        <v>0.09607798991615502</v>
       </c>
       <c r="M10" t="n">
-        <v>7.249545577313348</v>
+        <v>7.257886449307188</v>
       </c>
       <c r="N10" t="n">
-        <v>96.54354171405019</v>
+        <v>96.48177997532746</v>
       </c>
       <c r="O10" t="n">
-        <v>9.82565731714933</v>
+        <v>9.822513933577669</v>
       </c>
       <c r="P10" t="n">
-        <v>334.8143079470611</v>
+        <v>334.8686722035374</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -23692,28 +23760,28 @@
         <v>0.1065</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.2369647291024502</v>
+        <v>-0.23765190990532</v>
       </c>
       <c r="J11" t="n">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="K11" t="n">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="L11" t="n">
-        <v>0.04263749323279686</v>
+        <v>0.04313714096306531</v>
       </c>
       <c r="M11" t="n">
-        <v>5.941979977642163</v>
+        <v>5.926148873888145</v>
       </c>
       <c r="N11" t="n">
-        <v>68.69159970041324</v>
+        <v>68.46888975104859</v>
       </c>
       <c r="O11" t="n">
-        <v>8.28803955712165</v>
+        <v>8.274593026309427</v>
       </c>
       <c r="P11" t="n">
-        <v>328.5621687386952</v>
+        <v>328.5689815869808</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -23770,28 +23838,28 @@
         <v>0.1149</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.06224709027037259</v>
+        <v>-0.06243155006853064</v>
       </c>
       <c r="J12" t="n">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="K12" t="n">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="L12" t="n">
-        <v>0.002937341048254272</v>
+        <v>0.002974178932813487</v>
       </c>
       <c r="M12" t="n">
-        <v>6.009565692946269</v>
+        <v>5.990476848393034</v>
       </c>
       <c r="N12" t="n">
-        <v>71.58873396912348</v>
+        <v>71.35038603710396</v>
       </c>
       <c r="O12" t="n">
-        <v>8.461012585330639</v>
+        <v>8.446915770688374</v>
       </c>
       <c r="P12" t="n">
-        <v>324.4440372910991</v>
+        <v>324.4458614682953</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -23848,28 +23916,28 @@
         <v>0.0853</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.2390619652818997</v>
+        <v>-0.2374464590488568</v>
       </c>
       <c r="J13" t="n">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="K13" t="n">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="L13" t="n">
-        <v>0.0366568664153597</v>
+        <v>0.03640452454857879</v>
       </c>
       <c r="M13" t="n">
-        <v>6.586722415135238</v>
+        <v>6.572420994008313</v>
       </c>
       <c r="N13" t="n">
-        <v>82.3734162486342</v>
+        <v>82.12126321339713</v>
       </c>
       <c r="O13" t="n">
-        <v>9.075980181150364</v>
+        <v>9.062078305410802</v>
       </c>
       <c r="P13" t="n">
-        <v>318.7626861255854</v>
+        <v>318.7468632012865</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -23926,28 +23994,28 @@
         <v>0.0832</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.2955733156932151</v>
+        <v>-0.2935151004941873</v>
       </c>
       <c r="J14" t="n">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="K14" t="n">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="L14" t="n">
-        <v>0.06560666836866436</v>
+        <v>0.06511938718353205</v>
       </c>
       <c r="M14" t="n">
-        <v>6.208632705412872</v>
+        <v>6.197125847632956</v>
       </c>
       <c r="N14" t="n">
-        <v>69.58287682520914</v>
+        <v>69.38411441004557</v>
       </c>
       <c r="O14" t="n">
-        <v>8.341635140978605</v>
+        <v>8.329712744749699</v>
       </c>
       <c r="P14" t="n">
-        <v>326.2171979287559</v>
+        <v>326.1971597470866</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -24004,28 +24072,28 @@
         <v>0.0994</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.3701772877201995</v>
+        <v>-0.3649978111176767</v>
       </c>
       <c r="J15" t="n">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="K15" t="n">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="L15" t="n">
-        <v>0.05257030794524764</v>
+        <v>0.05142798263530712</v>
       </c>
       <c r="M15" t="n">
-        <v>9.043718348199913</v>
+        <v>9.035531311676202</v>
       </c>
       <c r="N15" t="n">
-        <v>137.2879219658624</v>
+        <v>137.0388840801565</v>
       </c>
       <c r="O15" t="n">
-        <v>11.71699287214353</v>
+        <v>11.70636083845686</v>
       </c>
       <c r="P15" t="n">
-        <v>312.6462592306768</v>
+        <v>312.5955683824008</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -24082,28 +24150,28 @@
         <v>0.1419</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.3547125049006701</v>
+        <v>-0.351240498112153</v>
       </c>
       <c r="J16" t="n">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="K16" t="n">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="L16" t="n">
-        <v>0.05782203265759445</v>
+        <v>0.05710109862152102</v>
       </c>
       <c r="M16" t="n">
-        <v>7.487278773034779</v>
+        <v>7.478597957277321</v>
       </c>
       <c r="N16" t="n">
-        <v>115.7621250733608</v>
+        <v>115.440478061875</v>
       </c>
       <c r="O16" t="n">
-        <v>10.75928088086563</v>
+        <v>10.74432306205817</v>
       </c>
       <c r="P16" t="n">
-        <v>319.6540288991768</v>
+        <v>319.6207972726615</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -24160,28 +24228,28 @@
         <v>0.1147</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.432680859482062</v>
+        <v>-0.430693227085791</v>
       </c>
       <c r="J17" t="n">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="K17" t="n">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="L17" t="n">
-        <v>0.07026635667604775</v>
+        <v>0.0701197566431434</v>
       </c>
       <c r="M17" t="n">
-        <v>8.844883552612966</v>
+        <v>8.822981226449429</v>
       </c>
       <c r="N17" t="n">
-        <v>139.6988936233006</v>
+        <v>139.2255729585256</v>
       </c>
       <c r="O17" t="n">
-        <v>11.8194286504594</v>
+        <v>11.79938866884745</v>
       </c>
       <c r="P17" t="n">
-        <v>324.3482453748341</v>
+        <v>324.3291847478942</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -24219,7 +24287,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R341"/>
+  <dimension ref="A1:R342"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -52159,6 +52227,94 @@
         </is>
       </c>
     </row>
+    <row r="342">
+      <c r="A342" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-15 22:06:04+00:00</t>
+        </is>
+      </c>
+      <c r="B342" t="inlineStr"/>
+      <c r="C342" t="inlineStr">
+        <is>
+          <t>-38.794526615159306,174.5920416628022</t>
+        </is>
+      </c>
+      <c r="D342" t="inlineStr">
+        <is>
+          <t>-38.79382480693711,174.5921321523054</t>
+        </is>
+      </c>
+      <c r="E342" t="inlineStr">
+        <is>
+          <t>-38.793168229035885,174.59247967290074</t>
+        </is>
+      </c>
+      <c r="F342" t="inlineStr">
+        <is>
+          <t>-38.79245732726452,174.59251856892007</t>
+        </is>
+      </c>
+      <c r="G342" t="inlineStr">
+        <is>
+          <t>-38.79175098349602,174.59259410803665</t>
+        </is>
+      </c>
+      <c r="H342" t="inlineStr">
+        <is>
+          <t>-38.79109045911581,174.59295917908045</t>
+        </is>
+      </c>
+      <c r="I342" t="inlineStr">
+        <is>
+          <t>-38.790403773375566,174.59313868149914</t>
+        </is>
+      </c>
+      <c r="J342" t="inlineStr">
+        <is>
+          <t>-38.789735833411896,174.59344173568948</t>
+        </is>
+      </c>
+      <c r="K342" t="inlineStr">
+        <is>
+          <t>-38.78903859318991,174.59354551412932</t>
+        </is>
+      </c>
+      <c r="L342" t="inlineStr">
+        <is>
+          <t>-38.78835007156022,174.59370864761965</t>
+        </is>
+      </c>
+      <c r="M342" t="inlineStr">
+        <is>
+          <t>-38.78769806898552,174.59396098389826</t>
+        </is>
+      </c>
+      <c r="N342" t="inlineStr">
+        <is>
+          <t>-38.78704180350021,174.5941617781207</t>
+        </is>
+      </c>
+      <c r="O342" t="inlineStr">
+        <is>
+          <t>-38.78641798360278,174.59458111221042</t>
+        </is>
+      </c>
+      <c r="P342" t="inlineStr">
+        <is>
+          <t>-38.78574616463331,174.59483762834222</t>
+        </is>
+      </c>
+      <c r="Q342" t="inlineStr">
+        <is>
+          <t>-38.785086064186295,174.5951372541755</t>
+        </is>
+      </c>
+      <c r="R342" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0273/nzd0273.xlsx
+++ b/data/nzd0273/nzd0273.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R342"/>
+  <dimension ref="A1:R343"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19214,7 +19214,9 @@
           <t>2025-06-15 22:06:04+00:00</t>
         </is>
       </c>
-      <c r="B342" t="inlineStr"/>
+      <c r="B342" t="n">
+        <v>425.3477777777778</v>
+      </c>
       <c r="C342" t="n">
         <v>318.0638095238095</v>
       </c>
@@ -19263,6 +19265,66 @@
       <c r="R342" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-25 22:06:18+00:00</t>
+        </is>
+      </c>
+      <c r="B343" t="n">
+        <v>441.1577777777778</v>
+      </c>
+      <c r="C343" t="n">
+        <v>327.5538095238095</v>
+      </c>
+      <c r="D343" t="n">
+        <v>324.6138095238095</v>
+      </c>
+      <c r="E343" t="n">
+        <v>323.4560606060606</v>
+      </c>
+      <c r="F343" t="n">
+        <v>341.1231034482759</v>
+      </c>
+      <c r="G343" t="n">
+        <v>348.7658823529412</v>
+      </c>
+      <c r="H343" t="n">
+        <v>343.0858823529412</v>
+      </c>
+      <c r="I343" t="n">
+        <v>335.3833333333333</v>
+      </c>
+      <c r="J343" t="n">
+        <v>333.47</v>
+      </c>
+      <c r="K343" t="n">
+        <v>330.32</v>
+      </c>
+      <c r="L343" t="n">
+        <v>332.2038095238095</v>
+      </c>
+      <c r="M343" t="n">
+        <v>319.41</v>
+      </c>
+      <c r="N343" t="n">
+        <v>326.87</v>
+      </c>
+      <c r="O343" t="n">
+        <v>309.0277777777778</v>
+      </c>
+      <c r="P343" t="n">
+        <v>313.8433333333333</v>
+      </c>
+      <c r="Q343" t="n">
+        <v>317.0473684210526</v>
+      </c>
+      <c r="R343" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>
@@ -19277,7 +19339,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B360"/>
+  <dimension ref="A1:B361"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22885,6 +22947,16 @@
       </c>
       <c r="B360" t="n">
         <v>0.16</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>2025-07-25 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B361" t="n">
+        <v>1.42</v>
       </c>
     </row>
   </sheetData>
@@ -23058,28 +23130,28 @@
         <v>0.101</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.6992496606827334</v>
+        <v>-0.5371197031700623</v>
       </c>
       <c r="J2" t="n">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="K2" t="n">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="L2" t="n">
-        <v>0.05639541135997084</v>
+        <v>0.02909301092437033</v>
       </c>
       <c r="M2" t="n">
-        <v>12.33740822309281</v>
+        <v>13.31008386749954</v>
       </c>
       <c r="N2" t="n">
-        <v>452.0809870531332</v>
+        <v>536.2190189644309</v>
       </c>
       <c r="O2" t="n">
-        <v>21.26219619543412</v>
+        <v>23.15640341167926</v>
       </c>
       <c r="P2" t="n">
-        <v>349.5315794572817</v>
+        <v>347.9255107879592</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -23136,28 +23208,28 @@
         <v>0.1136</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.3691788831413351</v>
+        <v>-0.3650124365256556</v>
       </c>
       <c r="J3" t="n">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="K3" t="n">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="L3" t="n">
-        <v>0.05734492903333754</v>
+        <v>0.05642953122748307</v>
       </c>
       <c r="M3" t="n">
-        <v>8.166174918103021</v>
+        <v>8.156330384997567</v>
       </c>
       <c r="N3" t="n">
-        <v>125.5398682389436</v>
+        <v>125.2473591562539</v>
       </c>
       <c r="O3" t="n">
-        <v>11.2044575164951</v>
+        <v>11.19139665798036</v>
       </c>
       <c r="P3" t="n">
-        <v>330.5551430515439</v>
+        <v>330.5143139759678</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -23214,28 +23286,28 @@
         <v>0.117</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.3179005387207577</v>
+        <v>-0.3186054670964187</v>
       </c>
       <c r="J4" t="n">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="K4" t="n">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0491797117234728</v>
+        <v>0.04971688770253302</v>
       </c>
       <c r="M4" t="n">
-        <v>7.272893225911085</v>
+        <v>7.251633141111234</v>
       </c>
       <c r="N4" t="n">
-        <v>110.6240487490017</v>
+        <v>110.2385267251947</v>
       </c>
       <c r="O4" t="n">
-        <v>10.5177967630584</v>
+        <v>10.49945363936594</v>
       </c>
       <c r="P4" t="n">
-        <v>333.8317983428288</v>
+        <v>333.8386064175762</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -23292,28 +23364,28 @@
         <v>0.189</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.7278367291064478</v>
+        <v>-0.7262936707076969</v>
       </c>
       <c r="J5" t="n">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="K5" t="n">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="L5" t="n">
-        <v>0.2294977801131628</v>
+        <v>0.2299486674414112</v>
       </c>
       <c r="M5" t="n">
-        <v>7.074374645472883</v>
+        <v>7.056328467618993</v>
       </c>
       <c r="N5" t="n">
-        <v>101.8166188885725</v>
+        <v>101.4813713828815</v>
       </c>
       <c r="O5" t="n">
-        <v>10.09042213629204</v>
+        <v>10.07379627463656</v>
       </c>
       <c r="P5" t="n">
-        <v>339.7288275355875</v>
+        <v>339.7140755077755</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -23370,28 +23442,28 @@
         <v>0.1671</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.5307775335592094</v>
+        <v>-0.525651686158745</v>
       </c>
       <c r="J6" t="n">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="K6" t="n">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="L6" t="n">
-        <v>0.1903133092167822</v>
+        <v>0.1878664886108193</v>
       </c>
       <c r="M6" t="n">
-        <v>5.809300486294777</v>
+        <v>5.812918189960538</v>
       </c>
       <c r="N6" t="n">
-        <v>67.52105413620909</v>
+        <v>67.51009159528857</v>
       </c>
       <c r="O6" t="n">
-        <v>8.217119576604023</v>
+        <v>8.216452494555577</v>
       </c>
       <c r="P6" t="n">
-        <v>346.6641815128755</v>
+        <v>346.6142242356128</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -23448,28 +23520,28 @@
         <v>0.0965</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.5176820408989958</v>
+        <v>-0.5118858587611085</v>
       </c>
       <c r="J7" t="n">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="K7" t="n">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="L7" t="n">
-        <v>0.1629167129588072</v>
+        <v>0.1602706689558038</v>
       </c>
       <c r="M7" t="n">
-        <v>6.527231546199526</v>
+        <v>6.536399804749185</v>
       </c>
       <c r="N7" t="n">
-        <v>76.29455859890197</v>
+        <v>76.31896583781645</v>
       </c>
       <c r="O7" t="n">
-        <v>8.734675643600166</v>
+        <v>8.736072678144136</v>
       </c>
       <c r="P7" t="n">
-        <v>352.8433992809769</v>
+        <v>352.7863677510714</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -23526,28 +23598,28 @@
         <v>0.0979</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.379020128915727</v>
+        <v>-0.372435984426866</v>
       </c>
       <c r="J8" t="n">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="K8" t="n">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="L8" t="n">
-        <v>0.08019383903873667</v>
+        <v>0.07786732867882107</v>
       </c>
       <c r="M8" t="n">
-        <v>7.33068183559549</v>
+        <v>7.343630455966711</v>
       </c>
       <c r="N8" t="n">
-        <v>92.3484684035364</v>
+        <v>92.37765323033851</v>
       </c>
       <c r="O8" t="n">
-        <v>9.609811049314986</v>
+        <v>9.611329420550442</v>
       </c>
       <c r="P8" t="n">
-        <v>342.7117211082206</v>
+        <v>342.6473869583733</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -23604,28 +23676,28 @@
         <v>0.0859</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.5890910652620458</v>
+        <v>-0.582435937537178</v>
       </c>
       <c r="J9" t="n">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="K9" t="n">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="L9" t="n">
-        <v>0.1701821138046967</v>
+        <v>0.1674186308415263</v>
       </c>
       <c r="M9" t="n">
-        <v>7.078745618454484</v>
+        <v>7.086101776376492</v>
       </c>
       <c r="N9" t="n">
-        <v>92.58539988177513</v>
+        <v>92.61978581357731</v>
       </c>
       <c r="O9" t="n">
-        <v>9.62213073501785</v>
+        <v>9.623917383975057</v>
       </c>
       <c r="P9" t="n">
-        <v>340.3001666720338</v>
+        <v>340.2339963854374</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -23682,28 +23754,28 @@
         <v>0.0877</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.4341578935558784</v>
+        <v>-0.4282126190359588</v>
       </c>
       <c r="J10" t="n">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="K10" t="n">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="L10" t="n">
-        <v>0.09607798991615502</v>
+        <v>0.09396770147023326</v>
       </c>
       <c r="M10" t="n">
-        <v>7.257886449307188</v>
+        <v>7.262420853832413</v>
       </c>
       <c r="N10" t="n">
-        <v>96.48177997532746</v>
+        <v>96.47269675983577</v>
       </c>
       <c r="O10" t="n">
-        <v>9.822513933577669</v>
+        <v>9.822051555547638</v>
       </c>
       <c r="P10" t="n">
-        <v>334.8686722035374</v>
+        <v>334.8085911092322</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -23760,28 +23832,28 @@
         <v>0.1065</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.23765190990532</v>
+        <v>-0.2327743641184414</v>
       </c>
       <c r="J11" t="n">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="K11" t="n">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="L11" t="n">
-        <v>0.04313714096306531</v>
+        <v>0.041599029383388</v>
       </c>
       <c r="M11" t="n">
-        <v>5.926148873888145</v>
+        <v>5.931276037372108</v>
       </c>
       <c r="N11" t="n">
-        <v>68.46888975104859</v>
+        <v>68.44394244906842</v>
       </c>
       <c r="O11" t="n">
-        <v>8.274593026309427</v>
+        <v>8.273085424983137</v>
       </c>
       <c r="P11" t="n">
-        <v>328.5689815869808</v>
+        <v>328.5203519566055</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -23838,28 +23910,28 @@
         <v>0.1149</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.06243155006853064</v>
+        <v>-0.05651443265543791</v>
       </c>
       <c r="J12" t="n">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="K12" t="n">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="L12" t="n">
-        <v>0.002974178932813487</v>
+        <v>0.002444754535251947</v>
       </c>
       <c r="M12" t="n">
-        <v>5.990476848393034</v>
+        <v>6.002314018576913</v>
       </c>
       <c r="N12" t="n">
-        <v>71.35038603710396</v>
+        <v>71.40138403838812</v>
       </c>
       <c r="O12" t="n">
-        <v>8.446915770688374</v>
+        <v>8.449933966510514</v>
       </c>
       <c r="P12" t="n">
-        <v>324.4458614682953</v>
+        <v>324.3870186657985</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -23916,28 +23988,28 @@
         <v>0.0853</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.2374464590488568</v>
+        <v>-0.2331820862602067</v>
       </c>
       <c r="J13" t="n">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="K13" t="n">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="L13" t="n">
-        <v>0.03640452454857879</v>
+        <v>0.035320173944138</v>
       </c>
       <c r="M13" t="n">
-        <v>6.572420994008313</v>
+        <v>6.570536696172542</v>
       </c>
       <c r="N13" t="n">
-        <v>82.12126321339713</v>
+        <v>81.99861528321657</v>
       </c>
       <c r="O13" t="n">
-        <v>9.062078305410802</v>
+        <v>9.055308679620843</v>
       </c>
       <c r="P13" t="n">
-        <v>318.7468632012865</v>
+        <v>318.7048638928639</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -23994,28 +24066,28 @@
         <v>0.0832</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.2935151004941873</v>
+        <v>-0.2883933574946824</v>
       </c>
       <c r="J14" t="n">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="K14" t="n">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="L14" t="n">
-        <v>0.06511938718353205</v>
+        <v>0.06320608246936321</v>
       </c>
       <c r="M14" t="n">
-        <v>6.197125847632956</v>
+        <v>6.199513593458586</v>
       </c>
       <c r="N14" t="n">
-        <v>69.38411441004557</v>
+        <v>69.37435627149513</v>
       </c>
       <c r="O14" t="n">
-        <v>8.329712744749699</v>
+        <v>8.329126981352555</v>
       </c>
       <c r="P14" t="n">
-        <v>326.1971597470866</v>
+        <v>326.147006561853</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -24072,28 +24144,28 @@
         <v>0.0994</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.3649978111176767</v>
+        <v>-0.3612999747136145</v>
       </c>
       <c r="J15" t="n">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="K15" t="n">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="L15" t="n">
-        <v>0.05142798263530712</v>
+        <v>0.05072506924622955</v>
       </c>
       <c r="M15" t="n">
-        <v>9.035531311676202</v>
+        <v>9.020651508045763</v>
       </c>
       <c r="N15" t="n">
-        <v>137.0388840801565</v>
+        <v>136.6818336059337</v>
       </c>
       <c r="O15" t="n">
-        <v>11.70636083845686</v>
+        <v>11.69110061567917</v>
       </c>
       <c r="P15" t="n">
-        <v>312.5955683824008</v>
+        <v>312.5591688226253</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -24150,28 +24222,28 @@
         <v>0.1419</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.351240498112153</v>
+        <v>-0.3490728311250273</v>
       </c>
       <c r="J16" t="n">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="K16" t="n">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="L16" t="n">
-        <v>0.05710109862152102</v>
+        <v>0.05680707068546753</v>
       </c>
       <c r="M16" t="n">
-        <v>7.478597957277321</v>
+        <v>7.463030378274326</v>
       </c>
       <c r="N16" t="n">
-        <v>115.440478061875</v>
+        <v>115.0635563062421</v>
       </c>
       <c r="O16" t="n">
-        <v>10.74432306205817</v>
+        <v>10.72676821350411</v>
       </c>
       <c r="P16" t="n">
-        <v>319.6207972726615</v>
+        <v>319.5999313572789</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -24228,28 +24300,28 @@
         <v>0.1147</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.430693227085791</v>
+        <v>-0.4281614486213497</v>
       </c>
       <c r="J17" t="n">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="K17" t="n">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="L17" t="n">
-        <v>0.0701197566431434</v>
+        <v>0.06979941799274214</v>
       </c>
       <c r="M17" t="n">
-        <v>8.822981226449429</v>
+        <v>8.803835222218929</v>
       </c>
       <c r="N17" t="n">
-        <v>139.2255729585256</v>
+        <v>138.7749412526307</v>
       </c>
       <c r="O17" t="n">
-        <v>11.79938866884745</v>
+        <v>11.78027763903002</v>
       </c>
       <c r="P17" t="n">
-        <v>324.3291847478942</v>
+        <v>324.3047670932751</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -24287,7 +24359,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R342"/>
+  <dimension ref="A1:R343"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -52233,7 +52305,11 @@
           <t>2025-06-15 22:06:04+00:00</t>
         </is>
       </c>
-      <c r="B342" t="inlineStr"/>
+      <c r="B342" t="inlineStr">
+        <is>
+          <t>-38.794995753616405,174.5906292309875</t>
+        </is>
+      </c>
       <c r="C342" t="inlineStr">
         <is>
           <t>-38.794526615159306,174.5920416628022</t>
@@ -52312,6 +52388,98 @@
       <c r="R342" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-25 22:06:18+00:00</t>
+        </is>
+      </c>
+      <c r="B343" t="inlineStr">
+        <is>
+          <t>-38.79496449845687,174.59045165289322</t>
+        </is>
+      </c>
+      <c r="C343" t="inlineStr">
+        <is>
+          <t>-38.7945078554094,174.59193507139466</t>
+        </is>
+      </c>
+      <c r="D343" t="inlineStr">
+        <is>
+          <t>-38.79383243732398,174.59217550730324</t>
+        </is>
+      </c>
+      <c r="E343" t="inlineStr">
+        <is>
+          <t>-38.793153489553966,174.5923959247816</t>
+        </is>
+      </c>
+      <c r="F343" t="inlineStr">
+        <is>
+          <t>-38.792437323013175,174.59240490849112</t>
+        </is>
+      </c>
+      <c r="G343" t="inlineStr">
+        <is>
+          <t>-38.79174001298289,174.5925269018946</t>
+        </is>
+      </c>
+      <c r="H343" t="inlineStr">
+        <is>
+          <t>-38.791062556115776,174.59277162913727</t>
+        </is>
+      </c>
+      <c r="I343" t="inlineStr">
+        <is>
+          <t>-38.79038853873152,174.5930350453789</t>
+        </is>
+      </c>
+      <c r="J343" t="inlineStr">
+        <is>
+          <t>-38.789705131586466,174.5932328814049</t>
+        </is>
+      </c>
+      <c r="K343" t="inlineStr">
+        <is>
+          <t>-38.789023774553684,174.5934447083892</t>
+        </is>
+      </c>
+      <c r="L343" t="inlineStr">
+        <is>
+          <t>-38.788334038900764,174.59359958386102</t>
+        </is>
+      </c>
+      <c r="M343" t="inlineStr">
+        <is>
+          <t>-38.78768878356505,174.59391423299493</t>
+        </is>
+      </c>
+      <c r="N343" t="inlineStr">
+        <is>
+          <t>-38.787027792104276,174.59410828907568</t>
+        </is>
+      </c>
+      <c r="O343" t="inlineStr">
+        <is>
+          <t>-38.78642472615163,174.59460590361238</t>
+        </is>
+      </c>
+      <c r="P343" t="inlineStr">
+        <is>
+          <t>-38.78575184254572,174.59485850512505</t>
+        </is>
+      </c>
+      <c r="Q343" t="inlineStr">
+        <is>
+          <t>-38.785083718635235,174.59512862998787</t>
+        </is>
+      </c>
+      <c r="R343" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>

--- a/data/nzd0273/nzd0273.xlsx
+++ b/data/nzd0273/nzd0273.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R343"/>
+  <dimension ref="A1:R346"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19214,9 +19214,7 @@
           <t>2025-06-15 22:06:04+00:00</t>
         </is>
       </c>
-      <c r="B342" t="n">
-        <v>425.3477777777778</v>
-      </c>
+      <c r="B342" t="inlineStr"/>
       <c r="C342" t="n">
         <v>318.0638095238095</v>
       </c>
@@ -19274,9 +19272,7 @@
           <t>2025-07-25 22:06:18+00:00</t>
         </is>
       </c>
-      <c r="B343" t="n">
-        <v>441.1577777777778</v>
-      </c>
+      <c r="B343" t="inlineStr"/>
       <c r="C343" t="n">
         <v>327.5538095238095</v>
       </c>
@@ -19323,6 +19319,186 @@
         <v>317.0473684210526</v>
       </c>
       <c r="R343" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-02 22:06:21+00:00</t>
+        </is>
+      </c>
+      <c r="B344" t="n">
+        <v>337.1155555555555</v>
+      </c>
+      <c r="C344" t="n">
+        <v>313.6019047619047</v>
+      </c>
+      <c r="D344" t="n">
+        <v>329.8319047619048</v>
+      </c>
+      <c r="E344" t="n">
+        <v>314.3139393939394</v>
+      </c>
+      <c r="F344" t="n">
+        <v>325.7386206896552</v>
+      </c>
+      <c r="G344" t="n">
+        <v>333.6488235294117</v>
+      </c>
+      <c r="H344" t="n">
+        <v>322.3888235294117</v>
+      </c>
+      <c r="I344" t="n">
+        <v>323.9666666666667</v>
+      </c>
+      <c r="J344" t="n">
+        <v>314.99</v>
+      </c>
+      <c r="K344" t="n">
+        <v>315.55</v>
+      </c>
+      <c r="L344" t="n">
+        <v>316.5819047619048</v>
+      </c>
+      <c r="M344" t="n">
+        <v>304.88</v>
+      </c>
+      <c r="N344" t="n">
+        <v>315.34</v>
+      </c>
+      <c r="O344" t="n">
+        <v>292.4355555555555</v>
+      </c>
+      <c r="P344" t="n">
+        <v>313.1466666666667</v>
+      </c>
+      <c r="Q344" t="n">
+        <v>308.9</v>
+      </c>
+      <c r="R344" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-10 22:06:28+00:00</t>
+        </is>
+      </c>
+      <c r="B345" t="n">
+        <v>338.4422222222223</v>
+      </c>
+      <c r="C345" t="n">
+        <v>330.0147619047619</v>
+      </c>
+      <c r="D345" t="n">
+        <v>326.0147619047619</v>
+      </c>
+      <c r="E345" t="n">
+        <v>326.9584848484849</v>
+      </c>
+      <c r="F345" t="n">
+        <v>341.2489655172414</v>
+      </c>
+      <c r="G345" t="n">
+        <v>344.3264705882353</v>
+      </c>
+      <c r="H345" t="n">
+        <v>342.2364705882353</v>
+      </c>
+      <c r="I345" t="n">
+        <v>334.5166666666667</v>
+      </c>
+      <c r="J345" t="n">
+        <v>333.28</v>
+      </c>
+      <c r="K345" t="n">
+        <v>329.21</v>
+      </c>
+      <c r="L345" t="n">
+        <v>331.524761904762</v>
+      </c>
+      <c r="M345" t="n">
+        <v>314.06</v>
+      </c>
+      <c r="N345" t="n">
+        <v>326.79</v>
+      </c>
+      <c r="O345" t="n">
+        <v>309.0122222222222</v>
+      </c>
+      <c r="P345" t="n">
+        <v>307.4266666666667</v>
+      </c>
+      <c r="Q345" t="n">
+        <v>311.7184210526316</v>
+      </c>
+      <c r="R345" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-26 22:06:33+00:00</t>
+        </is>
+      </c>
+      <c r="B346" t="n">
+        <v>333.6155555555555</v>
+      </c>
+      <c r="C346" t="n">
+        <v>324.7333333333333</v>
+      </c>
+      <c r="D346" t="n">
+        <v>319.9433333333333</v>
+      </c>
+      <c r="E346" t="n">
+        <v>323.6666666666667</v>
+      </c>
+      <c r="F346" t="n">
+        <v>336.1703448275862</v>
+      </c>
+      <c r="G346" t="n">
+        <v>336.1688235294118</v>
+      </c>
+      <c r="H346" t="n">
+        <v>337.8088235294118</v>
+      </c>
+      <c r="I346" t="n">
+        <v>326.4766666666666</v>
+      </c>
+      <c r="J346" t="n">
+        <v>324.825</v>
+      </c>
+      <c r="K346" t="n">
+        <v>321.76</v>
+      </c>
+      <c r="L346" t="n">
+        <v>324.0633333333333</v>
+      </c>
+      <c r="M346" t="n">
+        <v>306.225</v>
+      </c>
+      <c r="N346" t="n">
+        <v>317.785</v>
+      </c>
+      <c r="O346" t="n">
+        <v>310.9655555555556</v>
+      </c>
+      <c r="P346" t="n">
+        <v>319.5766666666667</v>
+      </c>
+      <c r="Q346" t="n">
+        <v>317.1652631578947</v>
+      </c>
+      <c r="R346" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -19339,7 +19515,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B361"/>
+  <dimension ref="A1:B364"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22957,6 +23133,36 @@
       </c>
       <c r="B361" t="n">
         <v>1.42</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>2025-08-02 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B362" t="n">
+        <v>-0.76</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>2025-08-10 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B363" t="n">
+        <v>1.46</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>2025-08-26 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B364" t="n">
+        <v>0.77</v>
       </c>
     </row>
   </sheetData>
@@ -23130,28 +23336,28 @@
         <v>0.101</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.5371197031700623</v>
+        <v>-0.6877722252005088</v>
       </c>
       <c r="J2" t="n">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="K2" t="n">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L2" t="n">
-        <v>0.02909301092437033</v>
+        <v>0.05593367326927778</v>
       </c>
       <c r="M2" t="n">
-        <v>13.31008386749954</v>
+        <v>12.24258667291463</v>
       </c>
       <c r="N2" t="n">
-        <v>536.2190189644309</v>
+        <v>446.552557922489</v>
       </c>
       <c r="O2" t="n">
-        <v>23.15640341167926</v>
+        <v>21.13179022048272</v>
       </c>
       <c r="P2" t="n">
-        <v>347.9255107879592</v>
+        <v>349.4173410105494</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -23208,28 +23414,28 @@
         <v>0.1136</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.3650124365256556</v>
+        <v>-0.3618983544847729</v>
       </c>
       <c r="J3" t="n">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="K3" t="n">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="L3" t="n">
-        <v>0.05642953122748307</v>
+        <v>0.05636318090806325</v>
       </c>
       <c r="M3" t="n">
-        <v>8.156330384997567</v>
+        <v>8.138003102293005</v>
       </c>
       <c r="N3" t="n">
-        <v>125.2473591562539</v>
+        <v>124.4662696774346</v>
       </c>
       <c r="O3" t="n">
-        <v>11.19139665798036</v>
+        <v>11.15644520792508</v>
       </c>
       <c r="P3" t="n">
-        <v>330.5143139759678</v>
+        <v>330.4836208466688</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -23286,28 +23492,28 @@
         <v>0.117</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.3186054670964187</v>
+        <v>-0.3193836811705361</v>
       </c>
       <c r="J4" t="n">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="K4" t="n">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="L4" t="n">
-        <v>0.04971688770253302</v>
+        <v>0.05086337786874551</v>
       </c>
       <c r="M4" t="n">
-        <v>7.251633141111234</v>
+        <v>7.212123474057428</v>
       </c>
       <c r="N4" t="n">
-        <v>110.2385267251947</v>
+        <v>109.2603486017295</v>
       </c>
       <c r="O4" t="n">
-        <v>10.49945363936594</v>
+        <v>10.45276750921637</v>
       </c>
       <c r="P4" t="n">
-        <v>333.8386064175762</v>
+        <v>333.8462519358764</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -23364,28 +23570,28 @@
         <v>0.189</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.7262936707076969</v>
+        <v>-0.7251763094564552</v>
       </c>
       <c r="J5" t="n">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="K5" t="n">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="L5" t="n">
-        <v>0.2299486674414112</v>
+        <v>0.2325266789366287</v>
       </c>
       <c r="M5" t="n">
-        <v>7.056328467618993</v>
+        <v>7.034843831189055</v>
       </c>
       <c r="N5" t="n">
-        <v>101.4813713828815</v>
+        <v>100.7329814621663</v>
       </c>
       <c r="O5" t="n">
-        <v>10.07379627463656</v>
+        <v>10.03658216038539</v>
       </c>
       <c r="P5" t="n">
-        <v>339.7140755077755</v>
+        <v>339.7032834022412</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -23442,28 +23648,28 @@
         <v>0.1671</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.525651686158745</v>
+        <v>-0.5232748232171124</v>
       </c>
       <c r="J6" t="n">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="K6" t="n">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="L6" t="n">
-        <v>0.1878664886108193</v>
+        <v>0.1885042220874369</v>
       </c>
       <c r="M6" t="n">
-        <v>5.812918189960538</v>
+        <v>5.814907529463188</v>
       </c>
       <c r="N6" t="n">
-        <v>67.51009159528857</v>
+        <v>67.26433130635702</v>
       </c>
       <c r="O6" t="n">
-        <v>8.216452494555577</v>
+        <v>8.201483482051099</v>
       </c>
       <c r="P6" t="n">
-        <v>346.6142242356128</v>
+        <v>346.5909096673914</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -23520,28 +23726,28 @@
         <v>0.0965</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.5118858587611085</v>
+        <v>-0.5148284326433004</v>
       </c>
       <c r="J7" t="n">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="K7" t="n">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="L7" t="n">
-        <v>0.1602706689558038</v>
+        <v>0.1640825329580788</v>
       </c>
       <c r="M7" t="n">
-        <v>6.536399804749185</v>
+        <v>6.517828083859666</v>
       </c>
       <c r="N7" t="n">
-        <v>76.31896583781645</v>
+        <v>75.7916991030387</v>
       </c>
       <c r="O7" t="n">
-        <v>8.736072678144136</v>
+        <v>8.705842814055323</v>
       </c>
       <c r="P7" t="n">
-        <v>352.7863677510714</v>
+        <v>352.8153920629153</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -23598,28 +23804,28 @@
         <v>0.0979</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.372435984426866</v>
+        <v>-0.3703869157240927</v>
       </c>
       <c r="J8" t="n">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="K8" t="n">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="L8" t="n">
-        <v>0.07786732867882107</v>
+        <v>0.07793794418181088</v>
       </c>
       <c r="M8" t="n">
-        <v>7.343630455966711</v>
+        <v>7.353483644734904</v>
       </c>
       <c r="N8" t="n">
-        <v>92.37765323033851</v>
+        <v>92.18233123991878</v>
       </c>
       <c r="O8" t="n">
-        <v>9.611329420550442</v>
+        <v>9.601163014964321</v>
       </c>
       <c r="P8" t="n">
-        <v>342.6473869583733</v>
+        <v>342.627173374027</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -23676,28 +23882,28 @@
         <v>0.0859</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.582435937537178</v>
+        <v>-0.5766203612055631</v>
       </c>
       <c r="J9" t="n">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="K9" t="n">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="L9" t="n">
-        <v>0.1674186308415263</v>
+        <v>0.1669829855374565</v>
       </c>
       <c r="M9" t="n">
-        <v>7.086101776376492</v>
+        <v>7.051302999886757</v>
       </c>
       <c r="N9" t="n">
-        <v>92.61978581357731</v>
+        <v>91.97072066597306</v>
       </c>
       <c r="O9" t="n">
-        <v>9.623917383975057</v>
+        <v>9.590136634374563</v>
       </c>
       <c r="P9" t="n">
-        <v>340.2339963854374</v>
+        <v>340.1760184492384</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -23754,28 +23960,28 @@
         <v>0.0877</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.4282126190359588</v>
+        <v>-0.4272106673609443</v>
       </c>
       <c r="J10" t="n">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="K10" t="n">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="L10" t="n">
-        <v>0.09396770147023326</v>
+        <v>0.09465139699493319</v>
       </c>
       <c r="M10" t="n">
-        <v>7.262420853832413</v>
+        <v>7.253767095306355</v>
       </c>
       <c r="N10" t="n">
-        <v>96.47269675983577</v>
+        <v>96.07934958548033</v>
       </c>
       <c r="O10" t="n">
-        <v>9.822051555547638</v>
+        <v>9.802007426312242</v>
       </c>
       <c r="P10" t="n">
-        <v>334.8085911092322</v>
+        <v>334.7983655496278</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -23832,28 +24038,28 @@
         <v>0.1065</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.2327743641184414</v>
+        <v>-0.2334408755930909</v>
       </c>
       <c r="J11" t="n">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="K11" t="n">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="L11" t="n">
-        <v>0.041599029383388</v>
+        <v>0.04241894279941283</v>
       </c>
       <c r="M11" t="n">
-        <v>5.931276037372108</v>
+        <v>5.92047594388706</v>
       </c>
       <c r="N11" t="n">
-        <v>68.44394244906842</v>
+        <v>68.08133842418954</v>
       </c>
       <c r="O11" t="n">
-        <v>8.273085424983137</v>
+        <v>8.251141643687227</v>
       </c>
       <c r="P11" t="n">
-        <v>328.5203519566055</v>
+        <v>328.5269741834974</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -23910,28 +24116,28 @@
         <v>0.1149</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.05651443265543791</v>
+        <v>-0.0544302790746086</v>
       </c>
       <c r="J12" t="n">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="K12" t="n">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="L12" t="n">
-        <v>0.002444754535251947</v>
+        <v>0.002300604569406395</v>
       </c>
       <c r="M12" t="n">
-        <v>6.002314018576913</v>
+        <v>5.99607418028824</v>
       </c>
       <c r="N12" t="n">
-        <v>71.40138403838812</v>
+        <v>71.076111764389</v>
       </c>
       <c r="O12" t="n">
-        <v>8.449933966510514</v>
+        <v>8.430664965730106</v>
       </c>
       <c r="P12" t="n">
-        <v>324.3870186657985</v>
+        <v>324.3661873464858</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -23988,28 +24194,28 @@
         <v>0.0853</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.2331820862602067</v>
+        <v>-0.2411890099682875</v>
       </c>
       <c r="J13" t="n">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="K13" t="n">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="L13" t="n">
-        <v>0.035320173944138</v>
+        <v>0.03826428942620119</v>
       </c>
       <c r="M13" t="n">
-        <v>6.570536696172542</v>
+        <v>6.561570140241324</v>
       </c>
       <c r="N13" t="n">
-        <v>81.99861528321657</v>
+        <v>81.53215649562129</v>
       </c>
       <c r="O13" t="n">
-        <v>9.055308679620843</v>
+        <v>9.029515850565925</v>
       </c>
       <c r="P13" t="n">
-        <v>318.7048638928639</v>
+        <v>318.783931077365</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -24066,28 +24272,28 @@
         <v>0.0832</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.2883933574946824</v>
+        <v>-0.2861429074181171</v>
       </c>
       <c r="J14" t="n">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="K14" t="n">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="L14" t="n">
-        <v>0.06320608246936321</v>
+        <v>0.06320545205316874</v>
       </c>
       <c r="M14" t="n">
-        <v>6.199513593458586</v>
+        <v>6.177366101240165</v>
       </c>
       <c r="N14" t="n">
-        <v>69.37435627149513</v>
+        <v>68.93772225802353</v>
       </c>
       <c r="O14" t="n">
-        <v>8.329126981352555</v>
+        <v>8.302874337121063</v>
       </c>
       <c r="P14" t="n">
-        <v>326.147006561853</v>
+        <v>326.1249086429992</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -24144,28 +24350,28 @@
         <v>0.0994</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.3612999747136145</v>
+        <v>-0.3596661707562602</v>
       </c>
       <c r="J15" t="n">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="K15" t="n">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="L15" t="n">
-        <v>0.05072506924622955</v>
+        <v>0.05098671084722772</v>
       </c>
       <c r="M15" t="n">
-        <v>9.020651508045763</v>
+        <v>9.009500540622151</v>
       </c>
       <c r="N15" t="n">
-        <v>136.6818336059337</v>
+        <v>136.0009069890814</v>
       </c>
       <c r="O15" t="n">
-        <v>11.69110061567917</v>
+        <v>11.66194267646181</v>
       </c>
       <c r="P15" t="n">
-        <v>312.5591688226253</v>
+        <v>312.5428608007924</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -24222,28 +24428,28 @@
         <v>0.1419</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.3490728311250273</v>
+        <v>-0.3436633212803681</v>
       </c>
       <c r="J16" t="n">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="K16" t="n">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="L16" t="n">
-        <v>0.05680707068546753</v>
+        <v>0.05611723210867425</v>
       </c>
       <c r="M16" t="n">
-        <v>7.463030378274326</v>
+        <v>7.434734362606592</v>
       </c>
       <c r="N16" t="n">
-        <v>115.0635563062421</v>
+        <v>114.1799236179424</v>
       </c>
       <c r="O16" t="n">
-        <v>10.72676821350411</v>
+        <v>10.68550062551785</v>
       </c>
       <c r="P16" t="n">
-        <v>319.5999313572789</v>
+        <v>319.5476294017119</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -24300,28 +24506,28 @@
         <v>0.1147</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.4281614486213497</v>
+        <v>-0.4295535104937301</v>
       </c>
       <c r="J17" t="n">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="K17" t="n">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="L17" t="n">
-        <v>0.06979941799274214</v>
+        <v>0.07156051599460311</v>
       </c>
       <c r="M17" t="n">
-        <v>8.803835222218929</v>
+        <v>8.745455812849849</v>
       </c>
       <c r="N17" t="n">
-        <v>138.7749412526307</v>
+        <v>137.4251758772381</v>
       </c>
       <c r="O17" t="n">
-        <v>11.78027763903002</v>
+        <v>11.72284845407626</v>
       </c>
       <c r="P17" t="n">
-        <v>324.3047670932751</v>
+        <v>324.3181334113547</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -24359,7 +24565,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R343"/>
+  <dimension ref="A1:R346"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -52305,11 +52511,7 @@
           <t>2025-06-15 22:06:04+00:00</t>
         </is>
       </c>
-      <c r="B342" t="inlineStr">
-        <is>
-          <t>-38.794995753616405,174.5906292309875</t>
-        </is>
-      </c>
+      <c r="B342" t="inlineStr"/>
       <c r="C342" t="inlineStr">
         <is>
           <t>-38.794526615159306,174.5920416628022</t>
@@ -52397,11 +52599,7 @@
           <t>2025-07-25 22:06:18+00:00</t>
         </is>
       </c>
-      <c r="B343" t="inlineStr">
-        <is>
-          <t>-38.79496449845687,174.59045165289322</t>
-        </is>
-      </c>
+      <c r="B343" t="inlineStr"/>
       <c r="C343" t="inlineStr">
         <is>
           <t>-38.7945078554094,174.59193507139466</t>
@@ -52478,6 +52676,282 @@
         </is>
       </c>
       <c r="R343" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-02 22:06:21+00:00</t>
+        </is>
+      </c>
+      <c r="B344" t="inlineStr">
+        <is>
+          <t>-38.795170176943515,174.59162025896714</t>
+        </is>
+      </c>
+      <c r="C344" t="inlineStr">
+        <is>
+          <t>-38.79453543538,174.5920917788066</t>
+        </is>
+      </c>
+      <c r="D344" t="inlineStr">
+        <is>
+          <t>-38.79382212227206,174.59211689836548</t>
+        </is>
+      </c>
+      <c r="E344" t="inlineStr">
+        <is>
+          <t>-38.793171561374756,174.59249860693703</t>
+        </is>
+      </c>
+      <c r="F344" t="inlineStr">
+        <is>
+          <t>-38.79246773458415,174.59257770164658</t>
+        </is>
+      </c>
+      <c r="G344" t="inlineStr">
+        <is>
+          <t>-38.7917678222594,174.59269726400015</t>
+        </is>
+      </c>
+      <c r="H344" t="inlineStr">
+        <is>
+          <t>-38.79109738038251,174.59300570069465</t>
+        </is>
+      </c>
+      <c r="I344" t="inlineStr">
+        <is>
+          <t>-38.79040752658329,174.59316421340262</t>
+        </is>
+      </c>
+      <c r="J344" t="inlineStr">
+        <is>
+          <t>-38.78973586667477,174.59344196196722</t>
+        </is>
+      </c>
+      <c r="K344" t="inlineStr">
+        <is>
+          <t>-38.78904833918105,174.5936118128752</t>
+        </is>
+      </c>
+      <c r="L344" t="inlineStr">
+        <is>
+          <t>-38.78836002024726,174.59377632492644</t>
+        </is>
+      </c>
+      <c r="M344" t="inlineStr">
+        <is>
+          <t>-38.787720983283165,174.59407635491183</t>
+        </is>
+      </c>
+      <c r="N344" t="inlineStr">
+        <is>
+          <t>-38.787060761737,174.59423415210568</t>
+        </is>
+      </c>
+      <c r="O344" t="inlineStr">
+        <is>
+          <t>-38.78647379347634,174.5947863179808</t>
+        </is>
+      </c>
+      <c r="P344" t="inlineStr">
+        <is>
+          <t>-38.785753902759524,174.59486608020848</t>
+        </is>
+      </c>
+      <c r="Q344" t="inlineStr">
+        <is>
+          <t>-38.78510781225432,174.59521721821883</t>
+        </is>
+      </c>
+      <c r="R344" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-10 22:06:28+00:00</t>
+        </is>
+      </c>
+      <c r="B345" t="inlineStr">
+        <is>
+          <t>-38.795167554363644,174.59160535775837</t>
+        </is>
+      </c>
+      <c r="C345" t="inlineStr">
+        <is>
+          <t>-38.79450299060393,174.59190743005675</t>
+        </is>
+      </c>
+      <c r="D345" t="inlineStr">
+        <is>
+          <t>-38.793829667945374,174.59215977199457</t>
+        </is>
+      </c>
+      <c r="E345" t="inlineStr">
+        <is>
+          <t>-38.793146566061786,174.59235658638917</t>
+        </is>
+      </c>
+      <c r="F345" t="inlineStr">
+        <is>
+          <t>-38.792437074211854,174.59240349485276</t>
+        </is>
+      </c>
+      <c r="G345" t="inlineStr">
+        <is>
+          <t>-38.79174817973178,174.59257693195332</t>
+        </is>
+      </c>
+      <c r="H345" t="inlineStr">
+        <is>
+          <t>-38.79106398532052,174.59278123548037</t>
+        </is>
+      </c>
+      <c r="I345" t="inlineStr">
+        <is>
+          <t>-38.790389980150145,174.59304485083248</t>
+        </is>
+      </c>
+      <c r="J345" t="inlineStr">
+        <is>
+          <t>-38.78970544758768,174.59323503104184</t>
+        </is>
+      </c>
+      <c r="K345" t="inlineStr">
+        <is>
+          <t>-38.7890256206512,174.59345726667794</t>
+        </is>
+      </c>
+      <c r="L345" t="inlineStr">
+        <is>
+          <t>-38.78833516825468,174.5936072663788</t>
+        </is>
+      </c>
+      <c r="M345" t="inlineStr">
+        <is>
+          <t>-38.78770063964749,174.59397392687112</t>
+        </is>
+      </c>
+      <c r="N345" t="inlineStr">
+        <is>
+          <t>-38.78702802086196,174.59410916236604</t>
+        </is>
+      </c>
+      <c r="O345" t="inlineStr">
+        <is>
+          <t>-38.78642477215342,174.5946060727545</t>
+        </is>
+      </c>
+      <c r="P345" t="inlineStr">
+        <is>
+          <t>-38.78577081818025,174.5949282756464</t>
+        </is>
+      </c>
+      <c r="Q345" t="inlineStr">
+        <is>
+          <t>-38.785099477550816,174.59518657286498</t>
+        </is>
+      </c>
+      <c r="R345" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-26 22:06:33+00:00</t>
+        </is>
+      </c>
+      <c r="B346" t="inlineStr">
+        <is>
+          <t>-38.79517709580076,174.59165957120626</t>
+        </is>
+      </c>
+      <c r="C346" t="inlineStr">
+        <is>
+          <t>-38.79451343091262,174.59196675089674</t>
+        </is>
+      </c>
+      <c r="D346" t="inlineStr">
+        <is>
+          <t>-38.79384166982556,174.59222796547164</t>
+        </is>
+      </c>
+      <c r="E346" t="inlineStr">
+        <is>
+          <t>-38.79315307323431,174.59239355930444</t>
+        </is>
+      </c>
+      <c r="F346" t="inlineStr">
+        <is>
+          <t>-38.7924471135019,174.5924605361369</t>
+        </is>
+      </c>
+      <c r="G346" t="inlineStr">
+        <is>
+          <t>-38.79176318649568,174.59266886478298</t>
+        </is>
+      </c>
+      <c r="H346" t="inlineStr">
+        <is>
+          <t>-38.79107143518586,174.59283130954745</t>
+        </is>
+      </c>
+      <c r="I346" t="inlineStr">
+        <is>
+          <t>-38.79040335204022,174.59313581528858</t>
+        </is>
+      </c>
+      <c r="J346" t="inlineStr">
+        <is>
+          <t>-38.789719509601,174.59333068990472</t>
+        </is>
+      </c>
+      <c r="K346" t="inlineStr">
+        <is>
+          <t>-38.789038011090256,174.59354155430714</t>
+        </is>
+      </c>
+      <c r="L346" t="inlineStr">
+        <is>
+          <t>-38.788347577650526,174.59369168250225</t>
+        </is>
+      </c>
+      <c r="M346" t="inlineStr">
+        <is>
+          <t>-38.787718002658146,174.59406134774989</t>
+        </is>
+      </c>
+      <c r="N346" t="inlineStr">
+        <is>
+          <t>-38.78705377035636,174.59420746214764</t>
+        </is>
+      </c>
+      <c r="O346" t="inlineStr">
+        <is>
+          <t>-38.78641899564262,174.59458483333677</t>
+        </is>
+      </c>
+      <c r="P346" t="inlineStr">
+        <is>
+          <t>-38.7857348876571,174.59479616474138</t>
+        </is>
+      </c>
+      <c r="Q346" t="inlineStr">
+        <is>
+          <t>-38.7850833699932,174.5951273480914</t>
+        </is>
+      </c>
+      <c r="R346" t="inlineStr">
         <is>
           <t>L9</t>
         </is>

--- a/data/nzd0273/nzd0273.xlsx
+++ b/data/nzd0273/nzd0273.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R346"/>
+  <dimension ref="A1:R347"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19504,6 +19504,66 @@
         </is>
       </c>
     </row>
+    <row r="347">
+      <c r="A347" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-19 22:06:39+00:00</t>
+        </is>
+      </c>
+      <c r="B347" t="n">
+        <v>332.8588888888889</v>
+      </c>
+      <c r="C347" t="n">
+        <v>321.8490476190476</v>
+      </c>
+      <c r="D347" t="n">
+        <v>319.3790476190476</v>
+      </c>
+      <c r="E347" t="n">
+        <v>321.5084848484849</v>
+      </c>
+      <c r="F347" t="n">
+        <v>336.2372413793104</v>
+      </c>
+      <c r="G347" t="n">
+        <v>335.2417647058824</v>
+      </c>
+      <c r="H347" t="n">
+        <v>328.3217647058824</v>
+      </c>
+      <c r="I347" t="n">
+        <v>324.7666666666667</v>
+      </c>
+      <c r="J347" t="n">
+        <v>316.75</v>
+      </c>
+      <c r="K347" t="n">
+        <v>321.51</v>
+      </c>
+      <c r="L347" t="n">
+        <v>317.8990476190476</v>
+      </c>
+      <c r="M347" t="n">
+        <v>309.26</v>
+      </c>
+      <c r="N347" t="n">
+        <v>316.9</v>
+      </c>
+      <c r="O347" t="n">
+        <v>304.0488888888889</v>
+      </c>
+      <c r="P347" t="n">
+        <v>308.9766666666667</v>
+      </c>
+      <c r="Q347" t="n">
+        <v>312.8710526315789</v>
+      </c>
+      <c r="R347" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -19515,7 +19575,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B364"/>
+  <dimension ref="A1:B365"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23163,6 +23223,16 @@
       </c>
       <c r="B364" t="n">
         <v>0.77</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>2025-09-19 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B365" t="n">
+        <v>0.8</v>
       </c>
     </row>
   </sheetData>
@@ -24565,7 +24635,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R346"/>
+  <dimension ref="A1:R347"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -52957,6 +53027,98 @@
         </is>
       </c>
     </row>
+    <row r="347">
+      <c r="A347" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-19 22:06:39+00:00</t>
+        </is>
+      </c>
+      <c r="B347" t="inlineStr">
+        <is>
+          <t>-38.795178591590044,174.59166807013892</t>
+        </is>
+      </c>
+      <c r="C347" t="inlineStr">
+        <is>
+          <t>-38.79451913254519,174.59199914711027</t>
+        </is>
+      </c>
+      <c r="D347" t="inlineStr">
+        <is>
+          <t>-38.79384278529236,174.59223430345472</t>
+        </is>
+      </c>
+      <c r="E347" t="inlineStr">
+        <is>
+          <t>-38.79315733946028,174.5924177994904</t>
+        </is>
+      </c>
+      <c r="F347" t="inlineStr">
+        <is>
+          <t>-38.79244698126267,174.59245978477824</t>
+        </is>
+      </c>
+      <c r="G347" t="inlineStr">
+        <is>
+          <t>-38.791764891903505,174.5926793123004</t>
+        </is>
+      </c>
+      <c r="H347" t="inlineStr">
+        <is>
+          <t>-38.79108739783743,174.59293860259913</t>
+        </is>
+      </c>
+      <c r="I347" t="inlineStr">
+        <is>
+          <t>-38.79040619605239,174.59315516221056</t>
+        </is>
+      </c>
+      <c r="J347" t="inlineStr">
+        <is>
+          <t>-38.789732939539796,174.59342204952551</t>
+        </is>
+      </c>
+      <c r="K347" t="inlineStr">
+        <is>
+          <t>-38.78903842687573,174.59354438275153</t>
+        </is>
+      </c>
+      <c r="L347" t="inlineStr">
+        <is>
+          <t>-38.78835782967047,174.593761423203</t>
+        </is>
+      </c>
+      <c r="M347" t="inlineStr">
+        <is>
+          <t>-38.78771127685398,174.5940274840097</t>
+        </is>
+      </c>
+      <c r="N347" t="inlineStr">
+        <is>
+          <t>-38.78705630097952,174.59421712292942</t>
+        </is>
+      </c>
+      <c r="O347" t="inlineStr">
+        <is>
+          <t>-38.78643944999331,174.59466004118755</t>
+        </is>
+      </c>
+      <c r="P347" t="inlineStr">
+        <is>
+          <t>-38.78576623445944,174.59491142198473</t>
+        </is>
+      </c>
+      <c r="Q347" t="inlineStr">
+        <is>
+          <t>-38.785096068958225,174.59517404003316</t>
+        </is>
+      </c>
+      <c r="R347" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0273/nzd0273.xlsx
+++ b/data/nzd0273/nzd0273.xlsx
@@ -23406,28 +23406,28 @@
         <v>0.101</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.6877722252005088</v>
+        <v>-0.6868425070115772</v>
       </c>
       <c r="J2" t="n">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="K2" t="n">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L2" t="n">
-        <v>0.05593367326927778</v>
+        <v>0.05622737697485791</v>
       </c>
       <c r="M2" t="n">
-        <v>12.24258667291463</v>
+        <v>12.19518229994176</v>
       </c>
       <c r="N2" t="n">
-        <v>446.552557922489</v>
+        <v>444.6336094088203</v>
       </c>
       <c r="O2" t="n">
-        <v>21.13179022048272</v>
+        <v>21.08633703156668</v>
       </c>
       <c r="P2" t="n">
-        <v>349.4173410105494</v>
+        <v>349.4080327679674</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -23484,28 +23484,28 @@
         <v>0.1136</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.3618983544847729</v>
+        <v>-0.3614614350734492</v>
       </c>
       <c r="J3" t="n">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="K3" t="n">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="L3" t="n">
-        <v>0.05636318090806325</v>
+        <v>0.05658624809172275</v>
       </c>
       <c r="M3" t="n">
-        <v>8.138003102293005</v>
+        <v>8.11206258408547</v>
       </c>
       <c r="N3" t="n">
-        <v>124.4662696774346</v>
+        <v>124.0416530963432</v>
       </c>
       <c r="O3" t="n">
-        <v>11.15644520792508</v>
+        <v>11.13739884786134</v>
       </c>
       <c r="P3" t="n">
-        <v>330.4836208466688</v>
+        <v>330.4793045348789</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -23562,28 +23562,28 @@
         <v>0.117</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.3193836811705361</v>
+        <v>-0.3233754418047058</v>
       </c>
       <c r="J4" t="n">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="K4" t="n">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="L4" t="n">
-        <v>0.05086337786874551</v>
+        <v>0.05235439342579773</v>
       </c>
       <c r="M4" t="n">
-        <v>7.212123474057428</v>
+        <v>7.211969764828404</v>
       </c>
       <c r="N4" t="n">
-        <v>109.2603486017295</v>
+        <v>109.0145098607333</v>
       </c>
       <c r="O4" t="n">
-        <v>10.45276750921637</v>
+        <v>10.44100138208655</v>
       </c>
       <c r="P4" t="n">
-        <v>333.8462519358764</v>
+        <v>333.8851141381234</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -23640,28 +23640,28 @@
         <v>0.189</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.7251763094564552</v>
+        <v>-0.7248606288642263</v>
       </c>
       <c r="J5" t="n">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="K5" t="n">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="L5" t="n">
-        <v>0.2325266789366287</v>
+        <v>0.2335853303704514</v>
       </c>
       <c r="M5" t="n">
-        <v>7.034843831189055</v>
+        <v>7.012029346186385</v>
       </c>
       <c r="N5" t="n">
-        <v>100.7329814621663</v>
+        <v>100.3876702241366</v>
       </c>
       <c r="O5" t="n">
-        <v>10.03658216038539</v>
+        <v>10.01936476150742</v>
       </c>
       <c r="P5" t="n">
-        <v>339.7032834022412</v>
+        <v>339.7002409488788</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -23718,28 +23718,28 @@
         <v>0.1671</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.5232748232171124</v>
+        <v>-0.5213305100720896</v>
       </c>
       <c r="J6" t="n">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="K6" t="n">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="L6" t="n">
-        <v>0.1885042220874369</v>
+        <v>0.1882932941302554</v>
       </c>
       <c r="M6" t="n">
-        <v>5.814907529463188</v>
+        <v>5.804324176392752</v>
       </c>
       <c r="N6" t="n">
-        <v>67.26433130635702</v>
+        <v>67.06998608557923</v>
       </c>
       <c r="O6" t="n">
-        <v>8.201483482051099</v>
+        <v>8.189626736645526</v>
       </c>
       <c r="P6" t="n">
-        <v>346.5909096673914</v>
+        <v>346.5718062872955</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -23796,28 +23796,28 @@
         <v>0.0965</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.5148284326433004</v>
+        <v>-0.5174752979088052</v>
       </c>
       <c r="J7" t="n">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="K7" t="n">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="L7" t="n">
-        <v>0.1640825329580788</v>
+        <v>0.1662831530469868</v>
       </c>
       <c r="M7" t="n">
-        <v>6.517828083859666</v>
+        <v>6.510281648656832</v>
       </c>
       <c r="N7" t="n">
-        <v>75.7916991030387</v>
+        <v>75.60203267803219</v>
       </c>
       <c r="O7" t="n">
-        <v>8.705842814055323</v>
+        <v>8.694942937019897</v>
       </c>
       <c r="P7" t="n">
-        <v>352.8153920629153</v>
+        <v>352.8416421714991</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -23874,28 +23874,28 @@
         <v>0.0979</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.3703869157240927</v>
+        <v>-0.3734112047963236</v>
       </c>
       <c r="J8" t="n">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="K8" t="n">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="L8" t="n">
-        <v>0.07793794418181088</v>
+        <v>0.07954457500802192</v>
       </c>
       <c r="M8" t="n">
-        <v>7.353483644734904</v>
+        <v>7.34291688332671</v>
       </c>
       <c r="N8" t="n">
-        <v>92.18233123991878</v>
+        <v>91.94170145659325</v>
       </c>
       <c r="O8" t="n">
-        <v>9.601163014964321</v>
+        <v>9.588623543376455</v>
       </c>
       <c r="P8" t="n">
-        <v>342.627173374027</v>
+        <v>342.6569619185017</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -23952,28 +23952,28 @@
         <v>0.0859</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.5766203612055631</v>
+        <v>-0.576967136579882</v>
       </c>
       <c r="J9" t="n">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="K9" t="n">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="L9" t="n">
-        <v>0.1669829855374565</v>
+        <v>0.1680812579925187</v>
       </c>
       <c r="M9" t="n">
-        <v>7.051302999886757</v>
+        <v>7.029287008370777</v>
       </c>
       <c r="N9" t="n">
-        <v>91.97072066597306</v>
+        <v>91.65889269249203</v>
       </c>
       <c r="O9" t="n">
-        <v>9.590136634374563</v>
+        <v>9.573865086394942</v>
       </c>
       <c r="P9" t="n">
-        <v>340.1760184492384</v>
+        <v>340.1794934429734</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -24030,28 +24030,28 @@
         <v>0.0877</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.4272106673609443</v>
+        <v>-0.4314148418620189</v>
       </c>
       <c r="J10" t="n">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="K10" t="n">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="L10" t="n">
-        <v>0.09465139699493319</v>
+        <v>0.09673113577048043</v>
       </c>
       <c r="M10" t="n">
-        <v>7.253767095306355</v>
+        <v>7.25552035343677</v>
       </c>
       <c r="N10" t="n">
-        <v>96.07934958548033</v>
+        <v>95.92659417101461</v>
       </c>
       <c r="O10" t="n">
-        <v>9.802007426312242</v>
+        <v>9.794212279250161</v>
       </c>
       <c r="P10" t="n">
-        <v>334.7983655496278</v>
+        <v>334.8411950804343</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -24108,28 +24108,28 @@
         <v>0.1065</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.2334408755930909</v>
+        <v>-0.2340476533399912</v>
       </c>
       <c r="J11" t="n">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="K11" t="n">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="L11" t="n">
-        <v>0.04241894279941283</v>
+        <v>0.04288826881210273</v>
       </c>
       <c r="M11" t="n">
-        <v>5.92047594388706</v>
+        <v>5.904578501149875</v>
       </c>
       <c r="N11" t="n">
-        <v>68.08133842418954</v>
+        <v>67.86350416949458</v>
       </c>
       <c r="O11" t="n">
-        <v>8.251141643687227</v>
+        <v>8.237930818445527</v>
       </c>
       <c r="P11" t="n">
-        <v>328.5269741834974</v>
+        <v>328.5330714870346</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -24186,28 +24186,28 @@
         <v>0.1149</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.0544302790746086</v>
+        <v>-0.05755455424567647</v>
       </c>
       <c r="J12" t="n">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="K12" t="n">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="L12" t="n">
-        <v>0.002300604569406395</v>
+        <v>0.002585251079593731</v>
       </c>
       <c r="M12" t="n">
-        <v>5.99607418028824</v>
+        <v>5.992676530992412</v>
       </c>
       <c r="N12" t="n">
-        <v>71.076111764389</v>
+        <v>70.92633525179581</v>
       </c>
       <c r="O12" t="n">
-        <v>8.430664965730106</v>
+        <v>8.421777440172342</v>
       </c>
       <c r="P12" t="n">
-        <v>324.3661873464858</v>
+        <v>324.3974992817973</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -24264,28 +24264,28 @@
         <v>0.0853</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.2411890099682875</v>
+        <v>-0.2432268650217831</v>
       </c>
       <c r="J13" t="n">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="K13" t="n">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="L13" t="n">
-        <v>0.03826428942620119</v>
+        <v>0.03911745027520341</v>
       </c>
       <c r="M13" t="n">
-        <v>6.561570140241324</v>
+        <v>6.551946051596846</v>
       </c>
       <c r="N13" t="n">
-        <v>81.53215649562129</v>
+        <v>81.30108399263338</v>
       </c>
       <c r="O13" t="n">
-        <v>9.029515850565925</v>
+        <v>9.016711373479433</v>
       </c>
       <c r="P13" t="n">
-        <v>318.783931077365</v>
+        <v>318.804157853503</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -24342,28 +24342,28 @@
         <v>0.0832</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.2861429074181171</v>
+        <v>-0.2872701149091721</v>
       </c>
       <c r="J14" t="n">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="K14" t="n">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="L14" t="n">
-        <v>0.06320545205316874</v>
+        <v>0.06404674117122622</v>
       </c>
       <c r="M14" t="n">
-        <v>6.177366101240165</v>
+        <v>6.163632336575943</v>
       </c>
       <c r="N14" t="n">
-        <v>68.93772225802353</v>
+        <v>68.71993220342455</v>
       </c>
       <c r="O14" t="n">
-        <v>8.302874337121063</v>
+        <v>8.289748621244467</v>
       </c>
       <c r="P14" t="n">
-        <v>326.1249086429992</v>
+        <v>326.1360360582082</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -24420,28 +24420,28 @@
         <v>0.0994</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.3596661707562602</v>
+        <v>-0.3591812575887532</v>
       </c>
       <c r="J15" t="n">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="K15" t="n">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="L15" t="n">
-        <v>0.05098671084722772</v>
+        <v>0.05117198052767269</v>
       </c>
       <c r="M15" t="n">
-        <v>9.009500540622151</v>
+        <v>8.981068180596553</v>
       </c>
       <c r="N15" t="n">
-        <v>136.0009069890814</v>
+        <v>135.5419189130331</v>
       </c>
       <c r="O15" t="n">
-        <v>11.66194267646181</v>
+        <v>11.64224715907685</v>
       </c>
       <c r="P15" t="n">
-        <v>312.5428608007924</v>
+        <v>312.5380489516024</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -24498,28 +24498,28 @@
         <v>0.1419</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.3436633212803681</v>
+        <v>-0.3447822320250861</v>
       </c>
       <c r="J16" t="n">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="K16" t="n">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="L16" t="n">
-        <v>0.05611723210867425</v>
+        <v>0.05683324069817808</v>
       </c>
       <c r="M16" t="n">
-        <v>7.434734362606592</v>
+        <v>7.414633677683264</v>
       </c>
       <c r="N16" t="n">
-        <v>114.1799236179424</v>
+        <v>113.7867023508071</v>
       </c>
       <c r="O16" t="n">
-        <v>10.68550062551785</v>
+        <v>10.66708499782425</v>
       </c>
       <c r="P16" t="n">
-        <v>319.5476294017119</v>
+        <v>319.5584863072444</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -24576,28 +24576,28 @@
         <v>0.1147</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.4295535104937301</v>
+        <v>-0.4297982319133706</v>
       </c>
       <c r="J17" t="n">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="K17" t="n">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="L17" t="n">
-        <v>0.07156051599460311</v>
+        <v>0.07210483159618131</v>
       </c>
       <c r="M17" t="n">
-        <v>8.745455812849849</v>
+        <v>8.715826906300164</v>
       </c>
       <c r="N17" t="n">
-        <v>137.4251758772381</v>
+        <v>136.9383416785497</v>
       </c>
       <c r="O17" t="n">
-        <v>11.72284845407626</v>
+        <v>11.70206570134306</v>
       </c>
       <c r="P17" t="n">
-        <v>324.3181334113547</v>
+        <v>324.320512554117</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">

--- a/data/nzd0273/nzd0273.xlsx
+++ b/data/nzd0273/nzd0273.xlsx
@@ -23397,13 +23397,13 @@
         <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0839</v>
+        <v>0.07190000000000001</v>
       </c>
       <c r="H2" t="n">
-        <v>0.101</v>
+        <v>0.169</v>
       </c>
       <c r="I2" t="n">
         <v>-0.6868238935696188</v>
@@ -23475,13 +23475,13 @@
         <v>0.933326589911927</v>
       </c>
       <c r="F3" t="n">
-        <v>0.105</v>
+        <v>0.145</v>
       </c>
       <c r="G3" t="n">
-        <v>0.094</v>
+        <v>0.1209</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1136</v>
+        <v>0.1861</v>
       </c>
       <c r="I3" t="n">
         <v>-0.3614961650725276</v>
@@ -23553,13 +23553,13 @@
         <v>0.8666531798244583</v>
       </c>
       <c r="F4" t="n">
-        <v>0.105</v>
+        <v>0.1</v>
       </c>
       <c r="G4" t="n">
-        <v>0.099</v>
+        <v>0.0882</v>
       </c>
       <c r="H4" t="n">
-        <v>0.117</v>
+        <v>0.1122</v>
       </c>
       <c r="I4" t="n">
         <v>-0.3234088617417146</v>
@@ -23631,13 +23631,13 @@
         <v>0.7999797697369896</v>
       </c>
       <c r="F5" t="n">
-        <v>0.165</v>
+        <v>0.15</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1477</v>
+        <v>0.125</v>
       </c>
       <c r="H5" t="n">
-        <v>0.189</v>
+        <v>0.1897</v>
       </c>
       <c r="I5" t="n">
         <v>-0.7248842879851977</v>
@@ -23709,13 +23709,13 @@
         <v>0.7333063596489474</v>
       </c>
       <c r="F6" t="n">
-        <v>0.145</v>
+        <v>0.185</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1254</v>
+        <v>0.1664</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1671</v>
+        <v>0.2</v>
       </c>
       <c r="I6" t="n">
         <v>-0.5213317973870951</v>
@@ -23787,13 +23787,13 @@
         <v>0.6666329495614786</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08500000000000001</v>
+        <v>0.105</v>
       </c>
       <c r="G7" t="n">
-        <v>0.07679999999999999</v>
+        <v>0.0922</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0965</v>
+        <v>0.1223</v>
       </c>
       <c r="I7" t="n">
         <v>-0.5174226488438579</v>
@@ -23865,13 +23865,13 @@
         <v>0.5999641012475412</v>
       </c>
       <c r="F8" t="n">
-        <v>0.08500000000000001</v>
+        <v>0.12</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0791</v>
+        <v>0.1013</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0979</v>
+        <v>0.1485</v>
       </c>
       <c r="I8" t="n">
         <v>-0.373347570514565</v>
@@ -23943,13 +23943,13 @@
         <v>0.5332906911602295</v>
       </c>
       <c r="F9" t="n">
-        <v>0.075</v>
+        <v>0.105</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0697</v>
+        <v>0.09329999999999999</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0859</v>
+        <v>0.1213</v>
       </c>
       <c r="I9" t="n">
         <v>-0.5769712494798799</v>
@@ -24021,13 +24021,13 @@
         <v>0.4666172810718219</v>
       </c>
       <c r="F10" t="n">
-        <v>0.08</v>
+        <v>0.13</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0703</v>
+        <v>0.1156</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0877</v>
+        <v>0.1425</v>
       </c>
       <c r="I10" t="n">
         <v>-0.4314498620978067</v>
@@ -24099,13 +24099,13 @@
         <v>0.3999438709839014</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1</v>
+        <v>0.135</v>
       </c>
       <c r="G11" t="n">
-        <v>0.08989999999999999</v>
+        <v>0.1162</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1065</v>
+        <v>0.1625</v>
       </c>
       <c r="I11" t="n">
         <v>-0.2340476533399914</v>
@@ -24177,13 +24177,13 @@
         <v>0.3332704608959808</v>
       </c>
       <c r="F12" t="n">
-        <v>0.105</v>
+        <v>0.185</v>
       </c>
       <c r="G12" t="n">
-        <v>0.09329999999999999</v>
+        <v>0.1693</v>
       </c>
       <c r="H12" t="n">
-        <v>0.1149</v>
+        <v>0.2</v>
       </c>
       <c r="I12" t="n">
         <v>-0.05757694363713829</v>
@@ -24255,13 +24255,13 @@
         <v>0.266597050807695</v>
       </c>
       <c r="F13" t="n">
-        <v>0.08</v>
+        <v>0.11</v>
       </c>
       <c r="G13" t="n">
-        <v>0.077</v>
+        <v>0.099</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0853</v>
+        <v>0.1185</v>
       </c>
       <c r="I13" t="n">
         <v>-0.2432565004725643</v>
@@ -24333,13 +24333,13 @@
         <v>0.200020230262859</v>
       </c>
       <c r="F14" t="n">
-        <v>0.08</v>
+        <v>0.11</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0731</v>
+        <v>0.1026</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0832</v>
+        <v>0.12</v>
       </c>
       <c r="I14" t="n">
         <v>-0.2872388376535221</v>
@@ -24411,13 +24411,13 @@
         <v>0.1333468201745908</v>
       </c>
       <c r="F15" t="n">
-        <v>0.09</v>
+        <v>0.125</v>
       </c>
       <c r="G15" t="n">
-        <v>0.07920000000000001</v>
+        <v>0.1066</v>
       </c>
       <c r="H15" t="n">
-        <v>0.0994</v>
+        <v>0.1463</v>
       </c>
       <c r="I15" t="n">
         <v>-0.3591609621239065</v>
@@ -24492,10 +24492,10 @@
         <v>0.12</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1048</v>
+        <v>0.1038</v>
       </c>
       <c r="H16" t="n">
-        <v>0.1419</v>
+        <v>0.139</v>
       </c>
       <c r="I16" t="n">
         <v>-0.3447873574972586</v>
@@ -24567,13 +24567,13 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0.095</v>
+        <v>0.11</v>
       </c>
       <c r="G17" t="n">
-        <v>0.08409999999999999</v>
+        <v>0.0964</v>
       </c>
       <c r="H17" t="n">
-        <v>0.1147</v>
+        <v>0.1235</v>
       </c>
       <c r="I17" t="n">
         <v>-0.4297945034241853</v>
